--- a/documents/layout/画面遷移図.xlsx
+++ b/documents/layout/画面遷移図.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="12060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="19200" windowHeight="12045" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -74,8 +74,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,7 +201,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -219,7 +219,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -237,7 +237,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -255,7 +255,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -273,7 +273,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -291,7 +291,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,10 +422,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30258</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>154081</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -435,7 +435,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="428625" y="1171575"/>
+          <a:off x="2047317" y="658346"/>
           <a:ext cx="1172116" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -444,13 +444,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -462,6 +462,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -476,10 +477,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4482</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -489,7 +490,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2667000" y="1685925"/>
+          <a:off x="1349188" y="1509993"/>
           <a:ext cx="748923" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -516,6 +517,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -530,10 +532,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7845</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -543,7 +545,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2647950" y="2438400"/>
+          <a:off x="2921374" y="1517276"/>
           <a:ext cx="748923" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -570,6 +572,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -584,12 +587,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1172116" cy="328423"/>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25774</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83484</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
@@ -597,8 +600,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3895725" y="1704975"/>
-          <a:ext cx="1172116" cy="328423"/>
+          <a:off x="249892" y="2268631"/>
+          <a:ext cx="889987" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -624,12 +627,13 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>外部の認証画面</a:t>
+            <a:t>外部の認証</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -638,12 +642,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1172116" cy="328423"/>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>67237</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
@@ -651,8 +655,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4600575" y="2400300"/>
-          <a:ext cx="1172116" cy="328423"/>
+          <a:off x="4325472" y="1524000"/>
+          <a:ext cx="889987" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -678,12 +682,13 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>外部の認証画面</a:t>
+            <a:t>外部の認証</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -692,12 +697,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="889987" cy="328423"/>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>108697</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52668</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1877437" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
@@ -705,8 +710,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4810125" y="3276600"/>
-          <a:ext cx="889987" cy="328423"/>
+          <a:off x="2349873" y="2742080"/>
+          <a:ext cx="1877437" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -732,12 +737,13 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>本登録画面</a:t>
+            <a:t>メール認証パスワード設定</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -746,10 +752,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>98052</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>86285</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -759,7 +765,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="3276600"/>
+          <a:off x="2787464" y="2103344"/>
           <a:ext cx="1031051" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -786,6 +792,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -800,12 +807,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="889987" cy="328423"/>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>100292</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41461</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
@@ -813,8 +820,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6638925" y="2419350"/>
-          <a:ext cx="889987" cy="328423"/>
+          <a:off x="2565586" y="3403226"/>
+          <a:ext cx="1454244" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -840,12 +847,13 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>マイページ</a:t>
+            <a:t>メール認証登録完了</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -854,12 +862,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="889987" cy="328423"/>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161948</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
@@ -867,8 +875,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="438150" y="4286250"/>
-          <a:ext cx="889987" cy="328423"/>
+          <a:off x="1954889" y="4258235"/>
+          <a:ext cx="1031051" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -894,12 +902,13 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>マイページ</a:t>
+            <a:t>プロフィール</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -908,9 +917,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -948,6 +957,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -962,9 +972,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198353</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -975,7 +985,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="4810125"/>
+          <a:off x="2215412" y="4715996"/>
           <a:ext cx="1031051" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1002,6 +1012,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -1016,9 +1027,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>188828</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
@@ -1029,7 +1040,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1323975" y="5505450"/>
+          <a:off x="2205887" y="5397874"/>
           <a:ext cx="1172116" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1056,6 +1067,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -1070,12 +1082,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>155210</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1595309" cy="328423"/>
+    <xdr:ext cx="1845377" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
@@ -1083,8 +1095,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048000" y="4810125"/>
-          <a:ext cx="1595309" cy="328423"/>
+          <a:off x="3965210" y="4715996"/>
+          <a:ext cx="1845377" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1110,13 +1122,39 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ユーザープロフィール</a:t>
-          </a:r>
+            <a:t>プロフィール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1124,12 +1162,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>179303</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1595309" cy="328423"/>
+    <xdr:ext cx="1845377" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
@@ -1137,8 +1175,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3067050" y="5486400"/>
-          <a:ext cx="1595309" cy="328423"/>
+          <a:off x="3989303" y="5378824"/>
+          <a:ext cx="1845377" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1164,13 +1202,39 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ユーザープロフィール</a:t>
-          </a:r>
+            <a:t>プロフィール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1178,9 +1242,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -1200,13 +1264,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1218,6 +1282,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -1232,9 +1297,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -1254,13 +1319,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1272,6 +1337,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -1286,9 +1352,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="328423"/>
@@ -1308,13 +1374,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1326,6 +1392,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -1340,9 +1407,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="328423"/>
@@ -1362,13 +1429,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1380,6 +1447,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -1394,9 +1462,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2018501" cy="328423"/>
@@ -1416,13 +1484,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1434,6 +1502,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -1448,9 +1517,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
@@ -1470,13 +1539,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1488,6 +1557,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -1502,10 +1572,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>156892</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1595309" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -1515,7 +1585,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1314450" y="6858000"/>
+          <a:off x="2173951" y="8191500"/>
           <a:ext cx="1595309" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1542,6 +1612,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -1556,10 +1627,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190509</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1595309" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -1569,7 +1640,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1314450" y="7543800"/>
+          <a:off x="3104038" y="9401736"/>
           <a:ext cx="1595309" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1596,6 +1667,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -1610,9 +1682,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -1632,13 +1704,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1650,6 +1722,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -1664,9 +1737,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1595309" cy="328423"/>
@@ -1686,13 +1759,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1704,6 +1777,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -1718,9 +1792,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1595309" cy="328423"/>
@@ -1740,13 +1814,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1758,6 +1832,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -1772,9 +1847,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1595309" cy="328423"/>
@@ -1794,13 +1869,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1812,6 +1887,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -1826,9 +1902,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -1866,6 +1942,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -1880,9 +1957,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>179303</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
@@ -1893,7 +1970,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1314450" y="6172200"/>
+          <a:off x="2196362" y="6051176"/>
           <a:ext cx="1172116" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1920,6 +1997,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -1934,10 +2012,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>145691</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -1947,7 +2025,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1971675" y="6686550"/>
+          <a:off x="4179809" y="7082118"/>
           <a:ext cx="1172116" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1974,12 +2052,13 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>登録サイト詳細</a:t>
+            <a:t>サイト情報詳細</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1988,10 +2067,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>179303</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -2001,7 +2080,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2409825" y="7200900"/>
+          <a:off x="4213421" y="7676029"/>
           <a:ext cx="1172116" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2028,12 +2107,13 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>登録サイト修正</a:t>
+            <a:t>サイト情報修正</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2042,9 +2122,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1381468" cy="328423"/>
@@ -2082,6 +2162,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -2110,9 +2191,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -2150,6 +2231,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -2162,6 +2244,3058 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123278</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3260925" y="6555441"/>
+          <a:ext cx="1172116" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト新規登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>12</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5827071" y="7070912"/>
+          <a:ext cx="1172116" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト情報修正</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>48276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198352</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>5649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="カギ線コネクタ 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2644373" y="4412699"/>
+          <a:ext cx="293550" cy="641467"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>108816</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>5649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>155210</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>18349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="カギ線コネクタ 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3246463" y="4880208"/>
+          <a:ext cx="718747" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>16238</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>179303</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15174</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="カギ線コネクタ 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3378003" y="5543036"/>
+          <a:ext cx="611300" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5121</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>48276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>188828</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15174</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="カギ線コネクタ 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2298672" y="4758401"/>
+          <a:ext cx="975428" cy="631942"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>48276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>179302</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="カギ線コネクタ 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1967258" y="5089814"/>
+          <a:ext cx="1628730" cy="622417"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5121</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>48276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>156892</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>119388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="カギ線コネクタ 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="885891" y="6171182"/>
+          <a:ext cx="3769054" cy="600006"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>48275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190508</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>153007</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="カギ線コネクタ 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="381625" y="6843535"/>
+          <a:ext cx="4811202" cy="633623"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>58076</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>115511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>78450</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>153005</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="カギ線コネクタ 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="2"/>
+          <a:endCxn id="79" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3131134" y="8360394"/>
+          <a:ext cx="373670" cy="692727"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>78451</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="テキスト ボックス 78"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3664333" y="8729381"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>20650</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1845377" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="テキスト ボックス 81"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5847709" y="8897470"/>
+          <a:ext cx="1845377" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プロフィール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>71967</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>153005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>20650</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>153006</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="カギ線コネクタ 82"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="3"/>
+          <a:endCxn id="82" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5450791" y="9061681"/>
+          <a:ext cx="396918" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>100862</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="円/楕円 93"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7720862" y="8919882"/>
+          <a:ext cx="347375" cy="302560"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79757</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1845377" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="テキスト ボックス 98"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1648581" y="25112382"/>
+          <a:ext cx="1845377" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プロフィール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2127505" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="テキスト ボックス 99"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3137647" y="25045147"/>
+          <a:ext cx="2127505" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>お気に入りサイト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2127505" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="テキスト ボックス 100"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3137647" y="26053676"/>
+          <a:ext cx="2127505" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>お気に入りゲーム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1845377" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="テキスト ボックス 101"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3137647" y="26894118"/>
+          <a:ext cx="1845377" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>フォロー一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1986441" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="テキスト ボックス 102"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3137647" y="27734559"/>
+          <a:ext cx="1986441" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>フォロワー一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2018501" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="テキスト ボックス 103"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3137647" y="28575000"/>
+          <a:ext cx="2018501" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レビュー一覧（他ユーザー）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="テキスト ボックス 104"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1131794" y="3787588"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>マイページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>134463</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="円/楕円 117"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838265" y="5367618"/>
+          <a:ext cx="347374" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>208429</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>107568</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>141194</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="円/楕円 118"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5811370" y="4713194"/>
+          <a:ext cx="347374" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56019</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="円/楕円 119"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1277470" y="25280471"/>
+          <a:ext cx="347373" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>154826</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>146329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168081</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="カギ線コネクタ 120"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2365136" y="1241754"/>
+          <a:ext cx="523224" cy="13255"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22534</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>154827</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83483</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="カギ線コネクタ 124"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="994161" y="1539141"/>
+          <a:ext cx="430215" cy="1028764"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4722</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>154826</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85772</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="カギ線コネクタ 133"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="105" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1264259" y="2595939"/>
+          <a:ext cx="2113384" cy="598339"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7964</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>75730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22532</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="カギ線コネクタ 136"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="105" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="988805" y="3185037"/>
+          <a:ext cx="1190534" cy="14568"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>84415</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>67237</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="149" name="カギ線コネクタ 148"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3670297" y="1681488"/>
+          <a:ext cx="655175" cy="6724"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>154826</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>98052</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>82409</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="カギ線コネクタ 152"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2937457" y="1521079"/>
+          <a:ext cx="429140" cy="1063814"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>150946</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>78531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>165344</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52667</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="158" name="カギ線コネクタ 157"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3140635" y="2579724"/>
+          <a:ext cx="310313" cy="14398"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>150946</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>155062</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41460</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="162" name="カギ線コネクタ 161"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3124289" y="3234806"/>
+          <a:ext cx="332723" cy="4116"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4723</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>155062</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85770</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="176" name="カギ線コネクタ 175"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="105" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2995405" y="2758025"/>
+          <a:ext cx="220151" cy="2167398"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>63995</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>71902</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="179" name="カギ線コネクタ 178"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="183" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3997337" y="2625551"/>
+          <a:ext cx="1554165" cy="7907"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="テキスト ボックス 182"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4403911" y="3406588"/>
+          <a:ext cx="748923" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>登録完了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4723</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>37070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>71904</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85771</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="186" name="カギ線コネクタ 185"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="183" idx="2"/>
+          <a:endCxn id="105" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3739919" y="2016874"/>
+          <a:ext cx="216789" cy="3653063"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="564514"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="テキスト ボックス 190"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="280148" y="1322294"/>
+          <a:ext cx="1172116" cy="564514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>外部認証エラー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>193853</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25774</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>79609</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="192" name="カギ線コネクタ 191"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+          <a:endCxn id="191" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="866206" y="1886809"/>
+          <a:ext cx="280156" cy="546035"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>107558</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4482</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161411</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="195" name="カギ線コネクタ 194"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="191" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1452264" y="1604551"/>
+          <a:ext cx="793394" cy="69654"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>193852</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>150206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30257</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="198" name="カギ線コネクタ 197"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="191" idx="0"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1206893" y="481871"/>
+          <a:ext cx="499736" cy="1181111"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>81786</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>150205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7845</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>606</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="205" name="カギ線コネクタ 204"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219433" y="822558"/>
+          <a:ext cx="598412" cy="858930"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="564514"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="208" name="テキスト ボックス 207"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="1389529"/>
+          <a:ext cx="1172116" cy="564514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>外部認証エラー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>新規登録</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>60754</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>158992</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="209" name="カギ線コネクタ 208"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="208" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6111930" y="1671786"/>
+          <a:ext cx="555570" cy="16426"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>158189</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>81793</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4481</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="212" name="カギ線コネクタ 211"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="208" idx="0"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1" flipV="1">
+          <a:off x="5659059" y="-77224"/>
+          <a:ext cx="127747" cy="3061251"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -178947"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7963</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>81893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161947</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>52153</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="223" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="2"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1612620" y="4080178"/>
+          <a:ext cx="306436" cy="378101"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>206017</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3570208" cy="564514"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="226" name="テキスト ボックス 225"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3119546" y="4213412"/>
+          <a:ext cx="3570208" cy="564514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ログイン後は全ての画面でマイページへ遷移できる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　なのでマイページへの線は省略</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>112060</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1674</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="227" name="円/楕円 226"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="784413" y="3787588"/>
+          <a:ext cx="337849" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>83054</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2409634" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="231" name="テキスト ボックス 230"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3893054" y="29415441"/>
+          <a:ext cx="2409634" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>参加コミュニティ一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>197219</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>7330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>12</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>18536</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="239" name="カギ線コネクタ 238"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5351925" y="7403212"/>
+          <a:ext cx="475146" cy="11206"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>93009</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123279</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>164211</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="242" name="カギ線コネクタ 241"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="2"/>
+          <a:endCxn id="37" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3748117" y="6478461"/>
+          <a:ext cx="340053" cy="478506"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>93007</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>145690</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>18536</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="245" name="カギ線コネクタ 244"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="2"/>
+          <a:endCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3495984" y="6730593"/>
+          <a:ext cx="866730" cy="500919"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>93008</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>179303</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>108181</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="246" name="カギ線コネクタ 245"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="2"/>
+          <a:endCxn id="34" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3215835" y="7010742"/>
+          <a:ext cx="1460641" cy="534531"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2179,7 +5313,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2253,6 +5387,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2287,6 +5422,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2462,19 +5598,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:AC11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:29" ht="33.75" thickBot="1">
+    <row r="7" spans="1:29" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2507,8 +5643,8 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="1:29" ht="19.5" thickTop="1"/>
-    <row r="10" spans="1:29">
+    <row r="8" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="P10" s="11" t="s">
         <v>0</v>
       </c>
@@ -2523,7 +5659,7 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="P11" s="11" t="s">
         <v>1</v>
       </c>
@@ -2553,14 +5689,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F171"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -2570,7 +5706,7 @@
     <col min="7" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2586,7 +5722,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -2598,7 +5734,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2606,7 +5742,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2614,7 +5750,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2622,7 +5758,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2630,7 +5766,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2638,7 +5774,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2646,7 +5782,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2654,7 +5790,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2662,7 +5798,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2670,7 +5806,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2678,7 +5814,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2686,7 +5822,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2694,7 +5830,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2702,7 +5838,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2710,7 +5846,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2718,7 +5854,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2726,7 +5862,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2734,7 +5870,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2742,7 +5878,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2750,7 +5886,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2758,7 +5894,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2766,7 +5902,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2774,7 +5910,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2782,7 +5918,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2790,7 +5926,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2798,7 +5934,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2806,7 +5942,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2814,7 +5950,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2822,7 +5958,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2830,7 +5966,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2838,7 +5974,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2846,7 +5982,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2854,7 +5990,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2862,7 +5998,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2870,7 +6006,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2878,7 +6014,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2886,7 +6022,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2894,7 +6030,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2902,7 +6038,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2910,7 +6046,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2918,7 +6054,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2926,7 +6062,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2934,7 +6070,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2942,7 +6078,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2950,7 +6086,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2958,7 +6094,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2966,7 +6102,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2974,7 +6110,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2982,7 +6118,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2990,7 +6126,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2998,7 +6134,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3006,7 +6142,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3014,7 +6150,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3022,7 +6158,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3030,7 +6166,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3038,7 +6174,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3046,7 +6182,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3054,7 +6190,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3062,7 +6198,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3070,7 +6206,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3078,7 +6214,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3086,7 +6222,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3094,7 +6230,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3102,7 +6238,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3110,7 +6246,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3118,7 +6254,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3126,7 +6262,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3134,7 +6270,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3142,7 +6278,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3150,7 +6286,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3158,7 +6294,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3166,7 +6302,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3174,7 +6310,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3182,7 +6318,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3190,7 +6326,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3198,7 +6334,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3206,7 +6342,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3214,7 +6350,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3222,7 +6358,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3230,7 +6366,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3238,7 +6374,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3246,7 +6382,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3254,7 +6390,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3262,7 +6398,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3270,7 +6406,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3278,7 +6414,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3286,7 +6422,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3294,7 +6430,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3302,7 +6438,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3310,7 +6446,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3318,7 +6454,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3326,7 +6462,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3334,7 +6470,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3342,7 +6478,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3350,7 +6486,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3358,7 +6494,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3366,7 +6502,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3374,7 +6510,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3382,7 +6518,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3390,7 +6526,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3398,7 +6534,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3406,7 +6542,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3414,7 +6550,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3422,7 +6558,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3430,7 +6566,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3438,7 +6574,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3446,7 +6582,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3454,7 +6590,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3462,7 +6598,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3470,7 +6606,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3478,7 +6614,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3486,7 +6622,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3494,7 +6630,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3502,7 +6638,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3510,7 +6646,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3518,7 +6654,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3526,7 +6662,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3534,7 +6670,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3542,7 +6678,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -3550,7 +6686,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -3558,7 +6694,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -3566,7 +6702,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -3574,7 +6710,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3582,7 +6718,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -3590,7 +6726,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -3598,7 +6734,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -3606,7 +6742,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -3614,7 +6750,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -3622,7 +6758,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -3630,7 +6766,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -3638,7 +6774,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -3646,7 +6782,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -3654,7 +6790,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -3662,7 +6798,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -3670,7 +6806,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3678,7 +6814,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3686,7 +6822,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3694,7 +6830,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3702,7 +6838,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3710,7 +6846,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3718,7 +6854,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3726,7 +6862,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3734,7 +6870,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3742,7 +6878,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3750,7 +6886,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -3758,7 +6894,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -3766,7 +6902,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -3774,7 +6910,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -3782,7 +6918,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -3790,7 +6926,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -3798,7 +6934,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -3806,7 +6942,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -3814,7 +6950,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -3822,7 +6958,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -3830,7 +6966,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -3838,7 +6974,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -3846,34 +6982,34 @@
       <c r="E161" s="4"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E171" s="2"/>
     </row>
   </sheetData>
@@ -3888,14 +7024,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/layout/画面遷移図.xlsx
+++ b/documents/layout/画面遷移図.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="75" windowWidth="19200" windowHeight="12045" activeTab="2"/>
@@ -74,8 +74,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,7 +201,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -219,7 +219,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -237,7 +237,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -255,7 +255,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -273,7 +273,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -291,7 +291,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -862,10 +862,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161948</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>61096</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -875,7 +875,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1954889" y="4258235"/>
+          <a:off x="2974625" y="4415117"/>
           <a:ext cx="1031051" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -919,7 +919,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -972,7 +972,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>198353</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1027,7 +1027,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>188828</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -1082,7 +1082,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>155210</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1162,7 +1162,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>179303</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1244,7 +1244,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -1299,7 +1299,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -1354,7 +1354,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="328423"/>
@@ -1409,7 +1409,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="328423"/>
@@ -1464,7 +1464,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2018501" cy="328423"/>
@@ -1519,7 +1519,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
@@ -1572,7 +1572,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>156892</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
@@ -1627,7 +1627,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>190509</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
@@ -1684,7 +1684,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -1739,7 +1739,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1595309" cy="328423"/>
@@ -1794,7 +1794,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1595309" cy="328423"/>
@@ -1849,7 +1849,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1595309" cy="328423"/>
@@ -1904,7 +1904,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -1957,7 +1957,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>179303</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2012,7 +2012,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>145691</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
@@ -2067,7 +2067,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>179303</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
@@ -2124,7 +2124,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1381468" cy="328423"/>
@@ -2193,7 +2193,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -2246,7 +2246,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>123278</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2301,7 +2301,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>12</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
@@ -2356,13 +2356,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>5120</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>128385</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>48276</xdr:rowOff>
+      <xdr:rowOff>37069</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>198352</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>5649</xdr:rowOff>
@@ -2377,8 +2377,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2644373" y="4412699"/>
-          <a:ext cx="293550" cy="641467"/>
+          <a:off x="3933050" y="4300640"/>
+          <a:ext cx="304756" cy="1190555"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2406,13 +2406,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>108816</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>5649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>155210</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>18349</xdr:rowOff>
@@ -2458,13 +2458,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>16238</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>179303</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>15174</xdr:rowOff>
@@ -2510,13 +2510,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>5121</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>128386</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>48276</xdr:rowOff>
+      <xdr:rowOff>37069</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>188828</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>15174</xdr:rowOff>
@@ -2531,8 +2531,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2298672" y="4758401"/>
-          <a:ext cx="975428" cy="631942"/>
+          <a:off x="3587349" y="4646342"/>
+          <a:ext cx="986634" cy="1181030"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2560,16 +2560,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>5120</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>128386</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>48276</xdr:rowOff>
+      <xdr:rowOff>37068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>179302</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>179303</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>164212</xdr:rowOff>
+      <xdr:rowOff>164211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2581,8 +2581,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1967258" y="5089814"/>
-          <a:ext cx="1628730" cy="622417"/>
+          <a:off x="3255935" y="4977755"/>
+          <a:ext cx="1639937" cy="1171505"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2610,14 +2610,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>5121</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>128387</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>48276</xdr:rowOff>
+      <xdr:rowOff>37068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>156892</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>156893</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>119388</xdr:rowOff>
     </xdr:to>
@@ -2631,8 +2631,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="885891" y="6171182"/>
-          <a:ext cx="3769054" cy="600006"/>
+          <a:off x="2174568" y="6059123"/>
+          <a:ext cx="3780261" cy="1149094"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2660,13 +2660,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>5120</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>128385</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>48275</xdr:rowOff>
+      <xdr:rowOff>37069</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>190508</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>153007</xdr:rowOff>
@@ -2681,8 +2681,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="381625" y="6843535"/>
-          <a:ext cx="4811202" cy="633623"/>
+          <a:off x="1670302" y="6563388"/>
+          <a:ext cx="4822408" cy="1182711"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2710,16 +2710,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>58076</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>58077</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>115511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>78450</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>119525</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>153005</xdr:rowOff>
+      <xdr:rowOff>153004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2731,8 +2731,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3131134" y="8360394"/>
-          <a:ext cx="373670" cy="692727"/>
+          <a:off x="3824025" y="8732063"/>
+          <a:ext cx="373669" cy="285566"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2760,12 +2760,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>78451</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>119524</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>156881</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:ext cx="1704313" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="79" name="テキスト ボックス 78"/>
@@ -2773,8 +2773,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3664333" y="8729381"/>
-          <a:ext cx="889987" cy="328423"/>
+          <a:off x="4153642" y="8897469"/>
+          <a:ext cx="1704313" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2808,6 +2808,31 @@
             </a:rPr>
             <a:t>サイト詳細</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2815,10 +2840,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>20650</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>199945</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -2828,7 +2853,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5847709" y="8897470"/>
+          <a:off x="6475239" y="8875058"/>
           <a:ext cx="1845377" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2895,16 +2920,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>71967</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>30896</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>130594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>199945</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>153005</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>20650</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>153006</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2915,9 +2940,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5450791" y="9061681"/>
-          <a:ext cx="396918" cy="1"/>
+        <a:xfrm flipV="1">
+          <a:off x="5857955" y="9039270"/>
+          <a:ext cx="617284" cy="22411"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2947,14 +2972,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>100862</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>112068</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>11208</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
@@ -2965,7 +2990,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7720862" y="8919882"/>
+          <a:off x="8404421" y="8919882"/>
           <a:ext cx="347375" cy="302560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3011,7 +3036,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>79757</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -3091,7 +3116,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2127505" cy="328423"/>
@@ -3171,7 +3196,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2127505" cy="328423"/>
@@ -3251,7 +3276,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -3331,7 +3356,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1986441" cy="328423"/>
@@ -3411,7 +3436,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2018501" cy="328423"/>
@@ -3519,13 +3544,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>134463</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
@@ -3581,13 +3606,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>208429</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>6723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>107568</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>141194</xdr:rowOff>
@@ -3645,13 +3670,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>56019</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4825,10 +4850,10 @@
       <xdr:rowOff>81893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161947</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>61095</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>52153</xdr:rowOff>
+      <xdr:rowOff>40947</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4840,8 +4865,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1612620" y="4080178"/>
-          <a:ext cx="306436" cy="378101"/>
+          <a:off x="2044047" y="3648751"/>
+          <a:ext cx="463318" cy="1397837"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4870,7 +4895,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>206017</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
@@ -5014,7 +5039,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>83054</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2409634" cy="328423"/>
@@ -5092,13 +5117,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>197219</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>7330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>12</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>18536</xdr:rowOff>
@@ -5145,13 +5170,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>93009</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>160334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>123279</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>164211</xdr:rowOff>
@@ -5196,13 +5221,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>93007</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>160335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>145690</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>18536</xdr:rowOff>
@@ -5247,13 +5272,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>93008</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>160334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>179303</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>108181</xdr:rowOff>
@@ -5276,6 +5301,535 @@
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>183377</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>119389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>2046</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="カギ線コネクタ 87"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="3"/>
+          <a:endCxn id="82" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4665730" y="8523801"/>
+          <a:ext cx="2732198" cy="351257"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>67023</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2018501" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="テキスト ボックス 90"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4101141" y="10085294"/>
+          <a:ext cx="2018501" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>お気に入り登録ユーザー一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>91694</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>149129</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>67024</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>164211</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="カギ線コネクタ 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="91" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3741744" y="9890108"/>
+          <a:ext cx="519347" cy="199448"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>68466</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>126716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>2046</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="カギ線コネクタ 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="91" idx="3"/>
+          <a:endCxn id="82" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6119642" y="9203481"/>
+          <a:ext cx="1278286" cy="1046025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7964</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>81893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>178769</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>63359</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="カギ線コネクタ 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="2"/>
+          <a:endCxn id="116" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-1634278" y="7327077"/>
+          <a:ext cx="7041172" cy="619040"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>21622</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="テキスト ボックス 111"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2711034" y="10757647"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7964</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>81893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>21622</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="カギ線コネクタ 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="2"/>
+          <a:endCxn id="112" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-1259013" y="6951812"/>
+          <a:ext cx="6805848" cy="1134246"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>178769</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1240404" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="テキスト ボックス 115"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2195828" y="10992971"/>
+          <a:ext cx="1240404" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>126618</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>179303</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="カギ線コネクタ 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="116" idx="0"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1434096" y="7765411"/>
+          <a:ext cx="4609494" cy="1845626"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>126617</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>119390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>156891</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>67237</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="カギ線コネクタ 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="116" idx="0"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="2493052" y="8846779"/>
+          <a:ext cx="2469170" cy="1823215"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -5313,7 +5867,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5387,7 +5941,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5422,7 +5975,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5598,19 +6150,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A7:AC11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:29" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="33.75" thickBot="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5643,8 +6195,8 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" ht="19.5" thickTop="1"/>
+    <row r="10" spans="1:29">
       <c r="P10" s="11" t="s">
         <v>0</v>
       </c>
@@ -5659,7 +6211,7 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29">
       <c r="P11" s="11" t="s">
         <v>1</v>
       </c>
@@ -5689,14 +6241,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:F171"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -5706,7 +6258,7 @@
     <col min="7" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -5722,7 +6274,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -5734,7 +6286,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="9"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5742,7 +6294,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="9"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5750,7 +6302,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="9"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5758,7 +6310,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5766,7 +6318,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="9"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5774,7 +6326,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5782,7 +6334,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5790,7 +6342,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5798,7 +6350,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5806,7 +6358,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5814,7 +6366,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="9"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5822,7 +6374,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="9"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5830,7 +6382,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5838,7 +6390,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="9"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5846,7 +6398,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="9"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5854,7 +6406,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="9"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5862,7 +6414,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="9"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5870,7 +6422,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5878,7 +6430,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5886,7 +6438,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5894,7 +6446,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5902,7 +6454,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5910,7 +6462,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5918,7 +6470,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5926,7 +6478,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5934,7 +6486,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5942,7 +6494,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5950,7 +6502,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5958,7 +6510,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5966,7 +6518,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5974,7 +6526,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5982,7 +6534,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5990,7 +6542,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5998,7 +6550,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6006,7 +6558,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -6014,7 +6566,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6022,7 +6574,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -6030,7 +6582,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -6038,7 +6590,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -6046,7 +6598,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -6054,7 +6606,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -6062,7 +6614,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -6070,7 +6622,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -6078,7 +6630,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -6086,7 +6638,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -6094,7 +6646,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -6102,7 +6654,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -6110,7 +6662,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -6118,7 +6670,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -6126,7 +6678,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -6134,7 +6686,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -6142,7 +6694,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -6150,7 +6702,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -6158,7 +6710,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -6166,7 +6718,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -6174,7 +6726,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -6182,7 +6734,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -6190,7 +6742,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -6198,7 +6750,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -6206,7 +6758,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -6214,7 +6766,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -6222,7 +6774,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -6230,7 +6782,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -6238,7 +6790,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -6246,7 +6798,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -6254,7 +6806,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -6262,7 +6814,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -6270,7 +6822,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6278,7 +6830,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6286,7 +6838,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6294,7 +6846,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6302,7 +6854,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -6310,7 +6862,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -6318,7 +6870,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -6326,7 +6878,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -6334,7 +6886,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -6342,7 +6894,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -6350,7 +6902,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -6358,7 +6910,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -6366,7 +6918,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -6374,7 +6926,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -6382,7 +6934,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -6390,7 +6942,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -6398,7 +6950,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -6406,7 +6958,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -6414,7 +6966,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -6422,7 +6974,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -6430,7 +6982,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -6438,7 +6990,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6446,7 +6998,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6454,7 +7006,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6462,7 +7014,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6470,7 +7022,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6478,7 +7030,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6486,7 +7038,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6494,7 +7046,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6502,7 +7054,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6510,7 +7062,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6518,7 +7070,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6526,7 +7078,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6534,7 +7086,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6542,7 +7094,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6550,7 +7102,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6558,7 +7110,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6566,7 +7118,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6574,7 +7126,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6582,7 +7134,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6590,7 +7142,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6598,7 +7150,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6606,7 +7158,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6614,7 +7166,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6622,7 +7174,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6630,7 +7182,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6638,7 +7190,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6646,7 +7198,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6654,7 +7206,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6662,7 +7214,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6670,7 +7222,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6678,7 +7230,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6686,7 +7238,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6694,7 +7246,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6702,7 +7254,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6710,7 +7262,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6718,7 +7270,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6726,7 +7278,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6734,7 +7286,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6742,7 +7294,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6750,7 +7302,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -6758,7 +7310,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -6766,7 +7318,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -6774,7 +7326,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -6782,7 +7334,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -6790,7 +7342,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -6798,7 +7350,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -6806,7 +7358,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -6814,7 +7366,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -6822,7 +7374,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -6830,7 +7382,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -6838,7 +7390,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -6846,7 +7398,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -6854,7 +7406,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -6862,7 +7414,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -6870,7 +7422,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -6878,7 +7430,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -6886,7 +7438,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -6894,7 +7446,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -6902,7 +7454,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -6910,7 +7462,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -6918,7 +7470,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -6926,7 +7478,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -6934,7 +7486,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -6942,7 +7494,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -6950,7 +7502,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -6958,7 +7510,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -6966,7 +7518,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -6974,7 +7526,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -6982,34 +7534,34 @@
       <c r="E161" s="4"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6">
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6">
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6">
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6">
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6">
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6">
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6">
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6">
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6">
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6">
       <c r="E171" s="2"/>
     </row>
   </sheetData>
@@ -7024,14 +7576,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/layout/画面遷移図.xlsx
+++ b/documents/layout/画面遷移図.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="19200" windowHeight="12045" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="19200" windowHeight="12045" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
     <sheet name="更新履歴" sheetId="4" r:id="rId2"/>
     <sheet name="画面遷移図" sheetId="2" r:id="rId3"/>
+    <sheet name="画面遷移図_未ログイン状態" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -5296,6 +5297,2134 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1338828" cy="478593"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1338828" cy="478593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面遷移図</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30259</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1150847" y="2619375"/>
+          <a:ext cx="1172116" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>メインメニュー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>15686</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19610</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4049804" y="1868581"/>
+          <a:ext cx="748923" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7845</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3817845" y="844923"/>
+          <a:ext cx="748923" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>新規登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>216273</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83483</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5146861" y="1260101"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>外部の認証</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>179297</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5109885" y="851647"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>外部の認証</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>97491</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30255</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1877437" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5252197" y="4064373"/>
+          <a:ext cx="1877437" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>メール認証パスワード設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>75640</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30255</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3661522" y="4064373"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>仮登録メール</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>33057</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>41462</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7653057" y="4075580"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>メール認証登録完了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1311089" y="17245853"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3350559" y="5838265"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2018501" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2207559" y="18422471"/>
+          <a:ext cx="2018501" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レビュー一覧（指定ゲーム）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>89645</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123262</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7933763" y="2812674"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>マイページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>92256</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>75730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>213031</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15734</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="カギ線コネクタ 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4798727" y="1588524"/>
+          <a:ext cx="793128" cy="444269"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>92256</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>86404</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123262</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="カギ線コネクタ 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="55" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4798727" y="2032793"/>
+          <a:ext cx="3580030" cy="779881"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>209789</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>79607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>86404</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123262</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="カギ線コネクタ 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="55" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6036848" y="1424313"/>
+          <a:ext cx="2341909" cy="1388361"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>84415</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>179297</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="カギ線コネクタ 62"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4566768" y="1009135"/>
+          <a:ext cx="543117" cy="6724"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142931</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>164817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>158190</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30255</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="カギ線コネクタ 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3999827" y="3871892"/>
+          <a:ext cx="369703" cy="15259"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>210220</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>26379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>97491</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>39079</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="カギ線コネクタ 64"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4692573" y="4228585"/>
+          <a:ext cx="559624" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>181987</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>26379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>33057</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>37586</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="カギ線コネクタ 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7129634" y="4228585"/>
+          <a:ext cx="523423" cy="11207"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>86405</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>115509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>87827</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>41462</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="カギ線コネクタ 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="0"/>
+          <a:endCxn id="55" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="7912227" y="3607628"/>
+          <a:ext cx="934483" cy="1422"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="テキスト ボックス 68"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6364941" y="1512794"/>
+          <a:ext cx="748923" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>登録完了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>166217</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>89645</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="カギ線コネクタ 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="3"/>
+          <a:endCxn id="55" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7113864" y="2976886"/>
+          <a:ext cx="819899" cy="549091"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="564514"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="テキスト ボックス 70"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3832413" y="493059"/>
+          <a:ext cx="1172116" cy="564514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>外部認証エラー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>73942</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>102963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>213032</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83483</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="カギ線コネクタ 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+          <a:endCxn id="71" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="5055800" y="724046"/>
+          <a:ext cx="484785" cy="587326"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160235</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>166030</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19610</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="カギ線コネクタ 73"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4015864" y="1460179"/>
+          <a:ext cx="811008" cy="5795"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>33619</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="564514"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="テキスト ボックス 75"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4964207" y="930088"/>
+          <a:ext cx="1172116" cy="564514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>外部認証エラー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>新規登録</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171442</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>149896</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>176056</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="カギ線コネクタ 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="0"/>
+          <a:endCxn id="76" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="5369785" y="1675083"/>
+          <a:ext cx="365575" cy="4614"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>158189</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>35727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>33619</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="カギ線コネクタ 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="1"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4192307" y="1212345"/>
+          <a:ext cx="771900" cy="641108"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>172813</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="161" name="カギ線コネクタ 160"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="69" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5999872" y="1677006"/>
+          <a:ext cx="365069" cy="11206"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2441694" cy="800604"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="238" name="テキスト ボックス 237"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="537882" y="1288676"/>
+          <a:ext cx="2441694" cy="800604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>メインメニューへは</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>どの画面からでも遷移できるので、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>メインメニューへの線は割愛</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>81787</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>15686</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>94175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="239" name="カギ線コネクタ 238"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2322963" y="2032793"/>
+          <a:ext cx="1726841" cy="750794"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>81787</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>94175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7845</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>606</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="240" name="カギ線コネクタ 239"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2322963" y="2783587"/>
+          <a:ext cx="1494882" cy="746872"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>168081</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>96976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="245" name="カギ線コネクタ 244"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="820290" y="3864413"/>
+          <a:ext cx="2528002" cy="694772"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>187259</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>93099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>119389</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="249" name="カギ線コネクタ 248"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2932382" y="5584300"/>
+          <a:ext cx="362466" cy="473888"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209670</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>115512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>96977</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="251" name="カギ線コネクタ 250"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3767220" y="6195020"/>
+          <a:ext cx="485730" cy="429065"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209672</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>115511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>6593</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>141800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="257" name="カギ線コネクタ 256"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="258" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3512781" y="6449460"/>
+          <a:ext cx="1034819" cy="469274"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>6592</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="258" name="テキスト ボックス 257"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264827" y="7037295"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7027,8 +9156,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/documents/layout/画面遷移図.xlsx
+++ b/documents/layout/画面遷移図.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="19200" windowHeight="12045" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="19200" windowHeight="12045" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
     <sheet name="更新履歴" sheetId="4" r:id="rId2"/>
-    <sheet name="画面遷移図" sheetId="2" r:id="rId3"/>
+    <sheet name="画面遷移図_未ログイン" sheetId="5" r:id="rId3"/>
+    <sheet name="画面遷移図_ログイン後" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -422,20 +423,20 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>30258</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>154081</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>187140</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047317" y="658346"/>
+          <a:off x="859493" y="1678081"/>
           <a:ext cx="1172116" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -477,20 +478,20 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4482</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>138952</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>165287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1349188" y="1509993"/>
+          <a:off x="4173070" y="1678081"/>
           <a:ext cx="748923" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -532,20 +533,20 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>7845</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>153522</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>4482</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2921374" y="1517276"/>
+          <a:off x="4411757" y="1517276"/>
           <a:ext cx="748923" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -587,20 +588,20 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25774</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>83484</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>182656</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>117103</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="249892" y="2268631"/>
+          <a:off x="3320303" y="789456"/>
           <a:ext cx="889987" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -642,20 +643,20 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>67237</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4325472" y="1524000"/>
+          <a:off x="5849472" y="1535206"/>
           <a:ext cx="889987" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -697,20 +698,20 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>108697</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>52668</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>30256</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>153522</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2349873" y="2742080"/>
+          <a:off x="5633197" y="3347198"/>
           <a:ext cx="1877437" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -752,20 +753,20 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>98052</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>86285</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8405</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>153521</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2787464" y="2103344"/>
+          <a:off x="4266640" y="3347197"/>
           <a:ext cx="1031051" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -807,20 +808,20 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>100292</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>41461</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142315</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2565586" y="3403226"/>
+          <a:off x="7910793" y="3335991"/>
           <a:ext cx="1454244" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -862,21 +863,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>61096</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1031051" cy="328423"/>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2974625" y="4415117"/>
-          <a:ext cx="1031051" cy="328423"/>
+          <a:off x="9883588" y="3361764"/>
+          <a:ext cx="889987" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -908,30 +909,340 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>プロフィール</a:t>
+            <a:t>マイページ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>215523</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>49043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104206</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161410</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="カギ線コネクタ 58"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="2"/>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4782137" y="1365518"/>
+          <a:ext cx="616631" cy="336918"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>5974</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>18536</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="カギ線コネクタ 62"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5160680" y="1681488"/>
+          <a:ext cx="688792" cy="17930"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>75696</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>164816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>79749</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>153521</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="カギ線コネクタ 152"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4453665" y="3014642"/>
+          <a:ext cx="661057" cy="4053"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142985</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>149644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>30256</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>149645</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="カギ線コネクタ 64"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5297691" y="3511409"/>
+          <a:ext cx="335506" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>114752</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>138438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>149645</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="カギ線コネクタ 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7510634" y="3500203"/>
+          <a:ext cx="400159" cy="11207"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>15930</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>212913</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>18536</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="カギ線コネクタ 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="69" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6739459" y="1677006"/>
+          <a:ext cx="869336" cy="22412"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="889987" cy="328423"/>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>212913</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvPr id="69" name="テキスト ボックス 68"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1323975" y="10496550"/>
-          <a:ext cx="889987" cy="328423"/>
+          <a:off x="7608795" y="1512794"/>
+          <a:ext cx="748923" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -963,7 +1274,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>コンフィグ</a:t>
+            <a:t>登録完了</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -973,20 +1284,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>198353</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1031051" cy="328423"/>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="564514"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvPr id="71" name="テキスト ボックス 70"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2215412" y="4715996"/>
-          <a:ext cx="1031051" cy="328423"/>
+          <a:off x="4672853" y="661148"/>
+          <a:ext cx="1172116" cy="564514"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1018,30 +1329,273 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>フォロー一覧</a:t>
-          </a:r>
+            <a:t>外部認証エラー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>179414</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>117103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>19169</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="カギ線コネクタ 191"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+          <a:endCxn id="55" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5424608" y="-869856"/>
+          <a:ext cx="3244661" cy="6563285"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -7045"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100846</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144060</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>164211</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="カギ線コネクタ 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="264" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-693313" y="4145368"/>
+          <a:ext cx="4545061" cy="267332"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>65178</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>31636</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>108183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="カギ線コネクタ 197"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="153" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4527421" y="2026614"/>
+          <a:ext cx="454914" cy="414693"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>14550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>153522</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>606</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="カギ線コネクタ 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2031609" y="1842293"/>
+          <a:ext cx="2380148" cy="2360519"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>188828</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1172116" cy="328423"/>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="564514"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvPr id="76" name="テキスト ボックス 75"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2205887" y="5397874"/>
-          <a:ext cx="1172116" cy="328423"/>
+          <a:off x="5681382" y="493059"/>
+          <a:ext cx="1172116" cy="564514"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1073,30 +1627,380 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>フォロワー一覧</a:t>
-          </a:r>
+            <a:t>外部認証エラー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>新規登録</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>216265</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>49044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>19173</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="カギ線コネクタ 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="0"/>
+          <a:endCxn id="76" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="6042137" y="1282877"/>
+          <a:ext cx="477633" cy="27026"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>79749</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>102963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="カギ線コネクタ 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="1"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4786220" y="775316"/>
+          <a:ext cx="895163" cy="741960"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>179415</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>109350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>65179</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165287</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="カギ線コネクタ 58"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3876314" y="1006862"/>
+          <a:ext cx="560202" cy="782235"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>176172</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>102964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>113227</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="カギ線コネクタ 58"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="71" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4210290" y="943405"/>
+          <a:ext cx="462563" cy="10263"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>14550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>153522</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>606</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="カギ線コネクタ 146"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2031609" y="1842293"/>
+          <a:ext cx="2380148" cy="2360519"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>14550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>138952</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6022</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="カギ線コネクタ 149"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2031609" y="1842293"/>
+          <a:ext cx="2141461" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>155210</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1845377" cy="328423"/>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>31637</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvPr id="153" name="テキスト ボックス 152"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3965210" y="4715996"/>
-          <a:ext cx="1845377" cy="328423"/>
+          <a:off x="4962225" y="2297206"/>
+          <a:ext cx="1313180" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1128,6 +2032,1188 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
+            <a:t>パスワード再発行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>65365</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>164211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="154" name="カギ線コネクタ 191"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="3"/>
+          <a:endCxn id="55" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8357718" y="3525976"/>
+          <a:ext cx="1525870" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>160334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>19170</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>138439</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="159" name="カギ線コネクタ 191"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="55" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9365037" y="3690187"/>
+          <a:ext cx="963545" cy="818546"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>34935</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1736373" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="テキスト ボックス 163"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6982582" y="2297207"/>
+          <a:ext cx="1736373" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パスワード再発行メール</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>111</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>108183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>34935</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>108184</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="カギ線コネクタ 197"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="153" idx="3"/>
+          <a:endCxn id="164" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6275405" y="2461418"/>
+          <a:ext cx="707177" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>158864</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="テキスト ボックス 167"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7778864" y="1669676"/>
+          <a:ext cx="1172116" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パスワード入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>202484</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>153006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>210392</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>108184</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="169" name="カギ線コネクタ 197"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="164" idx="3"/>
+          <a:endCxn id="168" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8718955" y="1833888"/>
+          <a:ext cx="232025" cy="627531"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 198524"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>206319</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>156880</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="テキスト ボックス 169"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5585143" y="1669674"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パスワード設定完了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>91741</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>153004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>158865</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>153006</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="173" name="カギ線コネクタ 197"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="168" idx="1"/>
+          <a:endCxn id="170" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7039388" y="1833886"/>
+          <a:ext cx="739477" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>215522</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>153003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>206319</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161410</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="176" name="カギ線コネクタ 197"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="170" idx="1"/>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4921993" y="1833885"/>
+          <a:ext cx="663150" cy="8407"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>155266</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="263" name="テキスト ボックス 262"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3741148" y="7485530"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144059</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="264" name="テキスト ボックス 263"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1712883" y="6387353"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>108762</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889988" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="265" name="テキスト ボックス 264"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2574056" y="6958852"/>
+          <a:ext cx="889988" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>155265</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031052" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="266" name="テキスト ボックス 265"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3741147" y="8101853"/>
+          <a:ext cx="1031052" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レビュー一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>211596</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="267" name="テキスト ボックス 266"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3125125" y="9076765"/>
+          <a:ext cx="466794" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>140817</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>160335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>108761</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>63358</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="270" name="カギ線コネクタ 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="264" idx="2"/>
+          <a:endCxn id="265" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2162322" y="6711330"/>
+          <a:ext cx="407288" cy="416179"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>105522</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>59480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>155267</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85770</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="カギ線コネクタ 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="265" idx="2"/>
+          <a:endCxn id="263" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3198866" y="7107459"/>
+          <a:ext cx="362467" cy="722098"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>105520</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>59481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>155264</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>29741</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="カギ線コネクタ 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="265" idx="2"/>
+          <a:endCxn id="266" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2890703" y="7415621"/>
+          <a:ext cx="978790" cy="722097"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1338828" cy="478593"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1338828" cy="478593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面遷移図</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>72302</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2089361" y="2117911"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プロフィール</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7853</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>43142</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3369618" y="2732554"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>フォロー一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>222446</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>131109</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3360093" y="3324785"/>
+          <a:ext cx="1172116" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>フォロワー一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76768</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>20732</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1845377" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5231474" y="3046320"/>
+          <a:ext cx="1845377" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>プロフィール</a:t>
           </a:r>
           <a:r>
@@ -1162,21 +3248,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>179303</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1845377" cy="328423"/>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>164726</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>42023</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1877437" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3989303" y="5378824"/>
-          <a:ext cx="1845377" cy="328423"/>
+          <a:off x="2181785" y="11808199"/>
+          <a:ext cx="1877437" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1208,7 +3294,172 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>プロフィール</a:t>
+            <a:t>レビュー一覧（全ゲーム）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>112068</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1595309" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3473833" y="6577854"/>
+          <a:ext cx="1595309" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>お気に入りサイト一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>156891</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1595309" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3518656" y="8247529"/>
+          <a:ext cx="1595309" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>お気に入りゲーム一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>143905</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1845377" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505670" y="12998824"/>
+          <a:ext cx="1845377" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レビュー詳細</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -1242,21 +3493,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="889987" cy="328423"/>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>136452</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="438150" y="11144250"/>
-          <a:ext cx="889987" cy="328423"/>
+          <a:off x="5515276" y="13637558"/>
+          <a:ext cx="1031051" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1288,7 +3539,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ゲーム一覧</a:t>
+            <a:t>レビュー修正</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1297,20 +3548,20 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>107455</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="876300" y="11658600"/>
+          <a:off x="3469220" y="3832411"/>
           <a:ext cx="889987" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1343,7 +3594,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ゲーム詳細</a:t>
+            <a:t>サイト管理</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1352,21 +3603,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1877437" cy="328423"/>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>67250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="457200" y="14030325"/>
-          <a:ext cx="1877437" cy="328423"/>
+          <a:off x="4549603" y="4908176"/>
+          <a:ext cx="1172116" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1398,7 +3649,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>レビュー一覧（全ゲーム）</a:t>
+            <a:t>サイト情報詳細</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1407,21 +3658,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1877437" cy="328423"/>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>44833</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="438150" y="15087600"/>
-          <a:ext cx="1877437" cy="328423"/>
+          <a:off x="4527186" y="5535705"/>
+          <a:ext cx="1172116" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1453,7 +3704,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>レビュー一覧（全ゲーム）</a:t>
+            <a:t>サイト情報修正</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1462,21 +3713,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2018501" cy="328423"/>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152797</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1314450" y="12344400"/>
-          <a:ext cx="2018501" cy="328423"/>
+          <a:off x="3514562" y="12337676"/>
+          <a:ext cx="1031051" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1508,7 +3759,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>レビュー一覧（指定ゲーム）</a:t>
+            <a:t>レビュー投稿</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1517,20 +3768,20 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>67248</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1314450" y="13030200"/>
+          <a:off x="4549601" y="4359088"/>
           <a:ext cx="1172116" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1563,7 +3814,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>プレーヤー一覧</a:t>
+            <a:t>サイト新規登録</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1572,21 +3823,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>156892</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1595309" cy="328423"/>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>11218</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2173951" y="8191500"/>
-          <a:ext cx="1595309" cy="328423"/>
+          <a:off x="6286512" y="4896970"/>
+          <a:ext cx="1172116" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1618,754 +3869,25 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>お気に入りサイト一覧</a:t>
+            <a:t>サイト情報修正</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190509</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1595309" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3104038" y="9401736"/>
-          <a:ext cx="1595309" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>お気に入りゲーム一覧</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1031051" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1314450" y="13716000"/>
-          <a:ext cx="1031051" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>レビュー投稿</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1595309" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1314450" y="8401050"/>
-          <a:ext cx="1595309" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>投稿したレビュー一覧</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1595309" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1971675" y="8915400"/>
-          <a:ext cx="1595309" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>投稿したレビュー詳細</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139592</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1595309" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2409825" y="9429750"/>
-          <a:ext cx="1595309" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>投稿したレビュー修正</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1031051" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1752600" y="11144250"/>
-          <a:ext cx="1031051" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ブロック一覧</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>179303</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1172116" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2196362" y="6051176"/>
-          <a:ext cx="1172116" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>登録サイト一覧</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>145691</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1172116" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4179809" y="7082118"/>
-          <a:ext cx="1172116" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>サイト情報詳細</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>179303</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1172116" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4213421" y="7676029"/>
-          <a:ext cx="1172116" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>サイト情報修正</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1381468" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1752600" y="9086850"/>
-          <a:ext cx="1381468" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>レビュー投稿</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>修正</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="889987" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1752600" y="9772650"/>
-          <a:ext cx="889987" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ゲーム詳細</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>123278</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1172116" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="テキスト ボックス 36"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3260925" y="6555441"/>
-          <a:ext cx="1172116" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>サイト新規登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>12</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1172116" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="テキスト ボックス 37"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5827071" y="7070912"/>
-          <a:ext cx="1172116" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>サイト情報修正</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>128385</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>37069</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>198352</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>5649</xdr:rowOff>
+      <xdr:colOff>7852</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>39266</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2377,8 +3899,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3933050" y="4300640"/>
-          <a:ext cx="304756" cy="1190555"/>
+          <a:off x="2846080" y="2373228"/>
+          <a:ext cx="282344" cy="764731"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2406,16 +3928,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>108816</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>5649</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142434</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>39266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>155210</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>18349</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76768</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>16856</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2427,8 +3949,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3246463" y="4880208"/>
-          <a:ext cx="718747" cy="12700"/>
+          <a:off x="4400669" y="2896766"/>
+          <a:ext cx="830805" cy="313766"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2458,29 +3980,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>16238</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>164212</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>49856</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>16856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>179303</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>15174</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76768</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127232</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="42" name="カギ線コネクタ 41"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="3"/>
-          <a:endCxn id="17" idx="1"/>
+          <a:endCxn id="16" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3378003" y="5543036"/>
-          <a:ext cx="611300" cy="19050"/>
+          <a:off x="4532209" y="3210532"/>
+          <a:ext cx="699265" cy="278465"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2510,16 +4032,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>128386</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>37069</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139594</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>188828</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>15174</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>222447</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127231</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2531,8 +4053,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3587349" y="4646342"/>
-          <a:ext cx="986634" cy="1181030"/>
+          <a:off x="2545203" y="2674106"/>
+          <a:ext cx="874575" cy="755206"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2560,16 +4082,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139593</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>128386</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>37068</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>179303</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>164211</xdr:rowOff>
+      <xdr:colOff>107455</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>130593</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2581,8 +4103,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3255935" y="4977755"/>
-          <a:ext cx="1639937" cy="1171505"/>
+          <a:off x="2345953" y="2873355"/>
+          <a:ext cx="1382201" cy="864333"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2610,16 +4132,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139593</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>128387</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>37068</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>156893</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>119388</xdr:rowOff>
+      <xdr:colOff>112068</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>18537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2631,8 +4153,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2174568" y="6059123"/>
-          <a:ext cx="3780261" cy="1149094"/>
+          <a:off x="975538" y="4243771"/>
+          <a:ext cx="4127644" cy="868946"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2660,16 +4182,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139593</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>128385</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>37069</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190508</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>153007</xdr:rowOff>
+      <xdr:colOff>156891</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2681,8 +4203,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1670302" y="6563388"/>
-          <a:ext cx="4822408" cy="1182711"/>
+          <a:off x="163112" y="5056196"/>
+          <a:ext cx="5797319" cy="913769"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2710,16 +4232,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>58077</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>115511</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>13254</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>14658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>119525</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>153004</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>18672</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>29740</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2731,8 +4253,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3824025" y="8732063"/>
-          <a:ext cx="373669" cy="285566"/>
+          <a:off x="4042539" y="7135226"/>
+          <a:ext cx="687435" cy="229536"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2760,10 +4282,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>119524</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>156881</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>18671</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -2773,7 +4295,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4153642" y="8897469"/>
+          <a:off x="4501024" y="7429500"/>
           <a:ext cx="1704313" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2840,10 +4362,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>199945</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>110298</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -2853,7 +4375,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6475239" y="8875058"/>
+          <a:off x="7057945" y="7429499"/>
           <a:ext cx="1845377" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2920,16 +4442,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>30896</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>130594</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>154161</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>29740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>199945</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>153005</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>110298</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>29741</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2941,8 +4463,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5857955" y="9039270"/>
-          <a:ext cx="617284" cy="22411"/>
+          <a:off x="6205337" y="7593711"/>
+          <a:ext cx="852608" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2972,16 +4494,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>112068</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>8</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:rowOff>44825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>11208</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>123267</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2990,8 +4512,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8404421" y="8919882"/>
-          <a:ext cx="347375" cy="302560"/>
+          <a:off x="6499420" y="8953501"/>
+          <a:ext cx="347376" cy="302559"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3034,21 +4556,21 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>79757</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1845377" cy="328423"/>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="テキスト ボックス 98"/>
+        <xdr:cNvPr id="105" name="テキスト ボックス 104"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1648581" y="25112382"/>
-          <a:ext cx="1845377" cy="328423"/>
+          <a:off x="1030942" y="616324"/>
+          <a:ext cx="889987" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3080,480 +4602,25 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>プロフィール</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>他ユーザー</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+            <a:t>マイページ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2127505" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="テキスト ボックス 99"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3137647" y="25045147"/>
-          <a:ext cx="2127505" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>お気に入りサイト</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>他ユーザー</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2127505" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="テキスト ボックス 100"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3137647" y="26053676"/>
-          <a:ext cx="2127505" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>お気に入りゲーム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>他ユーザー</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1845377" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="テキスト ボックス 101"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3137647" y="26894118"/>
-          <a:ext cx="1845377" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>フォロー一覧</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>他ユーザー</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1986441" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="テキスト ボックス 102"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3137647" y="27734559"/>
-          <a:ext cx="1986441" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>フォロワー一覧</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>他ユーザー</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2018501" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="テキスト ボックス 103"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3137647" y="28575000"/>
-          <a:ext cx="2018501" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>レビュー一覧（他ユーザー）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="889987" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="テキスト ボックス 104"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1131794" y="3787588"/>
-          <a:ext cx="889987" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>マイページ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>201709</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>134463</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>91324</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3562,8 +4629,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5838265" y="5367618"/>
-          <a:ext cx="347374" cy="302559"/>
+          <a:off x="9166415" y="7440707"/>
+          <a:ext cx="337850" cy="302558"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3606,16 +4673,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>208429</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>6723</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>29138</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>107568</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>141194</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>152395</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3624,8 +4691,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5811370" y="4713194"/>
-          <a:ext cx="347374" cy="302559"/>
+          <a:off x="7425020" y="3043517"/>
+          <a:ext cx="347375" cy="302559"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3668,1192 +4735,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>56019</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="円/楕円 119"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1277470" y="25280471"/>
-          <a:ext cx="347373" cy="302559"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>154826</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>146329</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>168081</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165288</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="121" name="カギ線コネクタ 120"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2365136" y="1241754"/>
-          <a:ext cx="523224" cy="13255"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>22534</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>131229</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>157533</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>154827</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>83483</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="125" name="カギ線コネクタ 124"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="7" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="994161" y="1539141"/>
-          <a:ext cx="430215" cy="1028764"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4722</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>157535</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>154826</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85772</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="134" name="カギ線コネクタ 133"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="105" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="1264259" y="2595939"/>
-          <a:ext cx="2113384" cy="598339"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7964</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>75730</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>22532</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="137" name="カギ線コネクタ 136"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="2"/>
-          <a:endCxn id="105" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="988805" y="3185037"/>
-          <a:ext cx="1190534" cy="14568"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>84415</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>606</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>67237</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>7330</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="149" name="カギ線コネクタ 148"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3670297" y="1681488"/>
-          <a:ext cx="655175" cy="6724"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>154826</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>157534</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>98052</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>82409</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="153" name="カギ線コネクタ 152"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="10" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2937457" y="1521079"/>
-          <a:ext cx="429140" cy="1063814"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>150946</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>78531</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>165344</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>52667</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="158" name="カギ線コネクタ 157"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="2"/>
-          <a:endCxn id="9" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3140635" y="2579724"/>
-          <a:ext cx="310313" cy="14398"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>150946</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>44914</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>155062</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>41460</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="162" name="カギ線コネクタ 161"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="2"/>
-          <a:endCxn id="11" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3124289" y="3234806"/>
-          <a:ext cx="332723" cy="4116"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4723</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>33707</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>155062</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85770</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="176" name="カギ線コネクタ 175"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="2"/>
-          <a:endCxn id="105" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2995405" y="2758025"/>
-          <a:ext cx="220151" cy="2167398"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>63995</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>3451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>71902</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>44822</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="179" name="カギ線コネクタ 178"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="183" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3997337" y="2625551"/>
-          <a:ext cx="1554165" cy="7907"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="748923" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="183" name="テキスト ボックス 182"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4403911" y="3406588"/>
-          <a:ext cx="748923" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>登録完了</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4723</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>37070</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>71904</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85771</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="186" name="カギ線コネクタ 185"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="183" idx="2"/>
-          <a:endCxn id="105" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3739919" y="2016874"/>
-          <a:ext cx="216789" cy="3653063"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1172116" cy="564514"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="191" name="テキスト ボックス 190"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="280148" y="1322294"/>
-          <a:ext cx="1172116" cy="564514"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>外部認証エラー</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ログイン</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>193853</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>37838</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25774</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>79609</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="192" name="カギ線コネクタ 191"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="1"/>
-          <a:endCxn id="191" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="866206" y="1886809"/>
-          <a:ext cx="280156" cy="546035"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>107558</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>91757</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4482</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161411</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="195" name="カギ線コネクタ 194"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="191" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1452264" y="1604551"/>
-          <a:ext cx="793394" cy="69654"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>193852</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>150206</xdr:rowOff>
+      <xdr:rowOff>104306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>30257</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="198" name="カギ線コネクタ 197"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="191" idx="0"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="1206893" y="481871"/>
-          <a:ext cx="499736" cy="1181111"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>81786</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>150205</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>7845</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>606</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="205" name="カギ線コネクタ 204"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3219433" y="822558"/>
-          <a:ext cx="598412" cy="858930"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1172116" cy="564514"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="208" name="テキスト ボックス 207"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6667500" y="1389529"/>
-          <a:ext cx="1172116" cy="564514"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>外部認証エラー</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>新規登録</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>60754</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>158992</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>7330</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="209" name="カギ線コネクタ 208"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="208" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6111930" y="1671786"/>
-          <a:ext cx="555570" cy="16426"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>158189</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>44822</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>81793</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>4481</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="212" name="カギ線コネクタ 211"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="208" idx="0"/>
-          <a:endCxn id="6" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1" flipV="1">
-          <a:off x="5659059" y="-77224"/>
-          <a:ext cx="127747" cy="3061251"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -178947"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7963</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>81893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>61095</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>40947</xdr:rowOff>
+      <xdr:colOff>72301</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>96976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4865,8 +4756,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2044047" y="3648751"/>
-          <a:ext cx="463318" cy="1397837"/>
+          <a:off x="1113960" y="1306722"/>
+          <a:ext cx="1337376" cy="613425"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4895,10 +4786,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>206017</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127576</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>156884</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3570208" cy="564514"/>
     <xdr:sp macro="" textlink="">
@@ -4908,7 +4799,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3119546" y="4213412"/>
+          <a:off x="127576" y="493060"/>
           <a:ext cx="3570208" cy="564514"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4975,16 +4866,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>112060</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123266</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1674</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>12880</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4993,7 +4884,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="784413" y="3787588"/>
+          <a:off x="4605619" y="1445559"/>
           <a:ext cx="337849" cy="302559"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5035,98 +4926,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>83054</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2409634" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="231" name="テキスト ボックス 230"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3893054" y="29415441"/>
-          <a:ext cx="2409634" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>参加コミュニティ一覧</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>他ユーザー</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>197219</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>7330</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>118778</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>18535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>12</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>18536</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>11218</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>29741</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5138,8 +4949,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5351925" y="7403212"/>
-          <a:ext cx="475146" cy="11206"/>
+          <a:off x="5721719" y="5061182"/>
+          <a:ext cx="564793" cy="11206"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5170,16 +4981,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>93009</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>160334</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104213</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>126716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>123279</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>164211</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>67247</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>153006</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5191,8 +5002,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3748117" y="6478461"/>
-          <a:ext cx="340053" cy="478506"/>
+          <a:off x="4050674" y="4024373"/>
+          <a:ext cx="362466" cy="635387"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5221,16 +5032,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>93007</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>160335</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104213</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>126716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>145690</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>18536</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>67249</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>29741</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5242,8 +5053,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3495984" y="6730593"/>
-          <a:ext cx="866730" cy="500919"/>
+          <a:off x="3776131" y="4298916"/>
+          <a:ext cx="911554" cy="635389"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5272,16 +5083,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>93008</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>160334</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104215</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>126715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>179303</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>108181</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>44834</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>153004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5293,8 +5104,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3215835" y="7010742"/>
-          <a:ext cx="1460641" cy="534531"/>
+          <a:off x="3451159" y="4623889"/>
+          <a:ext cx="1539083" cy="612972"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5323,16 +5134,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>183377</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>119389</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>138554</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>18537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>2046</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>136516</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5344,8 +5155,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4665730" y="8523801"/>
-          <a:ext cx="2732198" cy="351257"/>
+          <a:off x="5069142" y="6742066"/>
+          <a:ext cx="2911492" cy="687433"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5373,10 +5184,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>67023</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>156670</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2018501" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -5386,7 +5197,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4101141" y="10085294"/>
+          <a:off x="4863141" y="9704294"/>
           <a:ext cx="2018501" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5428,66 +5239,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>91694</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>149129</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>158113</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>25863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>67024</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>164211</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="カギ線コネクタ 76"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="2"/>
-          <a:endCxn id="91" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3741744" y="9890108"/>
-          <a:ext cx="519347" cy="199448"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>68466</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>126716</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>2046</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>164212</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>136516</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>119388</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5499,8 +5260,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6119642" y="9203481"/>
-          <a:ext cx="1278286" cy="1046025"/>
+          <a:off x="6881642" y="7757922"/>
+          <a:ext cx="1098992" cy="2110584"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5528,15 +5289,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7964</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>81893</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>131230</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>178769</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5549,8 +5310,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-1634278" y="7327077"/>
-          <a:ext cx="7041172" cy="619040"/>
+          <a:off x="-3270336" y="5691019"/>
+          <a:ext cx="10212436" cy="719892"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5578,10 +5339,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>21622</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10417</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -5591,7 +5352,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2711034" y="10757647"/>
+          <a:off x="2251593" y="10309412"/>
           <a:ext cx="889987" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5633,16 +5394,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7964</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>81893</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>131229</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>21622</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>164212</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10416</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>52153</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5654,8 +5415,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-1259013" y="6951812"/>
-          <a:ext cx="6805848" cy="1134246"/>
+          <a:off x="-2480454" y="5741577"/>
+          <a:ext cx="8688436" cy="775657"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5685,7 +5446,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>178769</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240404" cy="328423"/>
@@ -5750,31 +5511,204 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19114</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="564514"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="テキスト ボックス 116"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3380879" y="493058"/>
+          <a:ext cx="1172116" cy="564514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>マイページ内の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>タイムライン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>126618</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>164212</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127988</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>102962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>179303</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19114</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>108183</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="カギ線コネクタ 47"/>
+        <xdr:cNvPr id="124" name="カギ線コネクタ 123"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="116" idx="0"/>
-          <a:endCxn id="32" idx="1"/>
+          <a:stCxn id="105" idx="3"/>
+          <a:endCxn id="117" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="1434096" y="7765411"/>
-          <a:ext cx="4609494" cy="1845626"/>
+        <a:xfrm flipV="1">
+          <a:off x="1920929" y="775315"/>
+          <a:ext cx="1459950" cy="5221"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>75143</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172117" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="テキスト ボックス 126"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="75143" y="2151529"/>
+          <a:ext cx="1172117" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>メインメニュー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>212967</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>108183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="カギ線コネクタ 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="1"/>
+          <a:endCxn id="127" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="661202" y="1620977"/>
+          <a:ext cx="369740" cy="530552"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5800,31 +5734,2296 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="テキスト ボックス 132"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="201706" y="1355912"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>138221</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="テキスト ボックス 179"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4844692" y="8953500"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="テキスト ボックス 186"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="10903323"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1704313" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="テキスト ボックス 192"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3339352" y="13928913"/>
+          <a:ext cx="1704313" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト詳細</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>91626</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>145679</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1845377" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="194" name="テキスト ボックス 193"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5694567" y="13928914"/>
+          <a:ext cx="1845377" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プロフィール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>126617</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>119390</xdr:rowOff>
+      <xdr:colOff>126619</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>59482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>141800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="201" name="カギ線コネクタ 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="116" idx="2"/>
+          <a:endCxn id="193" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2868444" y="13622216"/>
+          <a:ext cx="418495" cy="523322"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>113077</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>141801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>91626</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>141802</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="206" name="カギ線コネクタ 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="193" idx="3"/>
+          <a:endCxn id="194" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5043665" y="14093125"/>
+          <a:ext cx="650902" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9887</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1281121" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="テキスト ボックス 212"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3371652" y="14612469"/>
+          <a:ext cx="1281121" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト詳細</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>自分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>126619</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>59482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9888</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>153004</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="214" name="カギ線コネクタ 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="116" idx="2"/>
+          <a:endCxn id="213" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2542816" y="13947844"/>
+          <a:ext cx="1102051" cy="555622"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>131230</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>164726</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>38145</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="217" name="カギ線コネクタ 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="2"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-3264751" y="6525874"/>
+          <a:ext cx="10187223" cy="705849"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>140610</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1422184" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="220" name="テキスト ボックス 219"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3502375" y="13637559"/>
+          <a:ext cx="1422184" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レビュー詳細</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>自分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>196341</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>40948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>52154</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="228" name="カギ線コネクタ 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="234" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5351047" y="13151830"/>
+          <a:ext cx="700129" cy="11206"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1845377" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="234" name="テキスト ボックス 233"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6051176" y="12987618"/>
+          <a:ext cx="1845377" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プロフィール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>218088</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>18535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>136452</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>18536</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="249" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="220" idx="3"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4924559" y="13801770"/>
+          <a:ext cx="590717" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>206975</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>34269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152797</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>63359</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="253" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+          <a:endCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3134900" y="12122226"/>
+          <a:ext cx="365266" cy="394058"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>206975</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>34268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>140610</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>18535</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="254" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+          <a:endCxn id="220" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2478865" y="12778260"/>
+          <a:ext cx="1665149" cy="381871"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>206975</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>34269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>143905</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>52154</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="255" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2799880" y="12457246"/>
+          <a:ext cx="1026414" cy="385166"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>102532</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1422184" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="262" name="テキスト ボックス 261"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5033120" y="12337677"/>
+          <a:ext cx="1422184" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レビュー詳細</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>自分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>156891</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>67237</xdr:rowOff>
+      <xdr:colOff>63260</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>63359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>102532</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>63360</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="263" name="カギ線コネクタ 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="3"/>
+          <a:endCxn id="262" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4545613" y="12501888"/>
+          <a:ext cx="487507" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>52833</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="267" name="テキスト ボックス 266"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000480" y="12337676"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レビュー修正</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>180010</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>63359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>52833</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>63360</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="268" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="262" idx="3"/>
+          <a:endCxn id="267" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6455304" y="12501888"/>
+          <a:ext cx="545176" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>86352</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2018501" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="270" name="テキスト ボックス 269"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3896352" y="12785912"/>
+          <a:ext cx="2018501" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レビュー一覧（指定ゲーム）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1240404" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="271" name="テキスト ボックス 270"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3888440" y="14074588"/>
+          <a:ext cx="1240404" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2409634" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="272" name="テキスト ボックス 271"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3563471" y="10432677"/>
+          <a:ext cx="2409634" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>参加コミュニティ一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139594</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>201707</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>7329</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="273" name="カギ線コネクタ 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="272" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-907054" y="6126363"/>
+          <a:ext cx="7982467" cy="958584"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889988" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="テキスト ボックス 92"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4034118" y="19733560"/>
+          <a:ext cx="889988" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>74467</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>63360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>76060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="116" idx="3"/>
+          <a:endCxn id="93" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3436232" y="19897772"/>
+          <a:ext cx="597886" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889988" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="テキスト ボックス 98"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4930588" y="16685559"/>
+          <a:ext cx="889988" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>25104</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>38146</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>40947</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="99" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4059222" y="16846970"/>
+          <a:ext cx="871366" cy="2801"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>160705</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031052" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="テキスト ボックス 102"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3970705" y="15116736"/>
+          <a:ext cx="1031052" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コミュニティ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7174</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>48276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>141800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="112" idx="2"/>
+          <a:endCxn id="187" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2657443" y="12021684"/>
+          <a:ext cx="429700" cy="351413"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131228</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>137923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>160704</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>153007</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="187" idx="2"/>
+          <a:endCxn id="103" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2379601" y="13689844"/>
+          <a:ext cx="2704496" cy="477711"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131229</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>137923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>119388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="187" idx="2"/>
+          <a:endCxn id="271" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2859543" y="13209903"/>
+          <a:ext cx="1662348" cy="395446"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131229</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>137923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>86352</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>7330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="187" idx="2"/>
+          <a:endCxn id="270" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3507837" y="12561609"/>
+          <a:ext cx="373672" cy="403358"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>138969</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="テキスト ボックス 124"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5293675" y="21011029"/>
+          <a:ext cx="1172116" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト情報修正</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>170420</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>153005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>138969</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="カギ線コネクタ 125"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="213" idx="3"/>
+          <a:endCxn id="125" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4652773" y="21164034"/>
+          <a:ext cx="640902" cy="11207"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031052" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="テキスト ボックス 129"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2241176" y="22355735"/>
+          <a:ext cx="1031052" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コミュニティ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889988" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="テキスト ボックス 130"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="22355735"/>
+          <a:ext cx="889988" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>134581</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>8823</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="130" idx="3"/>
+          <a:endCxn id="131" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3272228" y="22519947"/>
+          <a:ext cx="537772" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>131231</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>164211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="136" name="カギ線コネクタ 47"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="116" idx="0"/>
-          <a:endCxn id="25" idx="1"/>
+          <a:stCxn id="105" idx="2"/>
+          <a:endCxn id="130" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2493052" y="8846779"/>
-          <a:ext cx="2469170" cy="1823215"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-8508823" y="11769947"/>
+          <a:ext cx="20734759" cy="765240"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5848,6 +8047,451 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>156876</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="円/楕円 140"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2947147" y="17201029"/>
+          <a:ext cx="347376" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>91324</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>214582</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="円/楕円 141"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6366618" y="12797118"/>
+          <a:ext cx="347376" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>87794</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>5604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>91324</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>7330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="270" idx="3"/>
+          <a:endCxn id="142" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5914853" y="12948398"/>
+          <a:ext cx="451765" cy="1726"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>129204</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>29138</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>16856</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="カギ線コネクタ 145"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="119" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7076851" y="3194797"/>
+          <a:ext cx="348169" cy="15735"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>162734</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>201709</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>29740</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="149" name="カギ線コネクタ 148"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="3"/>
+          <a:endCxn id="118" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8903322" y="7591986"/>
+          <a:ext cx="263093" cy="1725"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>58075</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>3452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>138220</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>40947</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="カギ線コネクタ 241"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="180" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4309621" y="8582641"/>
+          <a:ext cx="541760" cy="528381"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>58076</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>3452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>156670</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>119388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="カギ線コネクタ 241"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="91" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3943449" y="8948814"/>
+          <a:ext cx="1292554" cy="546830"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>89641</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="円/楕円 157"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3328147" y="12797118"/>
+          <a:ext cx="347376" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7579,8 +10223,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O72" sqref="O72"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y54" sqref="Y54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD81" sqref="AD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>

--- a/documents/layout/画面遷移図.xlsx
+++ b/documents/layout/画面遷移図.xlsx
@@ -409,6 +409,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -463,7 +464,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -518,7 +519,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -573,7 +574,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -628,7 +629,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -683,7 +684,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -738,7 +739,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -793,7 +794,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -848,7 +849,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -903,7 +904,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -1268,7 +1269,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -1323,7 +1324,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -1621,7 +1622,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -2026,7 +2027,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -2183,7 +2184,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -2290,7 +2291,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -2397,7 +2398,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -2556,7 +2557,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -2611,7 +2612,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -2666,7 +2667,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -2721,7 +2722,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -2776,7 +2777,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -2941,6 +2942,185 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144059</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031052" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1712883" y="9917206"/>
+          <a:ext cx="1031052" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レビュー一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>119440</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1240404" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1688264" y="10589559"/>
+          <a:ext cx="1240404" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>187729</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="テキスト ボックス 51"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1756553" y="11261912"/>
+          <a:ext cx="1313180" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コミュニティ一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3043,7 +3223,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -3098,7 +3278,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -3153,7 +3333,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -3208,7 +3388,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -3250,7 +3430,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>164726</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>42023</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="328423"/>
@@ -3288,7 +3468,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -3304,8 +3484,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>112068</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>67244</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1595309" cy="328423"/>
@@ -3316,7 +3496,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3473833" y="6577854"/>
+          <a:off x="3429009" y="6073589"/>
           <a:ext cx="1595309" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3343,7 +3523,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -3359,8 +3539,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>156891</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:colOff>67243</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1595309" cy="328423"/>
@@ -3371,7 +3551,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3518656" y="8247529"/>
+          <a:off x="3429008" y="7070911"/>
           <a:ext cx="1595309" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3398,7 +3578,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -3415,7 +3595,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>143905</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -3453,7 +3633,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -3495,7 +3675,7 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>136452</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -3533,7 +3713,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -3549,7 +3729,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>107455</xdr:colOff>
+      <xdr:colOff>17807</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
@@ -3561,7 +3741,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3469220" y="3832411"/>
+          <a:off x="3379572" y="3832411"/>
           <a:ext cx="889987" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3588,7 +3768,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -3643,7 +3823,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -3661,7 +3841,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>44833</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>156881</xdr:rowOff>
+      <xdr:rowOff>67233</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -3671,7 +3851,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4527186" y="5535705"/>
+          <a:off x="4527186" y="5446057"/>
           <a:ext cx="1172116" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3698,7 +3878,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -3715,7 +3895,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152797</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -3753,7 +3933,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -3808,7 +3988,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -3863,7 +4043,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -4089,7 +4269,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>107455</xdr:colOff>
+      <xdr:colOff>17807</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>130593</xdr:rowOff>
     </xdr:to>
@@ -4103,8 +4283,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2345953" y="2873355"/>
-          <a:ext cx="1382201" cy="864333"/>
+          <a:off x="2301129" y="2918179"/>
+          <a:ext cx="1382201" cy="774685"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4133,15 +4313,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>139593</xdr:colOff>
+      <xdr:colOff>139594</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>93098</xdr:rowOff>
+      <xdr:rowOff>93097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>112068</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>18537</xdr:rowOff>
+      <xdr:colOff>67245</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>18535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4153,8 +4333,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="975538" y="4243771"/>
-          <a:ext cx="4127644" cy="868946"/>
+          <a:off x="1205259" y="4014050"/>
+          <a:ext cx="3623379" cy="824122"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4189,8 +4369,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>156891</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:colOff>67243</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>7328</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4203,8 +4383,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="163112" y="5056196"/>
-          <a:ext cx="5797319" cy="913769"/>
+          <a:off x="706597" y="4512711"/>
+          <a:ext cx="4620701" cy="824121"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4232,16 +4412,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>13254</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>192547</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>14658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>18672</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>29740</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>29741</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4253,8 +4433,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4042539" y="7135226"/>
-          <a:ext cx="687435" cy="229536"/>
+          <a:off x="4188215" y="6440461"/>
+          <a:ext cx="351259" cy="274360"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4284,7 +4464,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>18671</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -4322,7 +4502,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -4364,7 +4544,7 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>110298</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -4402,7 +4582,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -4444,13 +4624,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>154161</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>29740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>110298</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>29741</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4494,16 +4674,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>123271</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>11204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>8</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>44825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>123267</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>11207</xdr:rowOff>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>145674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4512,8 +4692,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6499420" y="8953501"/>
-          <a:ext cx="347376" cy="302559"/>
+          <a:off x="6174447" y="7575175"/>
+          <a:ext cx="347376" cy="302558"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4543,7 +4723,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>2</a:t>
+            <a:t>3</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
@@ -4596,7 +4776,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -4611,78 +4791,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>201709</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>44825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>91324</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="円/楕円 117"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9166415" y="7440707"/>
-          <a:ext cx="337850" cy="302558"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>29138</xdr:colOff>
+      <xdr:colOff>96374</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
+      <xdr:rowOff>29135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>152395</xdr:colOff>
+      <xdr:colOff>219631</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>163606</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4691,7 +4809,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7425020" y="3043517"/>
+          <a:off x="7492256" y="3054723"/>
           <a:ext cx="347375" cy="302559"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4982,7 +5100,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>104213</xdr:colOff>
+      <xdr:colOff>14565</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>126716</xdr:rowOff>
     </xdr:from>
@@ -5002,8 +5120,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4050674" y="4024373"/>
-          <a:ext cx="362466" cy="635387"/>
+          <a:off x="4005850" y="3979549"/>
+          <a:ext cx="362466" cy="725035"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5033,7 +5151,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>104213</xdr:colOff>
+      <xdr:colOff>14565</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>126716</xdr:rowOff>
     </xdr:from>
@@ -5053,8 +5171,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3776131" y="4298916"/>
-          <a:ext cx="911554" cy="635389"/>
+          <a:off x="3731307" y="4254092"/>
+          <a:ext cx="911554" cy="725037"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5084,7 +5202,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>104215</xdr:colOff>
+      <xdr:colOff>14567</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>126715</xdr:rowOff>
     </xdr:from>
@@ -5092,7 +5210,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>44834</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>153004</xdr:rowOff>
+      <xdr:rowOff>63356</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5104,8 +5222,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3451159" y="4623889"/>
-          <a:ext cx="1539083" cy="612972"/>
+          <a:off x="3451159" y="4534241"/>
+          <a:ext cx="1449435" cy="702620"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5135,14 +5253,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>138554</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>18537</xdr:rowOff>
+      <xdr:colOff>93730</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>18536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>136516</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5155,8 +5273,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5069142" y="6742066"/>
-          <a:ext cx="2911492" cy="687433"/>
+          <a:off x="5024318" y="6237801"/>
+          <a:ext cx="2956316" cy="351257"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5184,10 +5302,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>156670</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>191967</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>145672</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2018501" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -5197,7 +5315,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4863141" y="9704294"/>
+          <a:off x="4674320" y="8045819"/>
           <a:ext cx="2018501" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5224,7 +5342,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -5239,16 +5357,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>158113</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>193409</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>25863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>136516</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>119388</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>141796</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5260,8 +5378,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6881642" y="7757922"/>
-          <a:ext cx="1098992" cy="2110584"/>
+          <a:off x="6692821" y="6917481"/>
+          <a:ext cx="1287813" cy="1292550"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5297,7 +5415,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>178769</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5341,7 +5459,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>10417</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -5379,7 +5497,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -5402,7 +5520,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>10416</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>52153</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5446,7 +5564,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>178769</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240404" cy="328423"/>
@@ -5484,7 +5602,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -5553,7 +5671,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -5567,7 +5685,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -5671,7 +5789,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -5777,6 +5895,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -5791,10 +5910,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>138221</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>194249</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -5804,7 +5923,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4844692" y="8953500"/>
+          <a:off x="4676602" y="7563969"/>
           <a:ext cx="889987" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5831,7 +5950,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -5848,7 +5967,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -5886,7 +6005,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -5903,7 +6022,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -5941,7 +6060,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -5983,7 +6102,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>91626</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>145679</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -6021,7 +6140,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -6063,13 +6182,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>126619</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>59482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>141800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6113,13 +6232,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>113077</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>141801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>91626</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>141802</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6165,7 +6284,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9887</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>156881</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1281121" cy="328423"/>
@@ -6203,7 +6322,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -6245,13 +6364,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>126619</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>59482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9888</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>153004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6301,7 +6420,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>164726</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>38145</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6345,7 +6464,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>140610</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1422184" cy="328423"/>
@@ -6383,7 +6502,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -6425,13 +6544,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>196341</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>40948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>52154</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6477,7 +6596,7 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -6515,7 +6634,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -6557,13 +6676,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>218088</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>18535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>136452</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>18536</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6610,13 +6729,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>206975</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>34269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152797</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6661,13 +6780,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>206975</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>34268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>140610</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>18535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6712,13 +6831,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>206975</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>34269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>143905</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>52154</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6763,7 +6882,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>102532</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1422184" cy="328423"/>
@@ -6801,7 +6920,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -6843,13 +6962,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>63260</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>102532</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6895,7 +7014,7 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>52833</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -6933,7 +7052,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -6950,13 +7069,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>180010</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>52833</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7003,7 +7122,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>86352</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2018501" cy="328423"/>
@@ -7041,7 +7160,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -7058,8 +7177,8 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>56021</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240404" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -7069,7 +7188,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3888440" y="14074588"/>
+          <a:off x="3888440" y="12830727"/>
           <a:ext cx="1240404" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7096,7 +7215,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -7126,11 +7245,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:colOff>77347</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2409634" cy="328423"/>
+    <xdr:ext cx="1649811" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="272" name="テキスト ボックス 271"/>
@@ -7138,8 +7257,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3563471" y="10432677"/>
-          <a:ext cx="2409634" cy="328423"/>
+          <a:off x="3439112" y="8583706"/>
+          <a:ext cx="1649811" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7165,7 +7284,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -7173,31 +7292,6 @@
             </a:rPr>
             <a:t>参加コミュニティ一覧</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>他ユーザー</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7206,15 +7300,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>139594</xdr:colOff>
+      <xdr:colOff>139592</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>93097</xdr:rowOff>
+      <xdr:rowOff>93098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>201707</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>7329</xdr:rowOff>
+      <xdr:colOff>77346</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7226,8 +7320,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-907054" y="6126363"/>
-          <a:ext cx="7982467" cy="958584"/>
+          <a:off x="-44749" y="5264057"/>
+          <a:ext cx="6133496" cy="834225"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -7257,7 +7351,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -7295,7 +7389,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -7312,13 +7406,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>74467</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>63360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>76060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7365,7 +7459,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -7403,7 +7497,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -7420,13 +7514,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>25104</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>38146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>40947</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7472,9 +7566,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>160705</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:colOff>93469</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>78428</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031052" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -7484,7 +7578,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3970705" y="15116736"/>
+          <a:off x="3903469" y="11340340"/>
           <a:ext cx="1031052" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7511,7 +7605,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -7528,13 +7622,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7174</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>48276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>141800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7579,14 +7673,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131228</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>137923</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>137922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>160704</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>153007</xdr:rowOff>
+      <xdr:colOff>93468</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>74552</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7598,8 +7692,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2379601" y="13689844"/>
-          <a:ext cx="2704496" cy="477711"/>
+          <a:off x="2973519" y="10574602"/>
+          <a:ext cx="1449424" cy="410475"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -7630,14 +7724,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131229</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>137923</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>137922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>119388</xdr:rowOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>52145</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7649,8 +7743,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2859543" y="13209903"/>
-          <a:ext cx="1662348" cy="395446"/>
+          <a:off x="3229341" y="12335840"/>
+          <a:ext cx="922752" cy="395446"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -7681,13 +7775,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131229</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>137923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>86352</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7732,7 +7826,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>138969</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
@@ -7770,7 +7864,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -7787,13 +7881,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>170420</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>153005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>138969</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7838,12 +7932,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83053</xdr:colOff>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1031052" cy="328423"/>
+    <xdr:ext cx="1313180" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="130" name="テキスト ボックス 129"/>
@@ -7851,8 +7945,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2241176" y="22355735"/>
-          <a:ext cx="1031052" cy="328423"/>
+          <a:off x="2100112" y="19834412"/>
+          <a:ext cx="1313180" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7878,13 +7972,13 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>コミュニティ</a:t>
+            <a:t>コミュニティ一覧</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7895,7 +7989,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -7933,7 +8027,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
@@ -7948,16 +8042,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>134581</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>51527</xdr:colOff>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>8823</xdr:rowOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>8824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7969,8 +8063,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3272228" y="22519947"/>
-          <a:ext cx="537772" cy="12700"/>
+          <a:off x="3413292" y="19998624"/>
+          <a:ext cx="396708" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8002,15 +8096,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>131231</xdr:colOff>
+      <xdr:colOff>131230</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>104305</xdr:rowOff>
+      <xdr:rowOff>104306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>164211</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83053</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8022,8 +8116,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-8508823" y="11769947"/>
-          <a:ext cx="20734759" cy="765240"/>
+          <a:off x="-7318694" y="10579818"/>
+          <a:ext cx="18213436" cy="624176"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -8053,13 +8147,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>156876</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8100,7 +8194,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>4</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
@@ -8115,13 +8209,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>91324</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>214582</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8162,7 +8256,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>4</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
@@ -8177,13 +8271,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>87794</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>5604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>91324</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8228,120 +8322,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>129204</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1121</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>192545</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>3451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>29138</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>16856</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="146" name="カギ線コネクタ 145"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="16" idx="3"/>
-          <a:endCxn id="119" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7076851" y="3194797"/>
-          <a:ext cx="348169" cy="15735"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>162734</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>194249</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>28015</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>201709</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>29740</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="149" name="カギ線コネクタ 148"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="82" idx="3"/>
-          <a:endCxn id="118" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8903322" y="7591986"/>
-          <a:ext cx="263093" cy="1725"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>58075</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>3452</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>138220</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>40947</xdr:rowOff>
+      <xdr:rowOff>164209</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8353,8 +8343,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4309621" y="8582641"/>
-          <a:ext cx="541760" cy="528381"/>
+          <a:off x="4287209" y="7338787"/>
+          <a:ext cx="328847" cy="449939"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -8383,16 +8373,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>58076</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>3452</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>192545</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>3451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>156670</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>119388</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>191967</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>141795</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8404,8 +8394,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3943449" y="8948814"/>
-          <a:ext cx="1292554" cy="546830"/>
+          <a:off x="4045143" y="7580853"/>
+          <a:ext cx="810697" cy="447657"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -8436,13 +8426,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>89641</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8483,7 +8473,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>2</a:t>
+            <a:t>3</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
@@ -8492,6 +8482,2632 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>224115</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>113731</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="円/楕円 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5602939" y="12841940"/>
+          <a:ext cx="337851" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>198256</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>50426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>214590</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>52145</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="271" idx="3"/>
+          <a:endCxn id="101" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5128844" y="12993220"/>
+          <a:ext cx="464570" cy="1719"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>56024</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="円/楕円 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2622177" y="19834411"/>
+          <a:ext cx="347376" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123257</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="円/楕円 114"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="448235" y="22860000"/>
+          <a:ext cx="347375" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>168080</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1704313" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="テキスト ボックス 119"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1512794" y="25381315"/>
+          <a:ext cx="1704313" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123257</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>151280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>164203</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="115" idx="6"/>
+          <a:endCxn id="120" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="795610" y="25028339"/>
+          <a:ext cx="717184" cy="517188"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>184753</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2409634" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="テキスト ボックス 128"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1529459" y="26445881"/>
+          <a:ext cx="2409634" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>参加コミュニティ一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123257</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>151280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>175998</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>164209</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="115" idx="6"/>
+          <a:endCxn id="137" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="795610" y="25028339"/>
+          <a:ext cx="725094" cy="1021458"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>175998</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>168085</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2018501" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="テキスト ボックス 136"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1520704" y="25885585"/>
+          <a:ext cx="2018501" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レビュー一覧（他ユーザー）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>129204</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>96374</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>16856</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="カギ線コネクタ 146"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="119" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7076851" y="3206003"/>
+          <a:ext cx="415405" cy="4529"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>124051</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>23191</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>11204</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="円/楕円 150"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9312875" y="6600263"/>
+          <a:ext cx="347375" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>162734</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>124051</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>29741</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="154" name="カギ線コネクタ 153"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="3"/>
+          <a:endCxn id="151" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8903322" y="6751543"/>
+          <a:ext cx="409553" cy="1727"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>187765</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>162483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>123271</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>164210</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="156" name="カギ線コネクタ 155"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="180" idx="3"/>
+          <a:endCxn id="94" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5566589" y="7726454"/>
+          <a:ext cx="607858" cy="1727"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>158335</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>7329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>67688</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>7330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="160" name="カギ線コネクタ 159"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="272" idx="3"/>
+          <a:endCxn id="162" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5088923" y="8747917"/>
+          <a:ext cx="581706" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>67688</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031052" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="テキスト ボックス 161"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5670629" y="8583705"/>
+          <a:ext cx="1031052" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コミュニティ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>94487</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="テキスト ボックス 164"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3456252" y="9143999"/>
+          <a:ext cx="1313180" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>遊んだゲーム管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139593</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>94487</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>63357</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="カギ線コネクタ 245"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="165" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-316325" y="5535633"/>
+          <a:ext cx="6693789" cy="851365"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>144058</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>156880</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1845377" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="テキスト ボックス 139"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1488764" y="24865851"/>
+          <a:ext cx="1845377" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レビュー一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123257</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>151280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>144058</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>153004</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="115" idx="6"/>
+          <a:endCxn id="140" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="795610" y="25028339"/>
+          <a:ext cx="693154" cy="1724"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>196494</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>172590</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>153004</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="149" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="140" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3334141" y="24889759"/>
+          <a:ext cx="648449" cy="140304"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>79460</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>172591</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>164203</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="120" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3217107" y="25394024"/>
+          <a:ext cx="541366" cy="151503"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>177440</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>172590</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>164209</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="155" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3539205" y="25898288"/>
+          <a:ext cx="667503" cy="151509"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>129093</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>172590</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>52152</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="129" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3939093" y="26570641"/>
+          <a:ext cx="715850" cy="39452"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123257</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>151280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>184753</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>52152</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="167" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="115" idx="6"/>
+          <a:endCxn id="129" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="795610" y="25028339"/>
+          <a:ext cx="733849" cy="1581754"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2409634" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="テキスト ボックス 169"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1568824" y="27062206"/>
+          <a:ext cx="2409634" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>お気に入りゲーム一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2127505" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="テキスト ボックス 170"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1568824" y="27734559"/>
+          <a:ext cx="2127505" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>遊んだゲーム一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123257</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>151280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="174" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="115" idx="6"/>
+          <a:endCxn id="171" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="795610" y="25028339"/>
+          <a:ext cx="773214" cy="2870432"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123257</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>151280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="175" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="115" idx="6"/>
+          <a:endCxn id="170" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="795610" y="25028339"/>
+          <a:ext cx="773214" cy="2198079"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>168458</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>43497</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="181" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="170" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3978458" y="27226418"/>
+          <a:ext cx="1219745" cy="3876"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>110447</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>153006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="183" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3696329" y="27887565"/>
+          <a:ext cx="528289" cy="26288"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>78724</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>59481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>108182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="186" name="カギ線コネクタ 185"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="165" idx="2"/>
+          <a:endCxn id="189" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4206011" y="9379253"/>
+          <a:ext cx="384878" cy="571216"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="テキスト ボックス 188"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4684058" y="9693088"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>132432</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>108605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>31572</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>74987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="198" name="円/楕円 197"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6183608" y="10193899"/>
+          <a:ext cx="347376" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>203410</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>97399</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="テキスト ボックス 198"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4685763" y="10182693"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>78724</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>59480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>203410</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>93522</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="200" name="カギ線コネクタ 241"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="165" idx="2"/>
+          <a:endCxn id="199" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3962061" y="9623202"/>
+          <a:ext cx="874483" cy="572921"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>196926</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>91797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>132432</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>93523</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="202" name="カギ線コネクタ 201"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="199" idx="3"/>
+          <a:endCxn id="198" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5575750" y="10345179"/>
+          <a:ext cx="607858" cy="1726"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>123259</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="円/楕円 203"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7171765" y="8594912"/>
+          <a:ext cx="347376" cy="302558"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>202269</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>5603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>7329</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="205" name="カギ線コネクタ 204"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="162" idx="3"/>
+          <a:endCxn id="204" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6701681" y="8746191"/>
+          <a:ext cx="470084" cy="1726"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>112056</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="210" name="テキスト ボックス 209"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4706471" y="10701615"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>攻略日記投稿</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123280</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="211" name="テキスト ボックス 210"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3451412" y="11217104"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>攻略日記管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139592</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>119404</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="212" name="カギ線コネクタ 245"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="211" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-1355298" y="6574606"/>
+          <a:ext cx="8766894" cy="846525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>78724</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>59480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>108179</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="219" name="カギ線コネクタ 241"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="165" idx="2"/>
+          <a:endCxn id="210" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3712954" y="9872309"/>
+          <a:ext cx="1393405" cy="593629"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>109356</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123262</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889988" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="225" name="テキスト ボックス 224"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5039944" y="11217086"/>
+          <a:ext cx="889988" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>110</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>119386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>109356</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>119404</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="229" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="211" idx="3"/>
+          <a:endCxn id="225" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4482463" y="11381298"/>
+          <a:ext cx="557481" cy="18"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>21846</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>145105</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="231" name="円/楕円 230"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400670" y="14881413"/>
+          <a:ext cx="347376" cy="302558"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>3933</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>72839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>21846</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>74552</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="カギ線コネクタ 231"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="103" idx="3"/>
+          <a:endCxn id="231" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4934521" y="15032692"/>
+          <a:ext cx="466149" cy="1713"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10223,8 +12839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y54" sqref="Y54"/>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>
@@ -10239,8 +12855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD81" sqref="AD81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>

--- a/documents/layout/画面遷移図.xlsx
+++ b/documents/layout/画面遷移図.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="75" windowWidth="19200" windowHeight="12045" activeTab="3"/>
@@ -75,8 +75,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,7 +202,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -220,7 +220,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -238,7 +238,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -256,7 +256,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -274,7 +274,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -292,7 +292,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2522,7 +2522,7 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:ext cx="1704313" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="263" name="テキスト ボックス 262"/>
@@ -2531,7 +2531,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3741148" y="7485530"/>
-          <a:ext cx="889987" cy="328423"/>
+          <a:ext cx="1704313" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2565,6 +2565,46 @@
             </a:rPr>
             <a:t>サイト一覧</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>指定ゲーム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2687,7 +2727,7 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1031052" cy="328423"/>
+    <xdr:ext cx="1845377" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="266" name="テキスト ボックス 265"/>
@@ -2696,7 +2736,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3741147" y="8101853"/>
-          <a:ext cx="1031052" cy="328423"/>
+          <a:ext cx="1845377" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2730,6 +2770,31 @@
             </a:rPr>
             <a:t>レビュー一覧</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>指定ゲーム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3126,6 +3191,57 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131228</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>137922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>74565</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="208" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="187" idx="2"/>
+          <a:endCxn id="209" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2713866" y="14364108"/>
+          <a:ext cx="1953702" cy="395447"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3430,7 +3546,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>164726</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>42023</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="328423"/>
@@ -3595,7 +3711,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>143905</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -3675,7 +3791,7 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>136452</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -3895,7 +4011,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152797</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -5415,7 +5531,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>178769</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5459,7 +5575,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>10417</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -5520,7 +5636,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>10416</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>52153</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5564,7 +5680,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>178769</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240404" cy="328423"/>
@@ -5967,7 +6083,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -6022,7 +6138,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -6102,7 +6218,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>91626</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>145679</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -6182,13 +6298,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>126619</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>59482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>141800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6232,13 +6348,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>113077</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>141801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>91626</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>141802</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6284,7 +6400,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9887</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>156881</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1281121" cy="328423"/>
@@ -6364,13 +6480,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>126619</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>59482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9888</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>153004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6420,7 +6536,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>164726</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>38145</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6464,7 +6580,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>140610</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1422184" cy="328423"/>
@@ -6544,13 +6660,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>196341</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>40948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>52154</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6596,7 +6712,7 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -6676,13 +6792,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>218088</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>18535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>136452</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>18536</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6729,13 +6845,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>206975</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>34269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152797</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6780,13 +6896,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>206975</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>34268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>140610</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>18535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6831,13 +6947,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>206975</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>34269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>143905</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>52154</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6882,7 +6998,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>102532</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1422184" cy="328423"/>
@@ -6962,13 +7078,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>63260</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>102532</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7014,7 +7130,7 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>52833</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -7069,13 +7185,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>180010</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>52833</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7122,7 +7238,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>86352</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2018501" cy="328423"/>
@@ -7177,7 +7293,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>56021</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240404" cy="328423"/>
@@ -7351,7 +7467,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -7406,13 +7522,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>74467</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>63360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>76060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7459,7 +7575,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -7514,13 +7630,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>25104</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>38146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>40947</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7567,7 +7683,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>93469</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>78428</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031052" cy="328423"/>
@@ -7622,13 +7738,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7174</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>48276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>141800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7673,13 +7789,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131228</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>137922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>93468</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>74552</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7724,13 +7840,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131229</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>137922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>52145</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7775,13 +7891,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131229</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>137923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>86352</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7826,7 +7942,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>138969</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
@@ -7881,13 +7997,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>170420</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>153005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>138969</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7934,7 +8050,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>83053</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -7989,7 +8105,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -8044,13 +8160,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>51527</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>8824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8103,7 +8219,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>83053</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8147,13 +8263,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>156876</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8209,13 +8325,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>91324</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>214582</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8271,13 +8387,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>87794</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>5604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>91324</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8426,13 +8542,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>89641</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8488,13 +8604,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>224115</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>113731</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8546,13 +8662,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>198256</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>50426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>214590</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>52145</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8599,13 +8715,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>56024</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8657,13 +8773,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8719,7 +8835,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>168080</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -8799,13 +8915,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>164203</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8852,8 +8968,8 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>184753</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>56028</xdr:rowOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>112053</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2409634" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -8863,7 +8979,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1529459" y="26445881"/>
+          <a:off x="1529459" y="27174259"/>
           <a:ext cx="2409634" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8923,114 +9039,6 @@
             <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>151280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>175998</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>164209</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="134" name="カギ線コネクタ 222"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="115" idx="6"/>
-          <a:endCxn id="137" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="795610" y="25028339"/>
-          <a:ext cx="725094" cy="1021458"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>175998</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>168085</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2018501" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="テキスト ボックス 136"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1520704" y="25885585"/>
-          <a:ext cx="2018501" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>レビュー一覧（他ユーザー）</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9317,7 +9325,7 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1031052" cy="328423"/>
+    <xdr:ext cx="1454244" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="162" name="テキスト ボックス 161"/>
@@ -9326,7 +9334,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5670629" y="8583705"/>
-          <a:ext cx="1031052" cy="328423"/>
+          <a:ext cx="1454244" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9358,7 +9366,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>コミュニティ</a:t>
+            <a:t>コミュニティトップ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9369,7 +9377,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>94487</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -9430,7 +9438,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>94487</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>63357</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9475,7 +9483,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>144058</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>156880</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -9555,13 +9563,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>144058</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>153004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9608,26 +9616,27 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>196494</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>151279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>172590</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>153004</xdr:rowOff>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>153003</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="149" name="カギ線コネクタ 222"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="140" idx="3"/>
+          <a:endCxn id="145" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3334141" y="24889759"/>
-          <a:ext cx="648449" cy="140304"/>
+          <a:off x="3334141" y="25532603"/>
+          <a:ext cx="487065" cy="1724"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9660,26 +9669,27 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>79460</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>162486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>172591</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>164203</xdr:rowOff>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>164204</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="150" name="カギ線コネクタ 222"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="120" idx="3"/>
+          <a:endCxn id="146" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3217107" y="25394024"/>
-          <a:ext cx="541366" cy="151503"/>
+          <a:off x="3217107" y="26048074"/>
+          <a:ext cx="413599" cy="1718"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9710,80 +9720,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>177440</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>172590</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>164209</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="155" name="カギ線コネクタ 222"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="137" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3539205" y="25898288"/>
-          <a:ext cx="667503" cy="151509"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>129093</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>106457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>172590</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>52152</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>108177</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="157" name="カギ線コネクタ 222"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="129" idx="3"/>
+          <a:endCxn id="178" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3939093" y="26570641"/>
-          <a:ext cx="715850" cy="39452"/>
+          <a:off x="3939093" y="27336751"/>
+          <a:ext cx="453614" cy="1720"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9816,14 +9775,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>184753</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>52152</xdr:rowOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>108177</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9835,8 +9794,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="795610" y="25028339"/>
-          <a:ext cx="733849" cy="1581754"/>
+          <a:off x="795610" y="26204956"/>
+          <a:ext cx="733849" cy="1133515"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9869,7 +9828,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2409634" cy="328423"/>
@@ -9949,7 +9908,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2127505" cy="328423"/>
@@ -10029,13 +9988,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10082,13 +10041,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10135,26 +10094,27 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>168458</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>43497</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>8824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="181" name="カギ線コネクタ 222"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="170" idx="3"/>
+          <a:endCxn id="173" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3978458" y="27226418"/>
-          <a:ext cx="1219745" cy="3876"/>
+          <a:off x="3978458" y="28403036"/>
+          <a:ext cx="470278" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10187,24 +10147,27 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>110447</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>153006</xdr:rowOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:colOff>35295</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>164213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="183" name="カギ線コネクタ 222"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="171" idx="3"/>
+          <a:endCxn id="176" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3696329" y="27887565"/>
-          <a:ext cx="528289" cy="26288"/>
+          <a:off x="3696329" y="28571124"/>
+          <a:ext cx="373084" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10237,13 +10200,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>78724</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>59481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>108182</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10288,7 +10251,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -10343,13 +10306,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>132432</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>108605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>31572</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>74987</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10405,7 +10368,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>203410</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>97399</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -10460,13 +10423,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>78724</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>59480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>203410</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>93522</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10511,13 +10474,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>196926</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>91797</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>132432</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>93523</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10562,14 +10525,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>156887</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>123259</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>46502</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
@@ -10580,8 +10543,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7171765" y="8594912"/>
-          <a:ext cx="347376" cy="302558"/>
+          <a:off x="7552769" y="8594912"/>
+          <a:ext cx="337851" cy="302558"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -10624,14 +10587,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>202269</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>177226</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>5603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>156887</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>7329</xdr:rowOff>
     </xdr:to>
@@ -10645,8 +10608,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6701681" y="8746191"/>
-          <a:ext cx="470084" cy="1726"/>
+          <a:off x="7124873" y="8746191"/>
+          <a:ext cx="427896" cy="1726"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10679,7 +10642,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>112056</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -10734,7 +10697,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>123280</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -10795,7 +10758,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>119404</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10840,13 +10803,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>78724</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>59480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>108179</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10891,7 +10854,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>109356</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>123262</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -10946,13 +10909,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>110</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>119386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>109356</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>119404</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10999,13 +10962,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>21846</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>145105</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11061,13 +11024,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>3933</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>72839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>21846</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>74552</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11087,6 +11050,2282 @@
           <a:avLst>
             <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>134464</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="円/楕円 144"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3821206" y="25381323"/>
+          <a:ext cx="347376" cy="302560"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>168082</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="円/楕円 145"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3630706" y="25896794"/>
+          <a:ext cx="347376" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>67289</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>160335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>130595</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="148" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="130" idx="2"/>
+          <a:endCxn id="159" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2765941" y="23683448"/>
+          <a:ext cx="306436" cy="324915"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="テキスト ボックス 158"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3081617" y="23834912"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コミュニティトップ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="テキスト ボックス 160"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4078942" y="24350382"/>
+          <a:ext cx="1313180" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>参加ユーザー一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>40341</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="テキスト ボックス 162"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4074459" y="25376841"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>雑談掲示板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>58270</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>13447</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="テキスト ボックス 163"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4092388" y="24890506"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>攻略掲示板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>222857</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>126716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>141799</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="159" idx="2"/>
+          <a:endCxn id="161" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3768211" y="24203862"/>
+          <a:ext cx="351259" cy="270203"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>222857</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>126716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>58270</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>9570</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="169" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="159" idx="2"/>
+          <a:endCxn id="164" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3504872" y="24467201"/>
+          <a:ext cx="891383" cy="283649"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>222857</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>126717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>40341</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>159729</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="172" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="159" idx="2"/>
+          <a:endCxn id="163" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3252740" y="24719334"/>
+          <a:ext cx="1377718" cy="265720"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="テキスト ボックス 172"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448736" y="28238824"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>35295</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="テキスト ボックス 175"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4069413" y="28406913"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22406</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="円/楕円 176"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2588559" y="23857324"/>
+          <a:ext cx="347376" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>33612</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="円/楕円 177"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4392707" y="27185471"/>
+          <a:ext cx="347376" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>184017</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>151280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="179" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="173" idx="3"/>
+          <a:endCxn id="184" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5338723" y="27885839"/>
+          <a:ext cx="409894" cy="12932"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28812</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>162486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>164213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="182" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="176" idx="3"/>
+          <a:endCxn id="185" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4959400" y="28569398"/>
+          <a:ext cx="430630" cy="1727"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>44817</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="円/楕円 183"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5748617" y="27734559"/>
+          <a:ext cx="347376" cy="302560"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>134465</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="円/楕円 184"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5390030" y="28418118"/>
+          <a:ext cx="347376" cy="302560"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>13298</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>141800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>56028</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>7332</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="190" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="161" idx="3"/>
+          <a:endCxn id="192" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5392122" y="24514594"/>
+          <a:ext cx="939200" cy="537885"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>56028</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>11208</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1845377" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="192" name="テキスト ボックス 191"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6331322" y="24888267"/>
+          <a:ext cx="1845377" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プロフィール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>51787</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>7332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>56028</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>9571</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="195" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="164" idx="3"/>
+          <a:endCxn id="192" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4982375" y="25052479"/>
+          <a:ext cx="1348947" cy="2239"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>33858</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>7332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>56028</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>159729</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="196" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="163" idx="3"/>
+          <a:endCxn id="192" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4964446" y="25052479"/>
+          <a:ext cx="1366876" cy="488574"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>33610</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>156884</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="円/楕円 202"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8650941" y="24899472"/>
+          <a:ext cx="347375" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>108464</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>5605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>7332</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="207" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="192" idx="3"/>
+          <a:endCxn id="203" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8176699" y="25050752"/>
+          <a:ext cx="474242" cy="1727"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="209" name="テキスト ボックス 208"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3888441" y="15374471"/>
+          <a:ext cx="748923" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>攻略日記</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="テキスト ボックス 214"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4347882" y="11721353"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>攻略日記一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>156938</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>115527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>119389</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="216" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="211" idx="2"/>
+          <a:endCxn id="215" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3987391" y="11525074"/>
+          <a:ext cx="340038" cy="380944"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="218" name="テキスト ボックス 217"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4392706" y="12259235"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>攻略日記投稿</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>156938</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>115527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>153006</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="221" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="211" idx="2"/>
+          <a:endCxn id="218" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3740862" y="11771603"/>
+          <a:ext cx="877920" cy="425768"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="222" name="テキスト ボックス 221"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5916706" y="11721353"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>攻略日記詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="256" name="テキスト ボックス 255"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7261412" y="11721353"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>攻略日記編集</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>109</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>119389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>132089</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="257" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="215" idx="3"/>
+          <a:endCxn id="222" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5378933" y="11885565"/>
+          <a:ext cx="537773" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>110</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>119389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>132089</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="258" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="222" idx="3"/>
+          <a:endCxn id="256" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6947757" y="11885565"/>
+          <a:ext cx="313655" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>112052</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="259" name="円/楕円 258"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3798794" y="11710147"/>
+          <a:ext cx="347376" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>33611</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="260" name="円/楕円 259"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5065059" y="16394206"/>
+          <a:ext cx="347376" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>155011</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>72839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>74566</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="261" name="カギ線コネクタ 260"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="209" idx="3"/>
+          <a:endCxn id="260" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4637364" y="16545486"/>
+          <a:ext cx="427695" cy="1727"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>89651</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1281120" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="264" name="テキスト ボックス 263"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6813180" y="9076765"/>
+          <a:ext cx="1281120" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>自分の投稿</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>攻略</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>89651</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1281120" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="265" name="テキスト ボックス 264"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6813180" y="9581029"/>
+          <a:ext cx="1281120" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>自分の投稿</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>雑談</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>122457</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>3451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>89651</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>164211</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="266" name="カギ線コネクタ 265"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="162" idx="2"/>
+          <a:endCxn id="264" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6441041" y="8868837"/>
+          <a:ext cx="328849" cy="415429"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>122457</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>3451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>89651</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>164211</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="269" name="カギ線コネクタ 268"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="162" idx="2"/>
+          <a:endCxn id="265" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6188909" y="9120969"/>
+          <a:ext cx="833113" cy="415429"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="arrow"/>
@@ -11127,7 +13366,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11201,6 +13440,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -11235,6 +13475,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -11410,19 +13651,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:AC11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:29" ht="33.75" thickBot="1">
+    <row r="7" spans="1:29" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -11455,8 +13696,8 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="1:29" ht="19.5" thickTop="1"/>
-    <row r="10" spans="1:29">
+    <row r="8" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="P10" s="11" t="s">
         <v>0</v>
       </c>
@@ -11471,7 +13712,7 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="P11" s="11" t="s">
         <v>1</v>
       </c>
@@ -11501,14 +13742,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F171"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -11518,7 +13759,7 @@
     <col min="7" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -11534,7 +13775,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -11546,7 +13787,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -11554,7 +13795,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -11562,7 +13803,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -11570,7 +13811,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -11578,7 +13819,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -11586,7 +13827,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -11594,7 +13835,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -11602,7 +13843,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -11610,7 +13851,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -11618,7 +13859,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -11626,7 +13867,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -11634,7 +13875,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -11642,7 +13883,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -11650,7 +13891,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -11658,7 +13899,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -11666,7 +13907,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -11674,7 +13915,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -11682,7 +13923,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -11690,7 +13931,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -11698,7 +13939,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -11706,7 +13947,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -11714,7 +13955,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -11722,7 +13963,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -11730,7 +13971,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -11738,7 +13979,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -11746,7 +13987,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -11754,7 +13995,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -11762,7 +14003,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -11770,7 +14011,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -11778,7 +14019,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -11786,7 +14027,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -11794,7 +14035,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -11802,7 +14043,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -11810,7 +14051,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -11818,7 +14059,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -11826,7 +14067,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -11834,7 +14075,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -11842,7 +14083,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -11850,7 +14091,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -11858,7 +14099,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -11866,7 +14107,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -11874,7 +14115,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -11882,7 +14123,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -11890,7 +14131,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -11898,7 +14139,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -11906,7 +14147,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -11914,7 +14155,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -11922,7 +14163,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -11930,7 +14171,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -11938,7 +14179,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -11946,7 +14187,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -11954,7 +14195,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -11962,7 +14203,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -11970,7 +14211,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -11978,7 +14219,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -11986,7 +14227,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -11994,7 +14235,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -12002,7 +14243,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -12010,7 +14251,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -12018,7 +14259,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -12026,7 +14267,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -12034,7 +14275,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -12042,7 +14283,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -12050,7 +14291,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -12058,7 +14299,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -12066,7 +14307,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -12074,7 +14315,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -12082,7 +14323,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -12090,7 +14331,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -12098,7 +14339,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -12106,7 +14347,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -12114,7 +14355,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -12122,7 +14363,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -12130,7 +14371,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -12138,7 +14379,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -12146,7 +14387,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -12154,7 +14395,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -12162,7 +14403,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -12170,7 +14411,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -12178,7 +14419,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -12186,7 +14427,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -12194,7 +14435,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -12202,7 +14443,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -12210,7 +14451,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -12218,7 +14459,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -12226,7 +14467,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -12234,7 +14475,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -12242,7 +14483,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -12250,7 +14491,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -12258,7 +14499,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -12266,7 +14507,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -12274,7 +14515,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -12282,7 +14523,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -12290,7 +14531,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -12298,7 +14539,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -12306,7 +14547,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -12314,7 +14555,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -12322,7 +14563,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -12330,7 +14571,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -12338,7 +14579,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -12346,7 +14587,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -12354,7 +14595,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -12362,7 +14603,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -12370,7 +14611,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -12378,7 +14619,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -12386,7 +14627,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -12394,7 +14635,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -12402,7 +14643,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -12410,7 +14651,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -12418,7 +14659,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -12426,7 +14667,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -12434,7 +14675,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -12442,7 +14683,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -12450,7 +14691,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -12458,7 +14699,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -12466,7 +14707,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -12474,7 +14715,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -12482,7 +14723,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -12490,7 +14731,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -12498,7 +14739,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -12506,7 +14747,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -12514,7 +14755,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -12522,7 +14763,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -12530,7 +14771,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -12538,7 +14779,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -12546,7 +14787,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -12554,7 +14795,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -12562,7 +14803,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -12570,7 +14811,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -12578,7 +14819,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -12586,7 +14827,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -12594,7 +14835,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -12602,7 +14843,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -12610,7 +14851,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -12618,7 +14859,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -12626,7 +14867,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -12634,7 +14875,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -12642,7 +14883,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -12650,7 +14891,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -12658,7 +14899,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -12666,7 +14907,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -12674,7 +14915,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -12682,7 +14923,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -12690,7 +14931,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -12698,7 +14939,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -12706,7 +14947,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -12714,7 +14955,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -12722,7 +14963,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -12730,7 +14971,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -12738,7 +14979,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -12746,7 +14987,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -12754,7 +14995,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -12762,7 +15003,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -12770,7 +15011,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -12778,7 +15019,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -12786,7 +15027,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -12794,34 +15035,34 @@
       <c r="E161" s="4"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E171" s="2"/>
     </row>
   </sheetData>
@@ -12836,14 +15077,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12852,14 +15093,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M93" sqref="M93"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD146" sqref="AD146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/layout/画面遷移図.xlsx
+++ b/documents/layout/画面遷移図.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="75" windowWidth="19200" windowHeight="12045" activeTab="3"/>
@@ -75,8 +75,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,7 +202,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -220,7 +220,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -238,7 +238,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -256,7 +256,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -274,7 +274,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -292,7 +292,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -611,13 +611,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -666,13 +666,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1051,6 +1051,7 @@
           </a:avLst>
         </a:prstGeom>
         <a:ln>
+          <a:prstDash val="sysDash"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -1437,7 +1438,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>144060</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>164211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2229,6 +2230,7 @@
           </a:avLst>
         </a:prstGeom>
         <a:ln>
+          <a:prstDash val="sysDash"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -2519,7 +2521,7 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>155266</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -2614,7 +2616,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>144059</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -2669,7 +2671,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>108762</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -2724,8 +2726,8 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>155265</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -2735,7 +2737,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3741147" y="8101853"/>
+          <a:off x="3741147" y="8404412"/>
           <a:ext cx="1845377" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2800,72 +2802,17 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>211596</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="466794" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="267" name="テキスト ボックス 266"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3125125" y="9076765"/>
-          <a:ext cx="466794" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>一覧</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>140817</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>160335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>108761</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>63358</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2909,13 +2856,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>105522</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>59480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>155267</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>85770</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2959,15 +2906,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>105520</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>59481</xdr:rowOff>
+      <xdr:colOff>105521</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>59479</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>155264</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>29741</xdr:rowOff>
+      <xdr:colOff>155265</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>164211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2979,8 +2926,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2890703" y="7415621"/>
-          <a:ext cx="978790" cy="722097"/>
+          <a:off x="2319203" y="7146679"/>
+          <a:ext cx="2121791" cy="722097"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3009,21 +2956,21 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>144059</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1031052" cy="328423"/>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>153058</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1240404" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1712883" y="9917206"/>
-          <a:ext cx="1031052" cy="328423"/>
+          <a:off x="3738940" y="8662147"/>
+          <a:ext cx="1240404" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3055,7 +3002,21 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>レビュー一覧</a:t>
+            <a:t>サイト一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>検索</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3064,21 +3025,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>119440</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1240404" cy="328423"/>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>154112</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
+        <xdr:cNvPr id="52" name="テキスト ボックス 51"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1688264" y="10589559"/>
-          <a:ext cx="1240404" cy="328423"/>
+          <a:off x="3739994" y="9211236"/>
+          <a:ext cx="1454244" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3110,44 +3071,80 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>サイト一覧</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>検索</a:t>
+            <a:t>コミュニティトップ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100844</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>108183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="カギ線コネクタ 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="58" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-3521991" y="6974045"/>
+          <a:ext cx="10204032" cy="268949"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>187729</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1313180" cy="328423"/>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1877437" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="テキスト ボックス 51"/>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1756553" y="11261912"/>
-          <a:ext cx="1313180" cy="328423"/>
+          <a:off x="1714500" y="12046324"/>
+          <a:ext cx="1877437" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3179,13 +3176,5168 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>コミュニティ一覧</a:t>
+            <a:t>レビュー一覧（全ゲーム）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>124856</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>126066</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1845377" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038385" y="13236948"/>
+          <a:ext cx="1845377" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レビュー詳細</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>216273</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>126065</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1845377" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="テキスト ボックス 78"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5370979" y="9539006"/>
+          <a:ext cx="1845377" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プロフィール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>187926</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>104304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>124857</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>122189</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="2"/>
+          <a:endCxn id="60" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2668772" y="9333605"/>
+          <a:ext cx="354061" cy="385166"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>193857</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889988" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="テキスト ボックス 87"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4003857" y="9023536"/>
+          <a:ext cx="889988" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>6055</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>108182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>193857</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>110983</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="3"/>
+          <a:endCxn id="88" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3591937" y="9184947"/>
+          <a:ext cx="411920" cy="2801"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>196568</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1240404" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="テキスト ボックス 91"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1765392" y="12360088"/>
+          <a:ext cx="1240404" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219504</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1704313" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="テキスト ボックス 92"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2908916" y="12942795"/>
+          <a:ext cx="1704313" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト詳細</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>109425</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1845377" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="テキスト ボックス 93"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5264131" y="12942796"/>
+          <a:ext cx="1845377" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プロフィール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144419</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>81893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219505</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>164211</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="カギ線コネクタ 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="92" idx="2"/>
+          <a:endCxn id="93" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2438009" y="12636097"/>
+          <a:ext cx="418494" cy="523322"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>130876</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>109425</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>164213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="カギ線コネクタ 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="93" idx="3"/>
+          <a:endCxn id="94" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4613229" y="13107006"/>
+          <a:ext cx="650902" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>174681</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889988" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="テキスト ボックス 98"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3536446" y="10174941"/>
+          <a:ext cx="889988" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>92267</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>85771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>174681</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>98471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="92" idx="3"/>
+          <a:endCxn id="99" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3005796" y="10339153"/>
+          <a:ext cx="530650" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="テキスト ボックス 102"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1669676" y="14141823"/>
+          <a:ext cx="1313180" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コミュニティ一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>17799</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889988" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="テキスト ボックス 103"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3379564" y="14141823"/>
+          <a:ext cx="889988" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>69327</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>18535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>17799</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>31235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="103" idx="3"/>
+          <a:endCxn id="104" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2982856" y="14306035"/>
+          <a:ext cx="396708" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85089</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>14658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>185886</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>153006</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="103" idx="2"/>
+          <a:endCxn id="108" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2335505" y="14461006"/>
+          <a:ext cx="306436" cy="324915"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>185887</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="テキスト ボックス 107"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2651181" y="14612470"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コミュニティトップ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>62624</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="テキスト ボックス 108"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648506" y="15127940"/>
+          <a:ext cx="1313180" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>参加ユーザー一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>58141</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="テキスト ボックス 109"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3644023" y="16154399"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>雑談掲示板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76070</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="テキスト ボックス 110"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3661952" y="15668064"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>攻略掲示板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>16538</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>149127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>62624</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>164210</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="108" idx="2"/>
+          <a:endCxn id="109" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3337775" y="14981420"/>
+          <a:ext cx="351259" cy="270203"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>16538</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>149127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76070</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>31981</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="108" idx="2"/>
+          <a:endCxn id="111" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3074436" y="15244759"/>
+          <a:ext cx="891383" cy="283649"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>16538</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>149128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>58141</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>14051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="108" idx="2"/>
+          <a:endCxn id="110" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2822304" y="15496892"/>
+          <a:ext cx="1377717" cy="265720"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>31098</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>164207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>91319</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>164211</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="109" idx="3"/>
+          <a:endCxn id="139" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4961686" y="12602736"/>
+          <a:ext cx="508457" cy="4"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100844</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>196567</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>85771</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="カギ線コネクタ 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="92" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-3653427" y="7105481"/>
+          <a:ext cx="10517796" cy="319841"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100845</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>18534</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="カギ線コネクタ 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="103" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-4592152" y="8044206"/>
+          <a:ext cx="12299531" cy="224125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>105521</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>59481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>153058</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85771</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="カギ線コネクタ 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="265" idx="2"/>
+          <a:endCxn id="51" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2609453" y="7696872"/>
+          <a:ext cx="1539084" cy="719890"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>105522</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>59480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>154113</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>130594</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="カギ線コネクタ 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="265" idx="2"/>
+          <a:endCxn id="52" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2335436" y="7970889"/>
+          <a:ext cx="2088173" cy="720944"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>91319</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>168083</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1845377" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="テキスト ボックス 138"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5470143" y="12438524"/>
+          <a:ext cx="1845377" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プロフィール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="テキスト ボックス 141"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4964205" y="7250206"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1845377" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="テキスト ボックス 142"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6275294" y="6645089"/>
+          <a:ext cx="1845377" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プロフィール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>66637</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>98472</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="カギ線コネクタ 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="263" idx="3"/>
+          <a:endCxn id="143" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5445461" y="6809301"/>
+          <a:ext cx="829833" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>110952</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>81894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>18536</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="149" name="カギ線コネクタ 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="263" idx="2"/>
+          <a:endCxn id="142" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4558302" y="7008515"/>
+          <a:ext cx="440906" cy="370900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>27133</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>81894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>26218</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>18536</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="155" name="カギ線コネクタ 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="142" idx="3"/>
+          <a:endCxn id="143" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5854192" y="6973512"/>
+          <a:ext cx="1343791" cy="440906"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>177291</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>122189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>216273</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>122190</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="158" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="60" idx="3"/>
+          <a:endCxn id="79" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4883762" y="10879836"/>
+          <a:ext cx="487217" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1845377" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="テキスト ボックス 161"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6051176" y="8404413"/>
+          <a:ext cx="1845377" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レビュー詳細</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>91417</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1845377" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="テキスト ボックス 162"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8383770" y="8404412"/>
+          <a:ext cx="1845377" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プロフィール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>52435</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>91417</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>164213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="166" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="162" idx="3"/>
+          <a:endCxn id="163" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7896553" y="8568624"/>
+          <a:ext cx="487217" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>207700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>164213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="167" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="266" idx="3"/>
+          <a:endCxn id="162" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5586524" y="8568624"/>
+          <a:ext cx="464652" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57706</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1704313" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="テキスト ボックス 173"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5436530" y="8494060"/>
+          <a:ext cx="1704313" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト詳細</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>24386</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>89649</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1845377" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="テキスト ボックス 174"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7644386" y="8494061"/>
+          <a:ext cx="1845377" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プロフィール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>193196</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>24386</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85773</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="177" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="174" idx="3"/>
+          <a:endCxn id="175" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7140843" y="8658272"/>
+          <a:ext cx="503543" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>112060</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1595309" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="テキスト ボックス 179"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5490884" y="9087970"/>
+          <a:ext cx="1595309" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>登録されているサイト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>48756</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57706</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85772</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="185" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="3"/>
+          <a:endCxn id="174" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4979344" y="8658271"/>
+          <a:ext cx="457186" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>100907</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>81894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>112060</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>7329</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="191" name="カギ線コネクタ 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="2"/>
+          <a:endCxn id="180" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4710163" y="8471461"/>
+          <a:ext cx="429700" cy="1131742"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>13246</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>81894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>13394</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>11204</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="192" name="カギ線コネクタ 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="174" idx="2"/>
+          <a:endCxn id="180" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6155870" y="8955152"/>
+          <a:ext cx="265487" cy="148"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123257</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="198" name="円/楕円 197"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="26231850"/>
+          <a:ext cx="342332" cy="305921"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>168080</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1704313" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="テキスト ボックス 198"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1482538" y="26742830"/>
+          <a:ext cx="1704313" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123257</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>151280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>164203</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="200" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="198" idx="6"/>
+          <a:endCxn id="199" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="780482" y="26383130"/>
+          <a:ext cx="702056" cy="527273"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>184753</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>112053</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2409634" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="201" name="テキスト ボックス 200"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1499203" y="27372603"/>
+          <a:ext cx="2409634" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>参加コミュニティ一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144058</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>156880</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1845377" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="テキスト ボックス 201"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1458508" y="26217280"/>
+          <a:ext cx="1845377" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レビュー一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123257</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>151280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144058</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>153004</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="203" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="198" idx="6"/>
+          <a:endCxn id="202" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="780482" y="26383130"/>
+          <a:ext cx="678026" cy="1724"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>196494</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>151279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>153003</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="204" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="202" idx="3"/>
+          <a:endCxn id="214" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3263544" y="26383129"/>
+          <a:ext cx="471937" cy="1724"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>79460</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>162486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>164204</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="205" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="199" idx="3"/>
+          <a:endCxn id="215" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3146510" y="26908686"/>
+          <a:ext cx="403514" cy="1718"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>129093</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>106457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>108177</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="206" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="201" idx="3"/>
+          <a:endCxn id="218" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3853368" y="27538457"/>
+          <a:ext cx="443529" cy="1720"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123257</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>151280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>184753</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>108177</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="207" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="198" idx="6"/>
+          <a:endCxn id="201" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="780482" y="26383130"/>
+          <a:ext cx="718721" cy="1157047"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2409634" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="208" name="テキスト ボックス 207"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1533525" y="27946350"/>
+          <a:ext cx="2409634" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>お気に入りゲーム一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2127505" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="209" name="テキスト ボックス 208"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1533525" y="28632150"/>
+          <a:ext cx="2127505" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>遊んだゲーム一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123257</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>151280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="210" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="198" idx="6"/>
+          <a:endCxn id="209" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="780482" y="26383130"/>
+          <a:ext cx="753043" cy="2413232"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123257</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>151280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="211" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="198" idx="6"/>
+          <a:endCxn id="208" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="780482" y="26383130"/>
+          <a:ext cx="753043" cy="1727432"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>168458</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>8824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="212" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="208" idx="3"/>
+          <a:endCxn id="216" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3892733" y="28110562"/>
+          <a:ext cx="460193" cy="16062"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>110447</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>35295</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>164213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="213" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="209" idx="3"/>
+          <a:endCxn id="217" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3615647" y="28796362"/>
+          <a:ext cx="362998" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>134464</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="214" name="円/楕円 213"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3735481" y="26231849"/>
+          <a:ext cx="342333" cy="305922"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>168082</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="円/楕円 214"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3550024" y="26757406"/>
+          <a:ext cx="342333" cy="305921"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="216" name="テキスト ボックス 215"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4352926" y="27946350"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>35295</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="217" name="テキスト ボックス 216"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3978645" y="28632151"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>33612</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="218" name="円/楕円 217"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4296897" y="27383815"/>
+          <a:ext cx="337290" cy="309283"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>184017</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>151280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="219" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="216" idx="3"/>
+          <a:endCxn id="221" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5222742" y="28097630"/>
+          <a:ext cx="399809" cy="12932"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28812</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>162486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>164213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="220" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="217" idx="3"/>
+          <a:endCxn id="222" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4848462" y="28794636"/>
+          <a:ext cx="420544" cy="1727"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>44817</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="221" name="円/楕円 220"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5622551" y="27946350"/>
+          <a:ext cx="337291" cy="305922"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>134465</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="222" name="円/楕円 221"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5269006" y="28643356"/>
+          <a:ext cx="342334" cy="305922"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>24087</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="223" name="円/楕円 222"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8426825" y="6656295"/>
+          <a:ext cx="337850" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>134463</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="224" name="円/楕円 223"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10544735" y="7900147"/>
+          <a:ext cx="347375" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>123257</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="225" name="円/楕円 224"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9861176" y="8505264"/>
+          <a:ext cx="347375" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>56021</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="226" name="円/楕円 225"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7552764" y="10724029"/>
+          <a:ext cx="347375" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>112060</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>1674</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="227" name="円/楕円 226"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7507942" y="11945471"/>
+          <a:ext cx="337850" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>224111</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="円/楕円 227"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7720854" y="13626353"/>
+          <a:ext cx="347375" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>52436</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>84046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85772</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="229" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="143" idx="3"/>
+          <a:endCxn id="223" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8120671" y="6807575"/>
+          <a:ext cx="306154" cy="1726"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>143853</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>151280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="163" idx="3"/>
+          <a:endCxn id="224" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10229147" y="8051427"/>
+          <a:ext cx="315588" cy="12932"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>76822</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85773</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="233" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="175" idx="3"/>
+          <a:endCxn id="225" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9489763" y="8656544"/>
+          <a:ext cx="371413" cy="1729"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>44591</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>117662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>122189</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="238" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="3"/>
+          <a:endCxn id="226" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7216356" y="10875309"/>
+          <a:ext cx="336408" cy="4527"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>161861</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>162486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>112060</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>164214</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="239" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="94" idx="3"/>
+          <a:endCxn id="227" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7109508" y="12096751"/>
+          <a:ext cx="398434" cy="1728"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>143755</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>162486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>164207</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="240" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="139" idx="3"/>
+          <a:endCxn id="228" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7315520" y="13777633"/>
+          <a:ext cx="405334" cy="1721"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>44817</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>67237</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="247" name="円/楕円 246"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2835088" y="6656295"/>
+          <a:ext cx="347376" cy="302560"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>134462</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="248" name="円/楕円 247"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476499" y="10724029"/>
+          <a:ext cx="347375" cy="302560"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>56023</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="249" name="円/楕円 248"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2173941" y="11945471"/>
+          <a:ext cx="347376" cy="302560"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>33611</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="250" name="円/楕円 249"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2151530" y="13099677"/>
+          <a:ext cx="347375" cy="302560"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3195,14 +8347,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131228</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>137922</xdr:rowOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>3452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>74565</xdr:rowOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>74566</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3214,8 +8366,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2713866" y="14364108"/>
-          <a:ext cx="1953702" cy="395447"/>
+          <a:off x="2730675" y="16902241"/>
+          <a:ext cx="1920084" cy="395447"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3546,7 +8698,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>164726</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>42023</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="328423"/>
@@ -3711,7 +8863,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>143905</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -3791,7 +8943,7 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>136452</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -4011,7 +9163,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152797</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -5531,7 +10683,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>178769</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5575,8 +10727,8 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>10417</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>11208</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -5586,7 +10738,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2251593" y="10309412"/>
+          <a:off x="2251593" y="15307237"/>
           <a:ext cx="889987" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5629,15 +10781,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>131229</xdr:colOff>
+      <xdr:colOff>131230</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>104306</xdr:rowOff>
+      <xdr:rowOff>104305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>10416</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>52153</xdr:rowOff>
+      <xdr:colOff>10417</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5649,8 +10801,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-2480454" y="5741577"/>
-          <a:ext cx="8688436" cy="775657"/>
+          <a:off x="-4979366" y="8240489"/>
+          <a:ext cx="13686261" cy="775657"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5680,7 +10832,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>178769</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240404" cy="328423"/>
@@ -6083,8 +11235,8 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -6094,7 +11246,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048000" y="10903323"/>
+          <a:off x="3048000" y="15811500"/>
           <a:ext cx="889987" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6138,7 +11290,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -6218,7 +11370,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>91626</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>145679</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -6298,13 +11450,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>126619</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>59482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>141800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6348,13 +11500,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>113077</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>141801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>91626</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>141802</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6400,7 +11552,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9887</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>156881</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1281121" cy="328423"/>
@@ -6480,13 +11632,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>126619</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>59482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9888</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>153004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6536,7 +11688,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>164726</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>38145</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6580,7 +11732,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>140610</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1422184" cy="328423"/>
@@ -6660,13 +11812,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>196341</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>40948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>52154</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6712,7 +11864,7 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -6792,13 +11944,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>218088</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>18535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>136452</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>18536</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6845,13 +11997,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>206975</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>34269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152797</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6896,13 +12048,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>206975</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>34268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>140610</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>18535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6947,13 +12099,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>206975</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>34269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>143905</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>52154</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6998,7 +12150,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>102532</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1422184" cy="328423"/>
@@ -7078,13 +12230,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>63260</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>102532</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7130,7 +12282,7 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>52833</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -7185,13 +12337,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>180010</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>52833</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7238,7 +12390,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>86352</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2018501" cy="328423"/>
@@ -7293,7 +12445,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>56021</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240404" cy="328423"/>
@@ -7467,7 +12619,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -7522,13 +12674,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>74467</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>63360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>76060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7575,7 +12727,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -7630,13 +12782,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>25104</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>38146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>40947</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7683,7 +12835,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>93469</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>78428</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031052" cy="328423"/>
@@ -7738,14 +12890,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7174</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>48276</xdr:rowOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>3454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>141800</xdr:rowOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7757,8 +12909,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2657443" y="12021684"/>
-          <a:ext cx="429700" cy="351413"/>
+          <a:off x="2702267" y="15629979"/>
+          <a:ext cx="340052" cy="351413"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -7788,15 +12940,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>131228</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>137922</xdr:rowOff>
+      <xdr:colOff>131229</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>3451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>93468</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>74552</xdr:rowOff>
+      <xdr:colOff>93469</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>74551</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7808,8 +12960,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2973519" y="10574602"/>
-          <a:ext cx="1449424" cy="410475"/>
+          <a:off x="2990329" y="16642587"/>
+          <a:ext cx="1415805" cy="410475"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -7840,13 +12992,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131229</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>137922</xdr:rowOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>3452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>52145</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7859,8 +13011,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3229341" y="12335840"/>
-          <a:ext cx="922752" cy="395446"/>
+          <a:off x="3246150" y="16386767"/>
+          <a:ext cx="889134" cy="395446"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -7891,13 +13043,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131229</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>137923</xdr:rowOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>3452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>86352</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7910,8 +13062,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3507837" y="12561609"/>
-          <a:ext cx="373672" cy="403358"/>
+          <a:off x="3524646" y="16108271"/>
+          <a:ext cx="340054" cy="403358"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -7942,7 +13094,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>138969</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
@@ -7997,13 +13149,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>170420</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>153005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>138969</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8050,7 +13202,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>83053</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -8105,7 +13257,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -8160,13 +13312,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>51527</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>8824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8219,7 +13371,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>83053</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8263,13 +13415,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>156876</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8325,13 +13477,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>91324</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>214582</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8387,13 +13539,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>87794</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>5604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>91324</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8542,13 +13694,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>89641</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8604,13 +13756,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>224115</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>113731</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8662,13 +13814,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>198256</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>50426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>214590</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>52145</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8715,13 +13867,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>56024</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8773,13 +13925,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8835,7 +13987,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>168080</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -8915,13 +14067,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>164203</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8968,7 +14120,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>184753</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>112053</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2409634" cy="328423"/>
@@ -9483,7 +14635,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>144058</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>156880</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -9563,13 +14715,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>144058</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>153004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9616,13 +14768,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>196494</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>151279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>153003</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9669,13 +14821,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>79460</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>162486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>164204</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9722,13 +14874,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>129093</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>106457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>134472</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>108177</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9775,13 +14927,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>184753</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>108177</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9828,7 +14980,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2409634" cy="328423"/>
@@ -9908,7 +15060,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2127505" cy="328423"/>
@@ -9988,13 +15140,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10041,13 +15193,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10094,13 +15246,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>168458</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>8824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10147,13 +15299,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>110447</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>35295</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>164213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10962,13 +16114,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>21846</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>145105</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11024,13 +16176,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>3933</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>72839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>21846</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>74552</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11077,13 +16229,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>134464</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11139,13 +16291,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>168082</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11197,13 +16349,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>67289</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>160335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>168087</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>130595</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11248,7 +16400,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="328423"/>
@@ -11303,7 +16455,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -11358,7 +16510,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>40341</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>163606</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -11413,7 +16565,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>58270</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>13447</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -11468,13 +16620,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>222857</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>126716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>141799</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11519,13 +16671,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>222857</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>126716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>58270</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>9570</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11570,13 +16722,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>222857</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>126717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>40341</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>159729</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11621,7 +16773,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -11676,7 +16828,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>35295</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -11731,13 +16883,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>22406</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11789,13 +16941,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>134472</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>33612</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11847,13 +16999,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>184017</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11900,13 +17052,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>28812</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>162486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>164213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11953,13 +17105,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>44817</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>134472</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12015,13 +17167,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>134465</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12077,13 +17229,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>13298</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>141800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>7332</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12130,7 +17282,7 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>11208</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -12210,13 +17362,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>51787</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>7332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>9571</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12263,13 +17415,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>33858</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>7332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>159729</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12316,13 +17468,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>33610</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>156884</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12378,13 +17530,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>108464</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>5605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>7332</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12431,7 +17583,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="328423"/>
@@ -12976,13 +18128,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>33611</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13038,13 +18190,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>155011</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>72839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>74566</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13326,6 +18478,1317 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123263</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="テキスト ボックス 187"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3485028" y="13783235"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コンフィグ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139593</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123263</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>164211</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="191" name="カギ線コネクタ 245"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="188" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-2621555" y="7840863"/>
+          <a:ext cx="11333025" cy="880141"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="230" name="テキスト ボックス 229"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4258235" y="14287500"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>公開範囲設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>120021</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>160334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>224116</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="233" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="188" idx="2"/>
+          <a:endCxn id="230" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3924101" y="14117578"/>
+          <a:ext cx="340054" cy="328213"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="237" name="テキスト ボックス 236"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4258235" y="14287500"/>
+          <a:ext cx="1313180" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プロフィール編集</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>120021</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>160334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>224116</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="238" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="188" idx="2"/>
+          <a:endCxn id="237" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3924101" y="14117578"/>
+          <a:ext cx="340054" cy="328213"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="243" name="テキスト ボックス 242"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4258235" y="15296029"/>
+          <a:ext cx="1172116" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キーコンフィグ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>120022</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>160333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>164211</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="244" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="188" idx="2"/>
+          <a:endCxn id="243" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3419837" y="14621842"/>
+          <a:ext cx="1348583" cy="328213"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="250" name="テキスト ボックス 249"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4258235" y="15833910"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ログイン設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>120021</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>160334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>224116</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>29740</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="251" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="188" idx="2"/>
+          <a:endCxn id="250" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3150896" y="14890783"/>
+          <a:ext cx="1886464" cy="328213"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>102531</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>33620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1595309" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="275" name="テキスト ボックス 274"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5705472" y="17682885"/>
+          <a:ext cx="1595309" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>メール認証登録メール</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>42192</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="279" name="テキスト ボックス 278"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9455133" y="17694090"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パスワード設定完了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>113736</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="280" name="テキスト ボックス 279"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7733736" y="17682882"/>
+          <a:ext cx="1172116" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パスワード入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>129016</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>29741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>113736</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>29744</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="286" name="カギ線コネクタ 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="275" idx="3"/>
+          <a:endCxn id="280" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7300781" y="17847094"/>
+          <a:ext cx="432955" cy="3"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>165264</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>29741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>42192</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>40949</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="301" name="カギ線コネクタ 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="280" idx="3"/>
+          <a:endCxn id="279" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8905852" y="17847094"/>
+          <a:ext cx="549281" cy="11208"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>134580</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>29740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>96961</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="304" name="カギ線コネクタ 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="279" idx="0"/>
+          <a:endCxn id="250" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="7560140" y="15071974"/>
+          <a:ext cx="351262" cy="4892969"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>123285</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="307" name="テキスト ボックス 306"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6174461" y="16282147"/>
+          <a:ext cx="748923" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>外部認証</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>112079</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="564514"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="309" name="テキスト ボックス 308"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7507961" y="16147676"/>
+          <a:ext cx="1172116" cy="564514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>外部認証エラー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>新規登録</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>67290</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>137923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>49511</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="319" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="307" idx="2"/>
+          <a:endCxn id="250" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5377319" y="16007012"/>
+          <a:ext cx="568046" cy="1775162"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>199855</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>125374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>112079</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>141800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="322" name="カギ線コネクタ 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="307" idx="3"/>
+          <a:endCxn id="309" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6923384" y="16429933"/>
+          <a:ext cx="584577" cy="16426"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>134580</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>71456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>25784</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>29741</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="325" name="カギ線コネクタ 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="309" idx="2"/>
+          <a:endCxn id="250" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6376334" y="15625143"/>
+          <a:ext cx="630638" cy="2804733"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>78439</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="328" name="テキスト ボックス 327"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4112557" y="16304559"/>
+          <a:ext cx="1313180" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パスワード再設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>67289</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>25863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>102530</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>29744</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="329" name="カギ線コネクタ 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="250" idx="2"/>
+          <a:endCxn id="275" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5069587" y="17211212"/>
+          <a:ext cx="340058" cy="931711"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>62676</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>160335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>67290</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="333" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="328" idx="2"/>
+          <a:endCxn id="250" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4498637" y="16903492"/>
+          <a:ext cx="545634" cy="4614"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="arrow"/>
@@ -13366,7 +19829,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -13440,7 +19903,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -13475,7 +19937,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -13651,19 +20112,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A7:AC11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:29" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="33.75" thickBot="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -13696,8 +20157,8 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" ht="19.5" thickTop="1"/>
+    <row r="10" spans="1:29">
       <c r="P10" s="11" t="s">
         <v>0</v>
       </c>
@@ -13712,7 +20173,7 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29">
       <c r="P11" s="11" t="s">
         <v>1</v>
       </c>
@@ -13742,14 +20203,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:F171"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -13759,7 +20220,7 @@
     <col min="7" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -13775,7 +20236,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -13787,7 +20248,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="9"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -13795,7 +20256,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="9"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -13803,7 +20264,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="9"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -13811,7 +20272,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -13819,7 +20280,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="9"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -13827,7 +20288,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -13835,7 +20296,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -13843,7 +20304,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -13851,7 +20312,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -13859,7 +20320,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -13867,7 +20328,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="9"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -13875,7 +20336,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="9"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -13883,7 +20344,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -13891,7 +20352,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="9"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -13899,7 +20360,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="9"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -13907,7 +20368,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="9"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -13915,7 +20376,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="9"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -13923,7 +20384,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -13931,7 +20392,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -13939,7 +20400,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -13947,7 +20408,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -13955,7 +20416,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -13963,7 +20424,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -13971,7 +20432,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -13979,7 +20440,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -13987,7 +20448,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -13995,7 +20456,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -14003,7 +20464,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -14011,7 +20472,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -14019,7 +20480,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -14027,7 +20488,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -14035,7 +20496,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -14043,7 +20504,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -14051,7 +20512,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -14059,7 +20520,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -14067,7 +20528,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -14075,7 +20536,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -14083,7 +20544,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -14091,7 +20552,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -14099,7 +20560,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -14107,7 +20568,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -14115,7 +20576,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -14123,7 +20584,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -14131,7 +20592,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -14139,7 +20600,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -14147,7 +20608,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -14155,7 +20616,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -14163,7 +20624,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -14171,7 +20632,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -14179,7 +20640,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -14187,7 +20648,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -14195,7 +20656,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -14203,7 +20664,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -14211,7 +20672,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -14219,7 +20680,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -14227,7 +20688,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -14235,7 +20696,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -14243,7 +20704,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -14251,7 +20712,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -14259,7 +20720,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -14267,7 +20728,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -14275,7 +20736,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -14283,7 +20744,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -14291,7 +20752,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -14299,7 +20760,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -14307,7 +20768,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -14315,7 +20776,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -14323,7 +20784,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -14331,7 +20792,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -14339,7 +20800,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -14347,7 +20808,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -14355,7 +20816,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -14363,7 +20824,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -14371,7 +20832,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -14379,7 +20840,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -14387,7 +20848,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -14395,7 +20856,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -14403,7 +20864,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -14411,7 +20872,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -14419,7 +20880,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -14427,7 +20888,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -14435,7 +20896,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -14443,7 +20904,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -14451,7 +20912,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -14459,7 +20920,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -14467,7 +20928,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -14475,7 +20936,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -14483,7 +20944,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -14491,7 +20952,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -14499,7 +20960,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -14507,7 +20968,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -14515,7 +20976,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -14523,7 +20984,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -14531,7 +20992,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -14539,7 +21000,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -14547,7 +21008,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -14555,7 +21016,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -14563,7 +21024,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -14571,7 +21032,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -14579,7 +21040,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -14587,7 +21048,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -14595,7 +21056,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -14603,7 +21064,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -14611,7 +21072,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -14619,7 +21080,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -14627,7 +21088,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -14635,7 +21096,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -14643,7 +21104,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -14651,7 +21112,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -14659,7 +21120,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -14667,7 +21128,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -14675,7 +21136,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -14683,7 +21144,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -14691,7 +21152,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -14699,7 +21160,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -14707,7 +21168,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -14715,7 +21176,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -14723,7 +21184,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -14731,7 +21192,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -14739,7 +21200,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -14747,7 +21208,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -14755,7 +21216,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -14763,7 +21224,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -14771,7 +21232,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -14779,7 +21240,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -14787,7 +21248,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -14795,7 +21256,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -14803,7 +21264,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -14811,7 +21272,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -14819,7 +21280,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -14827,7 +21288,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -14835,7 +21296,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -14843,7 +21304,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -14851,7 +21312,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -14859,7 +21320,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -14867,7 +21328,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -14875,7 +21336,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -14883,7 +21344,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -14891,7 +21352,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -14899,7 +21360,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -14907,7 +21368,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -14915,7 +21376,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -14923,7 +21384,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -14931,7 +21392,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -14939,7 +21400,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -14947,7 +21408,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -14955,7 +21416,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -14963,7 +21424,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -14971,7 +21432,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -14979,7 +21440,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -14987,7 +21448,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -14995,7 +21456,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -15003,7 +21464,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -15011,7 +21472,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -15019,7 +21480,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -15027,7 +21488,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -15035,34 +21496,34 @@
       <c r="E161" s="4"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6">
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6">
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6">
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6">
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6">
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6">
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6">
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6">
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6">
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6">
       <c r="E171" s="2"/>
     </row>
   </sheetData>
@@ -15077,14 +21538,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15093,14 +21554,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD146" sqref="AD146"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/layout/画面遷移図.xlsx
+++ b/documents/layout/画面遷移図.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="19200" windowHeight="12045" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="19200" windowHeight="12045" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -535,11 +535,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>153522</xdr:colOff>
+      <xdr:colOff>7844</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>4482</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:ext cx="1031051" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
@@ -547,8 +547,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4411757" y="1517276"/>
-          <a:ext cx="748923" cy="328423"/>
+          <a:off x="4266079" y="4038600"/>
+          <a:ext cx="1031051" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -580,7 +580,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>新規登録</a:t>
+            <a:t>ユーザー登録</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -647,7 +647,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>22413</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -657,7 +657,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5849472" y="1535206"/>
+          <a:off x="5849472" y="4045324"/>
           <a:ext cx="889987" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -970,7 +970,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>5974</xdr:colOff>
+      <xdr:colOff>142424</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>606</xdr:rowOff>
     </xdr:from>
@@ -978,7 +978,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>22413</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>18536</xdr:rowOff>
+      <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -990,8 +990,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5160680" y="1681488"/>
-          <a:ext cx="688792" cy="17930"/>
+          <a:off x="5297130" y="4202812"/>
+          <a:ext cx="552342" cy="6724"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1022,15 +1022,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>75696</xdr:colOff>
+      <xdr:colOff>75134</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>164816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>79749</xdr:colOff>
+      <xdr:colOff>75695</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>153521</xdr:rowOff>
+      <xdr:rowOff>153520</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1041,9 +1041,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4453665" y="3014642"/>
-          <a:ext cx="661057" cy="4053"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4451357" y="4697270"/>
+          <a:ext cx="661057" cy="561"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1187,7 +1187,7 @@
       <xdr:col>33</xdr:col>
       <xdr:colOff>212913</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>18536</xdr:rowOff>
+      <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1199,8 +1199,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6739459" y="1677006"/>
-          <a:ext cx="869336" cy="22412"/>
+          <a:off x="6739459" y="4198330"/>
+          <a:ext cx="869336" cy="11206"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1537,7 +1537,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>153522</xdr:colOff>
+      <xdr:colOff>7844</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>606</xdr:rowOff>
     </xdr:to>
@@ -1552,7 +1552,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2031609" y="1842293"/>
-          <a:ext cx="2380148" cy="2360519"/>
+          <a:ext cx="2234470" cy="2360519"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1584,7 +1584,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
+      <xdr:colOff>100853</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
@@ -1596,7 +1596,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5681382" y="493059"/>
+          <a:off x="5703794" y="3014383"/>
           <a:ext cx="1172116" cy="564514"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1676,8 +1676,8 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>216265</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>14559</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>49044</xdr:rowOff>
     </xdr:from>
@@ -1685,7 +1685,7 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>19173</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1697,8 +1697,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="6042137" y="1282877"/>
-          <a:ext cx="477633" cy="27026"/>
+          <a:off x="6058946" y="3809804"/>
+          <a:ext cx="466427" cy="4614"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1729,13 +1729,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>79749</xdr:colOff>
+      <xdr:colOff>75135</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>102963</xdr:rowOff>
+      <xdr:rowOff>102964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
+      <xdr:colOff>100854</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>4482</xdr:rowOff>
     </xdr:to>
@@ -1749,8 +1749,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="4786220" y="775316"/>
-          <a:ext cx="895163" cy="741960"/>
+          <a:off x="4781606" y="3296640"/>
+          <a:ext cx="922189" cy="741960"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1889,7 +1889,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>153522</xdr:colOff>
+      <xdr:colOff>7844</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>606</xdr:rowOff>
     </xdr:to>
@@ -1904,7 +1904,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2031609" y="1842293"/>
-          <a:ext cx="2380148" cy="2360519"/>
+          <a:ext cx="2234470" cy="2360519"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2034,7 +2034,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>パスワード再発行</a:t>
+            <a:t>パスワード再設定</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2191,7 +2191,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>パスワード再発行メール</a:t>
+            <a:t>パスワード再設定メール</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2365,7 +2365,7 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>156880</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:ext cx="1595309" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="170" name="テキスト ボックス 169"/>
@@ -2374,7 +2374,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5585143" y="1669674"/>
-          <a:ext cx="1454244" cy="328423"/>
+          <a:ext cx="1595309" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2406,7 +2406,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>パスワード設定完了</a:t>
+            <a:t>パスワード再設定完了</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2415,14 +2415,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>91741</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>8687</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>153004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>158865</xdr:colOff>
+      <xdr:colOff>158864</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>153006</xdr:rowOff>
     </xdr:to>
@@ -2436,8 +2436,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="7039388" y="1833886"/>
-          <a:ext cx="739477" cy="2"/>
+          <a:off x="7180452" y="1833886"/>
+          <a:ext cx="598412" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2726,7 +2726,7 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>155265</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -2802,56 +2802,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>140817</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>160335</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>108761</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>63358</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="270" name="カギ線コネクタ 72"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="264" idx="2"/>
-          <a:endCxn id="265" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2162322" y="6711330"/>
-          <a:ext cx="407288" cy="416179"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -2913,7 +2863,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>155265</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>164211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2958,7 +2908,7 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>153058</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240404" cy="328423"/>
@@ -3027,7 +2977,7 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>154112</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="328423"/>
@@ -3088,7 +3038,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>145675</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>108183</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3132,7 +3082,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="328423"/>
@@ -3187,7 +3137,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>124856</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>126066</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -3267,7 +3217,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>216273</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>126065</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -3347,13 +3297,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>187926</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>104304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>124857</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>122189</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3398,7 +3348,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>193857</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>114860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -3453,13 +3403,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>6055</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>108182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>193857</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>110983</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3506,7 +3456,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>196568</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240404" cy="328423"/>
@@ -3575,7 +3525,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>219504</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -3655,7 +3605,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>109425</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -3735,13 +3685,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>144419</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>81893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>219505</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>164211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3785,13 +3735,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>130876</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>109425</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>164213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3837,7 +3787,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>174681</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -3892,13 +3842,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>92267</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>85771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>174681</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>98471</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3945,7 +3895,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>100852</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -4000,7 +3950,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>17799</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -4055,13 +4005,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>69327</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>18535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>17799</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>31235</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4108,13 +4058,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>85089</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>14658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>185886</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>153006</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4159,7 +4109,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>185887</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="328423"/>
@@ -4214,7 +4164,7 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>62624</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -4269,7 +4219,7 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>58141</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>17928</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -4324,7 +4274,7 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>76070</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>35858</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -4379,13 +4329,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>16538</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>149127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>62624</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>164210</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4430,13 +4380,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>16538</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>149127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>76070</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>31981</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4481,13 +4431,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>16538</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>149128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>58141</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>14051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4532,13 +4482,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>31098</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>164207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>91319</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>164211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4591,7 +4541,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>196567</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>85771</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4641,7 +4591,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>100852</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>18534</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4691,7 +4641,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>153058</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>85771</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4742,7 +4692,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>154113</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>130594</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4787,7 +4737,7 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>91319</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>168083</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -5157,13 +5107,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>177291</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>122189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>216273</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>122190</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5210,7 +5160,7 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -5290,7 +5240,7 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>91417</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -5370,13 +5320,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>52435</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>91417</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>164213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5423,13 +5373,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>207700</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>164213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5476,7 +5426,7 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>57706</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -5556,7 +5506,7 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>24386</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>89649</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -5636,13 +5586,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>193196</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>85772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>24386</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>85773</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5689,7 +5639,7 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>112060</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1595309" cy="328423"/>
@@ -5744,13 +5694,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>48756</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>85771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>57706</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>85772</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5797,13 +5747,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>100907</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>81894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>112060</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>7329</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5847,13 +5797,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>13246</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>81894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>13394</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>11204</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5899,13 +5849,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5961,7 +5911,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>168080</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -6041,13 +5991,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>164203</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6094,7 +6044,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>184753</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>112053</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2409634" cy="328423"/>
@@ -6174,7 +6124,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>144058</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>156880</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -6254,13 +6204,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>144058</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>153004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6307,13 +6257,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>196494</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>151279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>153003</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6360,13 +6310,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>79460</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>162486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>164204</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6413,13 +6363,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>129093</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>106457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>134472</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>108177</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6466,13 +6416,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>184753</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>108177</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6519,7 +6469,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2409634" cy="328423"/>
@@ -6599,7 +6549,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2127505" cy="328423"/>
@@ -6679,13 +6629,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6732,13 +6682,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6785,13 +6735,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>168458</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>8824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6838,13 +6788,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>110447</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>35295</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>164213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6891,13 +6841,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>134464</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6953,13 +6903,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>168082</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7011,7 +6961,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -7066,7 +7016,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>35295</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -7121,13 +7071,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>134472</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>33612</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7179,13 +7129,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>184017</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7232,13 +7182,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>28812</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>162486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>164213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7285,13 +7235,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>44817</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>134472</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7347,13 +7297,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>134465</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7474,13 +7424,13 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>134463</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7536,13 +7486,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>100852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7598,13 +7548,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>56021</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7660,13 +7610,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>112060</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>1674</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7722,13 +7672,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>224111</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7837,13 +7787,13 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>143853</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7890,13 +7840,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>76822</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>84044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>85773</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7943,13 +7893,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>44591</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>117662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>122189</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7996,13 +7946,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>161861</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>162486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>112060</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>164214</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8049,13 +7999,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>143755</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>162486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>164207</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8164,13 +8114,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>134462</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>100854</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8226,13 +8176,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>56023</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8284,13 +8234,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>33611</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>123266</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8338,6 +8288,642 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>56031</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="テキスト ボックス 139"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4986619" y="8471646"/>
+          <a:ext cx="1172116" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト違反報告</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>110953</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>81893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>56032</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>63357</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="263" idx="2"/>
+          <a:endCxn id="140" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4294966" y="7944204"/>
+          <a:ext cx="989993" cy="393314"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>194526</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>52574</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="テキスト ボックス 159"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2659820" y="10642133"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム新規登録申請</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>140817</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>160335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>194525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>48698</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="161" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="264" idx="2"/>
+          <a:endCxn id="160" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-56657" y="8089868"/>
+          <a:ext cx="4931010" cy="501943"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>140818</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>160334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>108762</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>63356</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="172" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="264" idx="2"/>
+          <a:endCxn id="265" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2162323" y="5870888"/>
+          <a:ext cx="407287" cy="416179"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="テキスト ボックス 180"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4258235" y="13110882"/>
+          <a:ext cx="1313180" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>不正レビュー申告</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>151073</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>118312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>224116</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="182" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="60" idx="2"/>
+          <a:endCxn id="181" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3918616" y="12935475"/>
+          <a:ext cx="382076" cy="297161"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>68912</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="テキスト ボックス 185"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4103030" y="14791765"/>
+          <a:ext cx="1313180" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>不正レビュー申告</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>175191</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>160335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>68912</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>164211</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="187" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="93" idx="2"/>
+          <a:endCxn id="186" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3762025" y="14614971"/>
+          <a:ext cx="340053" cy="341957"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>131666</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>85165</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="190" name="テキスト ボックス 189"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5062254" y="17062077"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>不正投稿申告</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>69586</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>31982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>131666</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>81289</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="193" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="3"/>
+          <a:endCxn id="190" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4551939" y="17008894"/>
+          <a:ext cx="510315" cy="217395"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>51657</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>81289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>131666</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>14052</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="196" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="110" idx="3"/>
+          <a:endCxn id="190" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4534010" y="17226289"/>
+          <a:ext cx="528244" cy="268939"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8347,13 +8933,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131228</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>3452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>74566</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8698,7 +9284,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>164726</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>42023</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="328423"/>
@@ -8863,7 +9449,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>143905</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -8943,7 +9529,7 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>136452</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -9163,7 +9749,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152797</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -10683,7 +11269,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>178769</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10727,7 +11313,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>10417</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>11208</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -10788,7 +11374,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>10417</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10832,7 +11418,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>178769</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240404" cy="328423"/>
@@ -11235,7 +11821,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -11290,7 +11876,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -11370,7 +11956,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>91626</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>145679</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -11450,13 +12036,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>126619</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>59482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>141800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11500,13 +12086,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>113077</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>141801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>91626</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>141802</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11552,7 +12138,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9887</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>156881</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1281121" cy="328423"/>
@@ -11632,13 +12218,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>126619</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>59482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9888</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>153004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11688,7 +12274,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>164726</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>38145</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11732,7 +12318,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>140610</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1422184" cy="328423"/>
@@ -11812,13 +12398,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>196341</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>40948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>52154</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11864,7 +12450,7 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -11944,13 +12530,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>218088</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>18535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>136452</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>18536</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11997,13 +12583,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>206975</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>34269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152797</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12048,13 +12634,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>206975</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>34268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>140610</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>18535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12099,13 +12685,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>206975</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>34269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>143905</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>52154</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12150,7 +12736,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>102532</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1422184" cy="328423"/>
@@ -12230,13 +12816,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>63260</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>102532</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12282,7 +12868,7 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>52833</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -12337,13 +12923,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>180010</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>52833</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12390,7 +12976,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>86352</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2018501" cy="328423"/>
@@ -12445,7 +13031,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>56021</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240404" cy="328423"/>
@@ -12619,7 +13205,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -12674,13 +13260,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>74467</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>63360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>76060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12727,7 +13313,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -12782,13 +13368,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>25104</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>38146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>40947</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12835,7 +13421,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>93469</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>78428</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031052" cy="328423"/>
@@ -12890,13 +13476,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7174</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>3454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12941,13 +13527,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131229</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>3451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>93469</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>74551</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12992,13 +13578,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131229</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>3452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>52145</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13043,13 +13629,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131229</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>3452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>86352</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13094,7 +13680,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>138969</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
@@ -13149,13 +13735,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>170420</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>153005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>138969</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13202,7 +13788,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>83053</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -13257,7 +13843,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -13312,13 +13898,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>51527</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>8824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13371,7 +13957,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>83053</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13415,13 +14001,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>156876</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13477,13 +14063,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>91324</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>214582</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13539,13 +14125,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>87794</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>5604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>91324</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13694,13 +14280,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>89641</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13756,13 +14342,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>224115</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>113731</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13814,13 +14400,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>198256</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>50426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>214590</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>52145</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13865,73 +14451,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>56024</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="円/楕円 113"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2622177" y="19834411"/>
-          <a:ext cx="347376" cy="302559"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>5</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13987,7 +14515,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>168080</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -14067,13 +14595,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>164203</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14120,7 +14648,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>184753</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>112053</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2409634" cy="328423"/>
@@ -14635,7 +15163,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>144058</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>156880</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -14715,13 +15243,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>144058</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>153004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14768,13 +15296,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>196494</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>151279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>153003</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14821,13 +15349,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>79460</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>162486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>164204</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14874,13 +15402,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>129093</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>106457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>134472</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>108177</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14927,13 +15455,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>184753</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>108177</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14980,7 +15508,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2409634" cy="328423"/>
@@ -15060,7 +15588,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2127505" cy="328423"/>
@@ -15140,13 +15668,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15193,13 +15721,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15246,13 +15774,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>168458</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>8824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15299,13 +15827,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>110447</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>35295</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>164213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16114,13 +16642,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>21846</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>145105</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16176,13 +16704,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>3933</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>72839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>21846</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>74552</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16229,13 +16757,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>134464</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16291,13 +16819,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>168082</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16349,13 +16877,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>67289</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>160335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>168087</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>130595</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16400,7 +16928,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="328423"/>
@@ -16455,7 +16983,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -16510,7 +17038,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>40341</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>163606</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -16565,7 +17093,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>58270</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>13447</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -16620,13 +17148,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>222857</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>126716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>141799</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16671,13 +17199,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>222857</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>126716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>58270</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>9570</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16722,13 +17250,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>222857</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>126717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>40341</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>159729</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16773,7 +17301,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -16828,7 +17356,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>35295</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -16883,13 +17411,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>22406</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16941,13 +17469,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>134472</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>33612</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16999,13 +17527,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>184017</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17052,13 +17580,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>28812</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>162486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>164213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17105,13 +17633,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>44817</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>134472</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17167,13 +17695,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>134465</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17229,13 +17757,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>13298</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>141800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>7332</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17282,7 +17810,7 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>11208</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -17362,13 +17890,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>51787</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>7332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>9571</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17415,13 +17943,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>33858</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>7332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>159729</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17468,13 +17996,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>33610</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>156884</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17530,13 +18058,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>108464</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>5605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>7332</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17583,7 +18111,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="328423"/>
@@ -18128,13 +18656,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>33611</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18190,13 +18718,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>155011</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>72839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>74566</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -19789,6 +20317,382 @@
           <a:avLst>
             <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1107</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>52576</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="224" name="テキスト ボックス 223"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362872" y="24929635"/>
+          <a:ext cx="1172116" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト違反報告</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>126618</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>59482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1107</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>48700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="235" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="116" idx="2"/>
+          <a:endCxn id="224" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2254401" y="23985376"/>
+          <a:ext cx="1670100" cy="546842"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>56024</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="円/楕円 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2622177" y="19834411"/>
+          <a:ext cx="347376" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="240" name="テキスト ボックス 239"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3585882" y="17985441"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>違反報告記録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139593</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>164211</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="241" name="カギ線コネクタ 245"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="240" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-4672231" y="9891539"/>
+          <a:ext cx="15535231" cy="980995"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="274" name="テキスト ボックス 273"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="23084118"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム新規登録申請</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7175</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>3454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>52153</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="276" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="112" idx="2"/>
+          <a:endCxn id="274" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1335150" y="21535479"/>
+          <a:ext cx="3074287" cy="351413"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="arrow"/>
@@ -21541,15 +22445,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -21557,8 +22462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView showGridLines="0" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K124" sqref="K124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>

--- a/documents/layout/画面遷移図.xlsx
+++ b/documents/layout/画面遷移図.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="75" windowWidth="19200" windowHeight="12045" activeTab="2"/>
@@ -11,6 +11,7 @@
     <sheet name="更新履歴" sheetId="4" r:id="rId2"/>
     <sheet name="画面遷移図_未ログイン" sheetId="5" r:id="rId3"/>
     <sheet name="画面遷移図_ログイン後" sheetId="2" r:id="rId4"/>
+    <sheet name="画面遷移図_管理者" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -75,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,7 +203,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -220,7 +221,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -238,7 +239,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -256,7 +257,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -274,7 +275,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -292,7 +293,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,7 +374,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1338828" cy="478593"/>
+    <xdr:ext cx="2558842" cy="478593"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
@@ -382,7 +383,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1338828" cy="478593"/>
+          <a:ext cx="2558842" cy="478593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -415,7 +416,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>画面遷移図</a:t>
+            <a:t>画面遷移図 未ログイン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3038,7 +3039,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>145675</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>108183</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3082,7 +3083,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="328423"/>
@@ -3137,7 +3138,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>124856</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>126066</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -3217,7 +3218,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>216273</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>126065</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -3297,13 +3298,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>187926</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>104304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>124857</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>122189</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3348,7 +3349,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>193857</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>114860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -3403,13 +3404,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>6055</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>108182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>193857</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>110983</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3456,7 +3457,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>196568</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240404" cy="328423"/>
@@ -3525,7 +3526,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>219504</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -3605,7 +3606,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>109425</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -3685,13 +3686,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>144419</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>81893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>219505</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>164211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3735,13 +3736,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>130876</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>109425</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>164213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3787,7 +3788,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>174681</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -3842,13 +3843,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>92267</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>85771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>174681</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>98471</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3895,7 +3896,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>100852</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -3950,7 +3951,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>17799</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -4005,13 +4006,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>69327</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>18535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>17799</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>31235</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4058,13 +4059,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>85089</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>14658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>185886</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>153006</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4109,7 +4110,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>185887</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="328423"/>
@@ -4164,7 +4165,7 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>62624</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -4219,7 +4220,7 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>58141</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>17928</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -4274,7 +4275,7 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>76070</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>35858</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -4329,13 +4330,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>16538</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>149127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>62624</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>164210</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4380,13 +4381,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>16538</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>149127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>76070</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>31981</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4431,13 +4432,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>16538</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>149128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>58141</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>14051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4482,13 +4483,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>31098</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>164207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>91319</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>164211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4541,7 +4542,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>196567</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>85771</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4591,7 +4592,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>100852</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>18534</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4737,7 +4738,7 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>91319</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>168083</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -5107,13 +5108,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>177291</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>122189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>216273</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>122190</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5849,13 +5850,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5911,7 +5912,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>168080</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -5991,13 +5992,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>164203</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6044,7 +6045,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>184753</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>112053</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2409634" cy="328423"/>
@@ -6124,7 +6125,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>144058</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>156880</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -6204,13 +6205,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>144058</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>153004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6257,13 +6258,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>196494</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>151279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>153003</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6310,13 +6311,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>79460</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>162486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>164204</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6363,13 +6364,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>129093</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>106457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>134472</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>108177</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6416,13 +6417,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>184753</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>108177</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6469,7 +6470,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2409634" cy="328423"/>
@@ -6549,7 +6550,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2127505" cy="328423"/>
@@ -6629,13 +6630,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6682,13 +6683,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6735,13 +6736,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>168458</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>8824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6788,13 +6789,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>110447</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>35295</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>164213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6841,13 +6842,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>134464</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6903,13 +6904,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>168082</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6961,7 +6962,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -7016,7 +7017,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>35295</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -7071,13 +7072,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>134472</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>33612</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7129,13 +7130,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>184017</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7182,13 +7183,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>28812</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>162486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>164213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7235,13 +7236,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>44817</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>134472</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7297,13 +7298,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>134465</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7548,13 +7549,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>56021</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7610,13 +7611,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>112060</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>1674</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7672,13 +7673,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>224111</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7893,13 +7894,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>44591</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>117662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>122189</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7946,13 +7947,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>161861</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>162486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>112060</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>164214</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7999,13 +8000,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>143755</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>162486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>164207</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8050,26 +8051,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>134462</xdr:colOff>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>100854</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>44817</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>67237</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="247" name="円/楕円 246"/>
+        <xdr:cNvPr id="248" name="円/楕円 247"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2835088" y="6656295"/>
-          <a:ext cx="347376" cy="302560"/>
+          <a:off x="2476499" y="10724029"/>
+          <a:ext cx="347375" cy="302560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8099,7 +8100,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>2</a:t>
+            <a:t>3</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
@@ -8112,77 +8113,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>134462</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>100854</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="248" name="円/楕円 247"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2476499" y="10724029"/>
-          <a:ext cx="347375" cy="302560"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>56023</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8234,13 +8173,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>33611</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>123266</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8398,10 +8337,10 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>194526</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>52574</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:ext cx="1736373" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="160" name="テキスト ボックス 159"/>
@@ -8409,8 +8348,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2659820" y="10642133"/>
-          <a:ext cx="1454244" cy="328423"/>
+          <a:off x="2659820" y="11650662"/>
+          <a:ext cx="1736373" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8442,7 +8381,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ゲーム新規登録申請</a:t>
+            <a:t>ゲーム新規登録申請一覧</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8452,15 +8391,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>140817</xdr:colOff>
+      <xdr:colOff>140818</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>160335</xdr:rowOff>
+      <xdr:rowOff>160334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>194525</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>48698</xdr:rowOff>
+      <xdr:colOff>194526</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>48697</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8472,8 +8411,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-56657" y="8089868"/>
-          <a:ext cx="4931010" cy="501943"/>
+          <a:off x="-560921" y="8594132"/>
+          <a:ext cx="5939539" cy="501943"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -8555,7 +8494,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -8610,13 +8549,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>151073</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>118312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>224116</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8661,7 +8600,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>68912</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -8716,13 +8655,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>175191</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>160335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>68912</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>164211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8767,7 +8706,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>131666</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>85165</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -8822,13 +8761,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>69586</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>31982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>131666</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>81289</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8875,13 +8814,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>51657</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>81289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>131666</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>14052</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8924,6 +8863,1035 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>35295</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2339102" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="テキスト ボックス 150"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11241177" y="4034118"/>
+          <a:ext cx="2339102" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面遷移図</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ログイン後</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>シートへ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>15928</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>164211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>35295</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="3"/>
+          <a:endCxn id="151" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10773575" y="4198329"/>
+          <a:ext cx="467602" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="818030" y="1277470"/>
+          <a:ext cx="1313180" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ここからスタート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>179301</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="テキスト ボックス 155"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3765183" y="10757647"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム修正申請一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1736373" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="テキスト ボックス 156"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4011706" y="12102353"/>
+          <a:ext cx="1736373" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム新規登録申請詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>166241</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>44820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="160" idx="2"/>
+          <a:endCxn id="157" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3626116" y="11880975"/>
+          <a:ext cx="287480" cy="483699"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="テキスト ボックス 177"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4034118" y="12606618"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム新規登録申請</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>166242</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>44819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>164211</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="179" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="160" idx="2"/>
+          <a:endCxn id="178" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3385190" y="12121901"/>
+          <a:ext cx="791745" cy="506111"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>112065</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="テキスト ボックス 182"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4818536" y="11228294"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム修正申請詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>173421</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>160335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="184" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="157" idx="2"/>
+          <a:endCxn id="188" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4920110" y="13062911"/>
+          <a:ext cx="340054" cy="420489"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1745158" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="テキスト ボックス 187"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5300382" y="13278971"/>
+          <a:ext cx="1745158" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム新規登録</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Fork</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>申請</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190506</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1463029" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="テキスト ボックス 188"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6017565" y="11777382"/>
+          <a:ext cx="1463029" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム修正</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Fork</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>申請</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9951</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>160335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>112064</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>130594</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="194" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="156" idx="2"/>
+          <a:endCxn id="183" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4502202" y="11076172"/>
+          <a:ext cx="306436" cy="326231"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>166834</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>126716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190506</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="195" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="183" idx="2"/>
+          <a:endCxn id="189" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5589173" y="11513201"/>
+          <a:ext cx="384877" cy="471907"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>105520</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>59480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>179300</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="197" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="265" idx="2"/>
+          <a:endCxn id="156" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1154603" y="8311279"/>
+          <a:ext cx="4475026" cy="746133"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>44817</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>67237</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="247" name="円/楕円 246"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2835088" y="6656295"/>
+          <a:ext cx="347376" cy="302560"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="230" name="テキスト ボックス 229"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4784911" y="12292853"/>
+          <a:ext cx="1172116" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム修正申請</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9953</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>160334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>18535</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="231" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="156" idx="2"/>
+          <a:endCxn id="230" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3953111" y="11625264"/>
+          <a:ext cx="1370995" cy="292606"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8933,13 +9901,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131228</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>3452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>74566</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8987,7 +9955,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1338828" cy="478593"/>
+    <xdr:ext cx="2558842" cy="478593"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
@@ -8996,7 +9964,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1338828" cy="478593"/>
+          <a:ext cx="2558842" cy="478593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9028,7 +9996,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>画面遷移図</a:t>
+            <a:t>画面遷移図 ログイン後</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9284,7 +10252,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>164726</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>42023</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="328423"/>
@@ -9449,7 +10417,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>143905</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -9529,7 +10497,7 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>136452</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -9749,7 +10717,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152797</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -10758,10 +11726,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127576</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>195612</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>156884</xdr:rowOff>
+      <xdr:rowOff>116062</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3570208" cy="564514"/>
     <xdr:sp macro="" textlink="">
@@ -10771,7 +11739,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="127576" y="493060"/>
+          <a:off x="2590469" y="469848"/>
           <a:ext cx="3570208" cy="564514"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11269,7 +12237,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>178769</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11313,7 +12281,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>10417</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>11208</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -11374,7 +12342,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>10417</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11418,7 +12386,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>178769</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240404" cy="328423"/>
@@ -11821,7 +12789,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -11876,7 +12844,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -11956,7 +12924,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>91626</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>145679</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -12036,13 +13004,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>126619</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>59482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>141800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12086,13 +13054,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>113077</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>141801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>91626</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>141802</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12138,7 +13106,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9887</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>156881</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1281121" cy="328423"/>
@@ -12218,13 +13186,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>126619</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>59482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9888</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>153004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12274,7 +13242,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>164726</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>38145</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12318,7 +13286,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>140610</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1422184" cy="328423"/>
@@ -12398,13 +13366,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>196341</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>40948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>52154</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12450,7 +13418,7 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -12530,13 +13498,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>218088</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>18535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>136452</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>18536</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12583,13 +13551,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>206975</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>34269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152797</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12634,13 +13602,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>206975</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>34268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>140610</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>18535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12685,13 +13653,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>206975</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>34269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>143905</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>52154</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12736,7 +13704,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>102532</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1422184" cy="328423"/>
@@ -12816,13 +13784,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>63260</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>102532</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12868,7 +13836,7 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>52833</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -12923,13 +13891,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>180010</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>52833</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12976,7 +13944,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>86352</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2018501" cy="328423"/>
@@ -13031,7 +13999,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>56021</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240404" cy="328423"/>
@@ -13205,7 +14173,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -13260,13 +14228,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>74467</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>63360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>76060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13313,7 +14281,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -13368,13 +14336,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>25104</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>38146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>40947</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13421,7 +14389,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>93469</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>78428</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031052" cy="328423"/>
@@ -13476,13 +14444,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7174</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>3454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13527,13 +14495,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131229</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>3451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>93469</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>74551</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13578,13 +14546,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131229</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>3452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>52145</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13629,13 +14597,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131229</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>3452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>86352</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13680,7 +14648,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>138969</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
@@ -13735,13 +14703,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>170420</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>153005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>138969</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13788,7 +14756,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>83053</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -13843,7 +14811,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -13898,13 +14866,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>51527</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>8824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13957,7 +14925,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>83053</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14001,13 +14969,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>156876</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14063,13 +15031,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>91324</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>214582</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14125,13 +15093,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>87794</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>5604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>91324</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14278,77 +15246,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>89641</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="158" name="円/楕円 157"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3328147" y="12797118"/>
-          <a:ext cx="347376" cy="302559"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>224115</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>113731</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14400,13 +15306,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>198256</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>50426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>214590</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>52145</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14453,13 +15359,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14515,7 +15421,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>168080</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -14595,13 +15501,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>164203</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14648,7 +15554,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>184753</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>112053</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2409634" cy="328423"/>
@@ -15163,7 +16069,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>144058</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>156880</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -15243,13 +16149,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>144058</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>153004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15296,13 +16202,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>196494</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>151279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>153003</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15349,13 +16255,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>79460</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>162486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>164204</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15402,13 +16308,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>129093</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>106457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>134472</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>108177</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15455,13 +16361,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>184753</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>108177</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15508,7 +16414,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2409634" cy="328423"/>
@@ -15588,7 +16494,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2127505" cy="328423"/>
@@ -15668,13 +16574,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15721,13 +16627,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15774,13 +16680,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>168458</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>8824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15827,13 +16733,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>110447</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>35295</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>164213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16642,13 +17548,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>21846</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>145105</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16704,13 +17610,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>3933</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>72839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>21846</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>74552</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16757,13 +17663,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>134464</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16819,13 +17725,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>168082</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16877,13 +17783,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>67289</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>160335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>168087</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>130595</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16928,7 +17834,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="328423"/>
@@ -16983,7 +17889,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -17038,7 +17944,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>40341</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>163606</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -17093,7 +17999,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>58270</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>13447</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -17148,13 +18054,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>222857</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>126716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>141799</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17199,13 +18105,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>222857</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>126716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>58270</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>9570</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17250,13 +18156,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>222857</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>126717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>40341</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>159729</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17301,7 +18207,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -17356,7 +18262,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>35295</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -17411,13 +18317,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>22406</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17469,13 +18375,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>134472</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>33612</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17527,13 +18433,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>184017</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17580,13 +18486,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>28812</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>162486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>164213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17633,13 +18539,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>44817</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>134472</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17695,13 +18601,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>134465</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17757,13 +18663,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>13298</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>141800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>7332</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17810,7 +18716,7 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>11208</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -17890,13 +18796,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>51787</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>7332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>9571</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17943,13 +18849,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>33858</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>7332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>159729</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17996,13 +18902,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>33610</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>156884</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18058,13 +18964,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>108464</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>5605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>7332</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18111,7 +19017,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="328423"/>
@@ -18656,13 +19562,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>33611</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18718,13 +19624,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>155011</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>72839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>74566</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -20344,7 +21250,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1107</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>52576</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
@@ -20399,13 +21305,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>126618</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>59482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1107</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>48700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -20450,13 +21356,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>56024</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20610,23 +21516,74 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19982</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>162738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>41748</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="276" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="112" idx="2"/>
+          <a:endCxn id="290" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1227093" y="21380198"/>
+          <a:ext cx="3239974" cy="429053"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1454244" cy="328423"/>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="607859" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="274" name="テキスト ボックス 273"/>
+        <xdr:cNvPr id="236" name="テキスト ボックス 235"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048000" y="23084118"/>
-          <a:ext cx="1454244" cy="328423"/>
+          <a:off x="2068287" y="33963429"/>
+          <a:ext cx="607859" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20658,7 +21615,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ゲーム新規登録申請</a:t>
+            <a:t>管理用</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20667,29 +21624,29 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>7175</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>3454</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>144035</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>86696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>52153</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="276" name="カギ線コネクタ 222"/>
+        <xdr:cNvPr id="252" name="カギ線コネクタ 245"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="112" idx="2"/>
-          <a:endCxn id="274" idx="1"/>
+          <a:stCxn id="105" idx="2"/>
+          <a:endCxn id="236" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1335150" y="21535479"/>
-          <a:ext cx="3074287" cy="351413"/>
+          <a:off x="-14376704" y="17682650"/>
+          <a:ext cx="32272016" cy="617965"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -20716,6 +21673,1999 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>63575</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>68038</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>20</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="277" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="236" idx="3"/>
+          <a:endCxn id="278" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676146" y="34127641"/>
+          <a:ext cx="439892" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>68038</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2056973" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="278" name="テキスト ボックス 277"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3116038" y="33963429"/>
+          <a:ext cx="2056973" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面遷移図</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>管理者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>シートへ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="281" name="テキスト ボックス 280"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="830035" y="1129393"/>
+          <a:ext cx="1313180" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ここからスタート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1736373" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="290" name="テキスト ボックス 289"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3061607" y="23050500"/>
+          <a:ext cx="1736373" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム新規登録申請一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>59207</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>152334</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1736373" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="291" name="テキスト ボックス 290"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4413493" y="23502191"/>
+          <a:ext cx="1736373" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム新規登録申請詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>10936</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>29066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>59206</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>139653</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="292" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="290" idx="2"/>
+          <a:endCxn id="291" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4027903" y="23280813"/>
+          <a:ext cx="287480" cy="483699"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>81619</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>99506</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="293" name="テキスト ボックス 292"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4435905" y="24510720"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム新規登録申請</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>10937</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>29065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>81619</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>86824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="294" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="290" idx="2"/>
+          <a:endCxn id="293" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3534845" y="23773871"/>
+          <a:ext cx="1296009" cy="506111"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>56536</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>126971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>41597</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>113239</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="295" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="291" idx="2"/>
+          <a:endCxn id="296" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5321897" y="23790396"/>
+          <a:ext cx="340054" cy="420489"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>41598</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>125920</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1745158" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="296" name="テキスト ボックス 295"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5702169" y="24006456"/>
+          <a:ext cx="1745158" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム新規登録</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Fork</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>申請</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="297" name="テキスト ボックス 296"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3782786" y="22900822"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム修正申請一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114461</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>116862</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="298" name="テキスト ボックス 297"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4904175" y="23466719"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム修正申請詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>102454</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>121664</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1463029" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="299" name="テキスト ボックス 298"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5980740" y="24002200"/>
+          <a:ext cx="1463029" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム修正</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Fork</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>申請</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>155621</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>56281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114460</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>104181</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="300" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="297" idx="2"/>
+          <a:endCxn id="298" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4506198" y="23232954"/>
+          <a:ext cx="401686" cy="394267"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>188439</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>91499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>102453</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>108983</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="302" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="298" idx="2"/>
+          <a:endCxn id="299" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5620383" y="23806055"/>
+          <a:ext cx="371270" cy="349443"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>122466</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="303" name="テキスト ボックス 302"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4912180" y="24520072"/>
+          <a:ext cx="1172116" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム修正申請</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>155623</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>56280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>122467</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>96176</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="305" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="297" idx="2"/>
+          <a:endCxn id="303" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3983525" y="23755628"/>
+          <a:ext cx="1455039" cy="402272"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>144037</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>162735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>68962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="306" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="187" idx="2"/>
+          <a:endCxn id="297" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2316459" y="21598706"/>
+          <a:ext cx="2559619" cy="373035"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>89641</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="円/楕円 157"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3328147" y="12797118"/>
+          <a:ext cx="347376" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1338828" cy="478593"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1338828" cy="478593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面遷移図</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127576</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>156884</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3570208" cy="564514"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127576" y="499784"/>
+          <a:ext cx="3570208" cy="564514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ログイン後は全ての画面でマイページへ遷移できる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　なのでマイページへの線は省略</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>136073</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="607859" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="210" name="テキスト ボックス 209"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="925286" y="2081894"/>
+          <a:ext cx="607859" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>管理用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="テキスト ボックス 212"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="639536" y="1564821"/>
+          <a:ext cx="1313180" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ここからスタート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="214" name="テキスト ボックス 213"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1306286" y="2653393"/>
+          <a:ext cx="748923" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>違反報告</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="テキスト ボックス 214"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428751" y="8858249"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ユーザー管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="216" name="テキスト ボックス 215"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1959429" y="3184071"/>
+          <a:ext cx="748923" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>違反報告</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="217" name="テキスト ボックス 216"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1959429" y="3714750"/>
+          <a:ext cx="748923" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>違反報告</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="218" name="テキスト ボックス 217"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1959429" y="4245429"/>
+          <a:ext cx="748923" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>違反報告</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="219" name="テキスト ボックス 218"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1959429" y="4776107"/>
+          <a:ext cx="748923" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>違反報告</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="220" name="テキスト ボックス 219"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1319894" y="2694214"/>
+          <a:ext cx="748923" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>マスター</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="221" name="テキスト ボックス 220"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1741714" y="3184071"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>会社マスター</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1877437" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="222" name="テキスト ボックス 221"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1741714" y="3714750"/>
+          <a:ext cx="1877437" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プラットフォームマスター</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1595309" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="223" name="テキスト ボックス 222"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1741714" y="4245429"/>
+          <a:ext cx="1595309" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲームソフトマスター</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1877437" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="224" name="テキスト ボックス 223"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2585357" y="5089071"/>
+          <a:ext cx="1877437" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲームソフト登録申請一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1877437" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="225" name="テキスト ボックス 224"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2585357" y="6041571"/>
+          <a:ext cx="1877437" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲームソフト修正申請一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20733,7 +23683,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -20807,6 +23757,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -20841,6 +23792,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -21016,19 +23968,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:AC11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:29" ht="33.75" thickBot="1">
+    <row r="7" spans="1:29" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -21061,8 +24013,8 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="1:29" ht="19.5" thickTop="1"/>
-    <row r="10" spans="1:29">
+    <row r="8" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="P10" s="11" t="s">
         <v>0</v>
       </c>
@@ -21077,7 +24029,7 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="P11" s="11" t="s">
         <v>1</v>
       </c>
@@ -21107,14 +24059,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F171"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -21124,7 +24076,7 @@
     <col min="7" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -21140,7 +24092,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -21152,7 +24104,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -21160,7 +24112,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -21168,7 +24120,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -21176,7 +24128,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -21184,7 +24136,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -21192,7 +24144,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -21200,7 +24152,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -21208,7 +24160,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -21216,7 +24168,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -21224,7 +24176,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -21232,7 +24184,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -21240,7 +24192,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -21248,7 +24200,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -21256,7 +24208,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -21264,7 +24216,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -21272,7 +24224,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -21280,7 +24232,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -21288,7 +24240,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -21296,7 +24248,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -21304,7 +24256,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -21312,7 +24264,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -21320,7 +24272,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -21328,7 +24280,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -21336,7 +24288,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -21344,7 +24296,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -21352,7 +24304,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -21360,7 +24312,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -21368,7 +24320,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -21376,7 +24328,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -21384,7 +24336,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -21392,7 +24344,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -21400,7 +24352,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -21408,7 +24360,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -21416,7 +24368,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -21424,7 +24376,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -21432,7 +24384,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -21440,7 +24392,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -21448,7 +24400,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -21456,7 +24408,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -21464,7 +24416,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -21472,7 +24424,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -21480,7 +24432,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -21488,7 +24440,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -21496,7 +24448,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -21504,7 +24456,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -21512,7 +24464,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -21520,7 +24472,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -21528,7 +24480,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -21536,7 +24488,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -21544,7 +24496,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -21552,7 +24504,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -21560,7 +24512,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -21568,7 +24520,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -21576,7 +24528,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -21584,7 +24536,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -21592,7 +24544,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -21600,7 +24552,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -21608,7 +24560,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -21616,7 +24568,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -21624,7 +24576,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -21632,7 +24584,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -21640,7 +24592,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -21648,7 +24600,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -21656,7 +24608,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -21664,7 +24616,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -21672,7 +24624,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -21680,7 +24632,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -21688,7 +24640,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -21696,7 +24648,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -21704,7 +24656,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -21712,7 +24664,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -21720,7 +24672,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -21728,7 +24680,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -21736,7 +24688,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -21744,7 +24696,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -21752,7 +24704,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -21760,7 +24712,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -21768,7 +24720,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -21776,7 +24728,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -21784,7 +24736,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -21792,7 +24744,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -21800,7 +24752,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -21808,7 +24760,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -21816,7 +24768,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -21824,7 +24776,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -21832,7 +24784,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -21840,7 +24792,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -21848,7 +24800,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -21856,7 +24808,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -21864,7 +24816,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -21872,7 +24824,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -21880,7 +24832,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -21888,7 +24840,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -21896,7 +24848,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -21904,7 +24856,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -21912,7 +24864,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -21920,7 +24872,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -21928,7 +24880,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -21936,7 +24888,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -21944,7 +24896,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -21952,7 +24904,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -21960,7 +24912,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -21968,7 +24920,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -21976,7 +24928,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -21984,7 +24936,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -21992,7 +24944,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -22000,7 +24952,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -22008,7 +24960,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -22016,7 +24968,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -22024,7 +24976,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -22032,7 +24984,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -22040,7 +24992,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -22048,7 +25000,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -22056,7 +25008,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -22064,7 +25016,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -22072,7 +25024,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -22080,7 +25032,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -22088,7 +25040,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -22096,7 +25048,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -22104,7 +25056,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -22112,7 +25064,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -22120,7 +25072,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -22128,7 +25080,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -22136,7 +25088,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -22144,7 +25096,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -22152,7 +25104,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -22160,7 +25112,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -22168,7 +25120,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -22176,7 +25128,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -22184,7 +25136,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -22192,7 +25144,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -22200,7 +25152,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -22208,7 +25160,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -22216,7 +25168,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -22224,7 +25176,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -22232,7 +25184,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -22240,7 +25192,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -22248,7 +25200,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -22256,7 +25208,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -22264,7 +25216,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -22272,7 +25224,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -22280,7 +25232,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -22288,7 +25240,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -22296,7 +25248,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -22304,7 +25256,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -22312,7 +25264,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -22320,7 +25272,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -22328,7 +25280,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -22336,7 +25288,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -22344,7 +25296,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -22352,7 +25304,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -22360,7 +25312,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -22368,7 +25320,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -22376,7 +25328,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -22384,7 +25336,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -22392,7 +25344,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -22400,34 +25352,34 @@
       <c r="E161" s="4"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E171" s="2"/>
     </row>
   </sheetData>
@@ -22442,14 +25394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI20" sqref="AI20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22459,14 +25411,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K124" sqref="K124"/>
+    <sheetView showGridLines="0" topLeftCell="A135" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M153" sqref="M153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/layout/画面遷移図.xlsx
+++ b/documents/layout/画面遷移図.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="19200" windowHeight="12045" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="19200" windowHeight="12045" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -1180,7 +1180,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>15930</xdr:colOff>
+      <xdr:colOff>11854</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
@@ -1188,7 +1188,7 @@
       <xdr:col>33</xdr:col>
       <xdr:colOff>212913</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>7330</xdr:rowOff>
+      <xdr:rowOff>2237</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1200,8 +1200,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6739459" y="4198330"/>
-          <a:ext cx="869336" cy="11206"/>
+          <a:off x="6765945" y="4320576"/>
+          <a:ext cx="876468" cy="11206"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1236,7 +1236,7 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:ext cx="1313180" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="69" name="テキスト ボックス 68"/>
@@ -1244,8 +1244,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7608795" y="1512794"/>
-          <a:ext cx="748923" cy="328423"/>
+          <a:off x="7642413" y="4156364"/>
+          <a:ext cx="1313180" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1277,7 +1277,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>登録完了</a:t>
+            <a:t>ユーザー登録完了</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2044,10 +2044,10 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>65365</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>175275</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>164211</xdr:rowOff>
+      <xdr:rowOff>159118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
@@ -2065,8 +2065,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8357718" y="3525976"/>
-          <a:ext cx="1525870" cy="1"/>
+          <a:off x="8955593" y="4315482"/>
+          <a:ext cx="972819" cy="5094"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2259,7 +2259,7 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1172116" cy="328423"/>
+    <xdr:ext cx="1595309" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="168" name="テキスト ボックス 167"/>
@@ -2267,8 +2267,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7778864" y="1669676"/>
-          <a:ext cx="1172116" cy="328423"/>
+          <a:off x="7813500" y="1715518"/>
+          <a:ext cx="1595309" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2300,7 +2300,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>パスワード入力</a:t>
+            <a:t>パスワード再設定入力</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2310,15 +2310,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>202484</xdr:colOff>
+      <xdr:colOff>195353</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>153006</xdr:rowOff>
+      <xdr:rowOff>147912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>210392</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>178218</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>108184</xdr:rowOff>
+      <xdr:rowOff>103091</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2330,12 +2330,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8718955" y="1833888"/>
-          <a:ext cx="232025" cy="627531"/>
+          <a:off x="8750535" y="1879730"/>
+          <a:ext cx="658274" cy="647906"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 198524"/>
+            <a:gd name="adj1" fmla="val 134727"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2417,15 +2417,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>8687</xdr:colOff>
+      <xdr:colOff>538</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>153004</xdr:rowOff>
+      <xdr:rowOff>147910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>158864</xdr:colOff>
+      <xdr:colOff>158865</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>153006</xdr:rowOff>
+      <xdr:rowOff>147912</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2437,8 +2437,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="7180452" y="1833886"/>
-          <a:ext cx="598412" cy="2"/>
+          <a:off x="7204902" y="1879728"/>
+          <a:ext cx="608599" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3039,7 +3039,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>145675</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>108183</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3083,7 +3083,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="328423"/>
@@ -3138,7 +3138,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>124856</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>126066</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -3218,7 +3218,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>216273</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>126065</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -3298,13 +3298,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>187926</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>104304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>124857</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>122189</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3349,7 +3349,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>193857</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>114860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -3404,13 +3404,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>6055</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>108182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>193857</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>110983</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3457,7 +3457,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>196568</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240404" cy="328423"/>
@@ -3526,7 +3526,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>219504</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -3606,7 +3606,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>109425</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -3686,13 +3686,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>144419</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>81893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>219505</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>164211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3736,13 +3736,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>130876</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>109425</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>164213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3788,7 +3788,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>174681</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -3843,13 +3843,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>92267</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>85771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>174681</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>98471</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3896,7 +3896,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>100852</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -3951,7 +3951,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>17799</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -4006,13 +4006,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>69327</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>18535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>17799</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>31235</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4059,13 +4059,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>85089</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>14658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>185886</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>153006</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4110,7 +4110,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>185887</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="328423"/>
@@ -4165,7 +4165,7 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>62624</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -4220,7 +4220,7 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>58141</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>17928</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -4275,7 +4275,7 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>76070</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>35858</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -4330,13 +4330,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>16538</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>149127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>62624</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>164210</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4381,13 +4381,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>16538</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>149127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>76070</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>31981</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4432,13 +4432,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>16538</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>149128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>58141</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>14051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4483,13 +4483,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>31098</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>164207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>91319</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>164211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4542,7 +4542,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>196567</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>85771</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4592,7 +4592,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>100852</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>18534</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4738,7 +4738,7 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>91319</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>168083</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -5108,13 +5108,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>177291</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>122189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>216273</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>122190</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5850,13 +5850,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5912,7 +5912,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>168080</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -5992,13 +5992,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>164203</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6045,7 +6045,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>184753</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>112053</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2409634" cy="328423"/>
@@ -6125,7 +6125,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>144058</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>156880</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -6205,13 +6205,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>144058</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>153004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6258,13 +6258,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>196494</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>151279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>153003</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6311,13 +6311,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>79460</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>162486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>164204</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6364,13 +6364,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>129093</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>106457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>134472</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>108177</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6417,13 +6417,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>184753</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>108177</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6470,7 +6470,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2409634" cy="328423"/>
@@ -6550,7 +6550,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2127505" cy="328423"/>
@@ -6630,13 +6630,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6683,13 +6683,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6736,13 +6736,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>168458</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>8824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6789,13 +6789,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>110447</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>35295</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>164213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6842,13 +6842,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>134464</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6904,13 +6904,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>168082</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6962,7 +6962,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -7017,7 +7017,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>35295</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -7072,13 +7072,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>134472</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>33612</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7130,13 +7130,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>184017</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7183,13 +7183,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>28812</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>162486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>164213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7236,13 +7236,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>44817</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>134472</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7298,13 +7298,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>134465</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7549,13 +7549,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>56021</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7611,13 +7611,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>112060</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>1674</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7673,13 +7673,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>224111</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7894,13 +7894,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>44591</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>117662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>122189</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7947,13 +7947,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>161861</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>162486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>112060</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>164214</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8000,13 +8000,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>143755</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>162486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>164207</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8053,13 +8053,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>134462</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>100854</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8115,13 +8115,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>56023</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8173,13 +8173,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>33611</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>123266</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8494,7 +8494,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -8549,13 +8549,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>151073</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>118312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>224116</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8600,10 +8600,10 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>68912</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1313180" cy="328423"/>
+    <xdr:ext cx="1172116" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="186" name="テキスト ボックス 185"/>
@@ -8611,8 +8611,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4103030" y="14791765"/>
-          <a:ext cx="1313180" cy="328423"/>
+          <a:off x="4121367" y="18530455"/>
+          <a:ext cx="1172116" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8644,7 +8644,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>不正レビュー申告</a:t>
+            <a:t>不正サイト申告</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8654,15 +8654,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>175191</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>160335</xdr:rowOff>
+      <xdr:colOff>171115</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>155242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>68912</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>164211</xdr:rowOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8674,8 +8674,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3762025" y="14614971"/>
-          <a:ext cx="340053" cy="341957"/>
+          <a:off x="3769665" y="18342965"/>
+          <a:ext cx="355334" cy="348070"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -8706,7 +8706,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>131666</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>85165</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -8761,13 +8761,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>69586</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>31982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>131666</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>81289</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8814,13 +8814,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>51657</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>81289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>131666</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>14052</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9385,15 +9385,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>173421</xdr:colOff>
+      <xdr:colOff>169347</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>160335</xdr:rowOff>
+      <xdr:rowOff>155240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>145675</xdr:colOff>
+      <xdr:colOff>145676</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>164212</xdr:rowOff>
+      <xdr:rowOff>164211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9405,8 +9405,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4920110" y="13062911"/>
-          <a:ext cx="340054" cy="420489"/>
+          <a:off x="4932844" y="14320516"/>
+          <a:ext cx="355335" cy="426601"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -9440,7 +9440,7 @@
       <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1745158" cy="328423"/>
+    <xdr:ext cx="1454244" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="188" name="テキスト ボックス 187"/>
@@ -9448,8 +9448,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5300382" y="13278971"/>
-          <a:ext cx="1745158" cy="328423"/>
+          <a:off x="5323812" y="14547273"/>
+          <a:ext cx="1454244" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9481,21 +9481,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ゲーム新規登録</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Fork</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>申請</a:t>
+            <a:t>ゲーム新規登録追記</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20522,12 +20508,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>42192</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>128782</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>44825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1454244" cy="328423"/>
+      <xdr:rowOff>27507</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="279" name="テキスト ボックス 278"/>
@@ -20535,8 +20521,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9455133" y="17694090"/>
-          <a:ext cx="1454244" cy="328423"/>
+          <a:off x="10034782" y="17692052"/>
+          <a:ext cx="1172116" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20568,7 +20554,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>パスワード設定完了</a:t>
+            <a:t>メール認証完了</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20582,7 +20568,7 @@
       <xdr:row>102</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1172116" cy="328423"/>
+    <xdr:ext cx="1877437" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="280" name="テキスト ボックス 279"/>
@@ -20590,8 +20576,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7733736" y="17682882"/>
-          <a:ext cx="1172116" cy="328423"/>
+          <a:off x="7768372" y="17698162"/>
+          <a:ext cx="1877437" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20623,7 +20609,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>パスワード入力</a:t>
+            <a:t>メール認証パスワード入力</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20633,15 +20619,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>129016</xdr:colOff>
+      <xdr:colOff>121885</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>29741</xdr:rowOff>
+      <xdr:rowOff>24647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>113736</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>29744</xdr:rowOff>
+      <xdr:rowOff>24650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20653,8 +20639,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7300781" y="17847094"/>
-          <a:ext cx="432955" cy="3"/>
+          <a:off x="7326249" y="17862374"/>
+          <a:ext cx="442123" cy="3"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -20684,16 +20670,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>165264</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>190082</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>29741</xdr:rowOff>
+      <xdr:rowOff>18537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>42192</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>128782</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>40949</xdr:rowOff>
+      <xdr:rowOff>24647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20704,9 +20690,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8905852" y="17847094"/>
-          <a:ext cx="549281" cy="11208"/>
+        <a:xfrm flipV="1">
+          <a:off x="9645809" y="17856264"/>
+          <a:ext cx="388973" cy="6110"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -20737,15 +20723,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>134580</xdr:colOff>
+      <xdr:colOff>130506</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>29740</xdr:rowOff>
+      <xdr:rowOff>24646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>96961</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>39431</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>44825</xdr:rowOff>
+      <xdr:rowOff>27507</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20757,8 +20743,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="7560140" y="15071974"/>
-          <a:ext cx="351262" cy="4892969"/>
+          <a:off x="7790129" y="14861341"/>
+          <a:ext cx="349224" cy="5312198"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -20854,7 +20840,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7507961" y="16147676"/>
+          <a:off x="7541579" y="16117114"/>
           <a:ext cx="1172116" cy="564514"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20914,7 +20900,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>新規登録</a:t>
+            <a:t>追加登録</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -20988,15 +20974,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>199855</xdr:colOff>
+      <xdr:colOff>196799</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>125374</xdr:rowOff>
+      <xdr:rowOff>120280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>112079</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>141800</xdr:rowOff>
+      <xdr:rowOff>136706</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -21008,8 +20994,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6923384" y="16429933"/>
-          <a:ext cx="584577" cy="16426"/>
+          <a:off x="6950890" y="16399371"/>
+          <a:ext cx="590689" cy="16426"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -21040,15 +21026,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>134580</xdr:colOff>
+      <xdr:colOff>130506</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>71456</xdr:rowOff>
+      <xdr:rowOff>56174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>25784</xdr:colOff>
+      <xdr:colOff>22728</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>29741</xdr:rowOff>
+      <xdr:rowOff>24647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -21060,8 +21046,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6376334" y="15625143"/>
-          <a:ext cx="630638" cy="2804733"/>
+          <a:off x="6387540" y="15602731"/>
+          <a:ext cx="661200" cy="2818995"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -25397,8 +25383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J92" sqref="J92"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25414,8 +25400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A135" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M153" sqref="M153"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AH115" sqref="AH115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/documents/layout/画面遷移図.xlsx
+++ b/documents/layout/画面遷移図.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="75" windowWidth="19200" windowHeight="12045" activeTab="3"/>
@@ -76,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,7 +203,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -221,7 +221,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -239,7 +239,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -257,7 +257,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -275,7 +275,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -293,7 +293,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -9887,13 +9887,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131228</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>3452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>74566</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10157,7 +10157,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>76768</xdr:colOff>
+      <xdr:colOff>63161</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>20732</xdr:rowOff>
     </xdr:from>
@@ -10169,7 +10169,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5231474" y="3046320"/>
+          <a:off x="5070590" y="3204803"/>
           <a:ext cx="1845377" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10238,7 +10238,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>164726</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>42023</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="328423"/>
@@ -10293,7 +10293,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>67244</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1595309" cy="328423"/>
@@ -10348,7 +10348,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>67243</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1595309" cy="328423"/>
@@ -10403,7 +10403,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>143905</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -10483,7 +10483,7 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>136452</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -10596,7 +10596,7 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1172116" cy="328423"/>
+    <xdr:ext cx="889987" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
@@ -10604,8 +10604,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4549603" y="4908176"/>
-          <a:ext cx="1172116" cy="328423"/>
+          <a:off x="4421536" y="5163510"/>
+          <a:ext cx="889987" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10637,7 +10637,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>サイト情報詳細</a:t>
+            <a:t>サイト詳細</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10646,21 +10646,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>44833</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>67233</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1172116" cy="328423"/>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152797</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4527186" y="5446057"/>
-          <a:ext cx="1172116" cy="328423"/>
+          <a:off x="3514562" y="12337676"/>
+          <a:ext cx="1031051" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10692,7 +10692,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>サイト情報修正</a:t>
+            <a:t>レビュー投稿</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10701,21 +10701,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152797</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1031051" cy="328423"/>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>67248</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3514562" y="12337676"/>
-          <a:ext cx="1031051" cy="328423"/>
+          <a:off x="4549601" y="4359088"/>
+          <a:ext cx="1172116" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10747,7 +10747,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>レビュー投稿</a:t>
+            <a:t>サイト新規登録</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10756,21 +10756,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>67248</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1172116" cy="328423"/>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>147293</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>36018</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="テキスト ボックス 36"/>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4549601" y="4359088"/>
-          <a:ext cx="1172116" cy="328423"/>
+          <a:off x="5807864" y="5165911"/>
+          <a:ext cx="889987" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10802,62 +10802,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>サイト新規登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>11218</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1172116" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="テキスト ボックス 37"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6286512" y="4896970"/>
-          <a:ext cx="1172116" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>サイト情報修正</a:t>
+            <a:t>サイト編集</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10917,15 +10862,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>142434</xdr:colOff>
+      <xdr:colOff>168047</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>39266</xdr:rowOff>
+      <xdr:rowOff>30461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>76768</xdr:colOff>
+      <xdr:colOff>63161</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>16856</xdr:rowOff>
+      <xdr:rowOff>8051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10937,8 +10882,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4400669" y="2896766"/>
-          <a:ext cx="830805" cy="313766"/>
+          <a:off x="4304618" y="3037640"/>
+          <a:ext cx="765972" cy="331375"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10969,15 +10914,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>49856</xdr:colOff>
+      <xdr:colOff>88276</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>16856</xdr:rowOff>
+      <xdr:rowOff>8051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>76768</xdr:colOff>
+      <xdr:colOff>63161</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>127232</xdr:rowOff>
+      <xdr:rowOff>118428</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10989,8 +10934,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4532209" y="3210532"/>
-          <a:ext cx="699265" cy="278465"/>
+          <a:off x="4442562" y="3369015"/>
+          <a:ext cx="628028" cy="287270"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -11128,7 +11073,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>67245</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>18535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11178,7 +11123,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>67243</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>7328</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11221,15 +11166,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>192547</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>14658</xdr:rowOff>
+      <xdr:colOff>211757</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>173942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>18672</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>29741</xdr:rowOff>
+      <xdr:colOff>73100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>20936</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11241,8 +11186,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4188215" y="6440461"/>
-          <a:ext cx="351259" cy="274360"/>
+          <a:off x="4090163" y="7643893"/>
+          <a:ext cx="377673" cy="296772"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -11271,8 +11216,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>18671</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>73099</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -11283,7 +11228,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4501024" y="7429500"/>
+          <a:off x="4427385" y="7816904"/>
           <a:ext cx="1704313" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11351,8 +11296,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>110298</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>123905</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -11363,7 +11308,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7057945" y="7429499"/>
+          <a:off x="6873048" y="7816903"/>
           <a:ext cx="1845377" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11430,16 +11375,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>154161</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>29740</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>35698</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>20936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>110298</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>29741</xdr:rowOff>
+      <xdr:colOff>123905</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>20937</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11451,8 +11396,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6205337" y="7593711"/>
-          <a:ext cx="852608" cy="1"/>
+          <a:off x="6131698" y="7981115"/>
+          <a:ext cx="741350" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -11483,14 +11428,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>123271</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:colOff>109664</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>11204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:colOff>8804</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>145674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11500,8 +11445,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6174447" y="7575175"/>
-          <a:ext cx="347376" cy="302558"/>
+          <a:off x="5987950" y="8855847"/>
+          <a:ext cx="334568" cy="311363"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -11854,16 +11799,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>118778</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>86380</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>18535</xdr:rowOff>
+      <xdr:rowOff>20936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>11218</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>147293</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>29741</xdr:rowOff>
+      <xdr:rowOff>23337</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11874,9 +11819,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5721719" y="5061182"/>
-          <a:ext cx="564793" cy="11206"/>
+        <a:xfrm>
+          <a:off x="5311523" y="5327722"/>
+          <a:ext cx="496341" cy="2401"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -11959,15 +11904,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>14565</xdr:colOff>
+      <xdr:colOff>27371</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>126716</xdr:rowOff>
+      <xdr:rowOff>109107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>67249</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>29741</xdr:rowOff>
+      <xdr:rowOff>20936</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11979,8 +11924,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3731307" y="4254092"/>
-          <a:ext cx="911554" cy="725037"/>
+          <a:off x="3588432" y="4494618"/>
+          <a:ext cx="973186" cy="693021"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -12009,66 +11954,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>14567</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>126715</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>44834</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>63356</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="246" name="カギ線コネクタ 245"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="32" idx="2"/>
-          <a:endCxn id="34" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3451159" y="4534241"/>
-          <a:ext cx="1449435" cy="702620"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>93730</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>18536</xdr:rowOff>
+      <xdr:colOff>138553</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9732</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>136516</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>175737</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12081,8 +11975,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5024318" y="6237801"/>
-          <a:ext cx="2956316" cy="351257"/>
+          <a:off x="4928267" y="7439232"/>
+          <a:ext cx="2867470" cy="377671"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -12112,7 +12006,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>191967</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>145672</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2018501" cy="328423"/>
@@ -12165,16 +12059,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>193409</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>25863</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>33325</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>8255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>136516</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>141796</xdr:rowOff>
+      <xdr:colOff>175737</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>132992</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12186,8 +12080,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6692821" y="6917481"/>
-          <a:ext cx="1287813" cy="1292550"/>
+          <a:off x="6564754" y="8145326"/>
+          <a:ext cx="1230983" cy="1362987"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -12223,7 +12117,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>178769</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12267,7 +12161,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>10417</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>11208</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -12328,7 +12222,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>10417</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12372,7 +12266,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>178769</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240404" cy="328423"/>
@@ -12720,7 +12614,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>194249</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -12775,7 +12669,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -12830,7 +12724,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -12910,7 +12804,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>91626</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>145679</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -12990,13 +12884,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>126619</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>59482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>141800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13040,13 +12934,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>113077</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>141801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>91626</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>141802</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13092,7 +12986,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9887</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>156881</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1281121" cy="328423"/>
@@ -13172,13 +13066,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>126619</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>59482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9888</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>153004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13228,7 +13122,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>164726</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>38145</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13272,7 +13166,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>140610</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1422184" cy="328423"/>
@@ -13352,13 +13246,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>196341</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>40948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>52154</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13404,7 +13298,7 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -13484,13 +13378,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>218088</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>18535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>136452</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>18536</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13537,13 +13431,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>206975</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>34269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152797</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13588,13 +13482,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>206975</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>34268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>140610</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>18535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13639,13 +13533,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>206975</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>34269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>143905</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>52154</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13690,10 +13584,10 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>102532</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1422184" cy="328423"/>
+    <xdr:ext cx="1031051" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="262" name="テキスト ボックス 261"/>
@@ -13701,8 +13595,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5033120" y="12337677"/>
-          <a:ext cx="1422184" cy="328423"/>
+          <a:off x="4892246" y="28723879"/>
+          <a:ext cx="1031051" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13736,31 +13630,6 @@
             </a:rPr>
             <a:t>レビュー詳細</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>自分</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13769,15 +13638,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>63260</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>63359</xdr:rowOff>
+      <xdr:colOff>95276</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>54554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>102532</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>54555</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13789,8 +13658,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4545613" y="12501888"/>
-          <a:ext cx="487507" cy="1"/>
+          <a:off x="4449562" y="28888090"/>
+          <a:ext cx="442684" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -13822,7 +13691,7 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>52833</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -13875,16 +13744,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>180010</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>63359</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>45011</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>54554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>52833</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>54555</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13896,8 +13765,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6455304" y="12501888"/>
-          <a:ext cx="545176" cy="1"/>
+          <a:off x="5923297" y="28888090"/>
+          <a:ext cx="878679" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -13930,7 +13799,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>86352</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2018501" cy="328423"/>
@@ -13985,7 +13854,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>56021</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240404" cy="328423"/>
@@ -14054,7 +13923,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>77347</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1649811" cy="328423"/>
@@ -14065,7 +13934,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3439112" y="8583706"/>
+          <a:off x="3343061" y="9917206"/>
           <a:ext cx="1649811" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14108,15 +13977,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>139592</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>93098</xdr:rowOff>
+      <xdr:rowOff>75489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>77346</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>7330</xdr:rowOff>
+      <xdr:colOff>77347</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>175418</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14128,8 +13997,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-44749" y="5264057"/>
-          <a:ext cx="6133496" cy="834225"/>
+          <a:off x="-731109" y="6007248"/>
+          <a:ext cx="7352536" cy="795804"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -14159,7 +14028,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -14214,13 +14083,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>74467</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>63360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>76060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14267,7 +14136,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -14322,13 +14191,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>25104</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>38146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>40947</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14375,7 +14244,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>93469</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>78428</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031052" cy="328423"/>
@@ -14430,13 +14299,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7174</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>3454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14481,13 +14350,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131229</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>3451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>93469</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>74551</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14532,13 +14401,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131229</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>3452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>52145</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14583,13 +14452,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131229</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>3452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>86352</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>7330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14634,7 +14503,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>138969</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
@@ -14689,13 +14558,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>170420</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>153005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>138969</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14742,7 +14611,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>83053</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -14796,9 +14665,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -14808,7 +14677,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3810000" y="22355735"/>
+          <a:off x="3796392" y="33419143"/>
           <a:ext cx="889988" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14851,15 +14720,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>51527</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>164212</xdr:rowOff>
+      <xdr:colOff>89948</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>150605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>8824</xdr:rowOff>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14870,9 +14739,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3413292" y="19998624"/>
-          <a:ext cx="396708" cy="12700"/>
+        <a:xfrm flipV="1">
+          <a:off x="3355662" y="33583355"/>
+          <a:ext cx="440730" cy="13607"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -14911,7 +14780,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>83053</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14955,13 +14824,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>156876</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15016,14 +14885,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>91324</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:colOff>104931</xdr:colOff>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>214582</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>10474</xdr:colOff>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15033,8 +14902,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6366618" y="12797118"/>
-          <a:ext cx="347376" cy="302559"/>
+          <a:off x="6200931" y="21603341"/>
+          <a:ext cx="340972" cy="311363"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -15078,15 +14947,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>87794</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>5604</xdr:rowOff>
+      <xdr:colOff>145425</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>175418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>91324</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>7330</xdr:rowOff>
+      <xdr:colOff>104931</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>1202</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15097,9 +14966,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5914853" y="12948398"/>
-          <a:ext cx="451765" cy="1726"/>
+        <a:xfrm>
+          <a:off x="5805996" y="21756347"/>
+          <a:ext cx="394935" cy="2676"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -15132,13 +15001,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>192545</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>3451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>194249</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>164209</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15183,13 +15052,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>192545</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>3451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>191967</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>141795</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15232,15 +15101,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>224115</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>10483</xdr:colOff>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>113731</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:colOff>127338</xdr:colOff>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15250,8 +15119,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5602939" y="12841940"/>
-          <a:ext cx="337851" cy="302559"/>
+          <a:off x="5453340" y="22178841"/>
+          <a:ext cx="334569" cy="320169"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -15290,16 +15159,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>198256</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>12558</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>43340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>10483</xdr:colOff>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>50426</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>214590</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>52145</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15310,9 +15179,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5128844" y="12993220"/>
-          <a:ext cx="464570" cy="1719"/>
+        <a:xfrm>
+          <a:off x="5019987" y="22331840"/>
+          <a:ext cx="433353" cy="7086"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -15345,13 +15214,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15407,7 +15276,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>168080</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -15487,13 +15356,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>164203</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15540,7 +15409,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>184753</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>112053</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2409634" cy="328423"/>
@@ -15619,15 +15488,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>129204</xdr:colOff>
+      <xdr:colOff>166824</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>12327</xdr:rowOff>
+      <xdr:rowOff>7924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>96374</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>16856</xdr:rowOff>
+      <xdr:rowOff>8051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15639,8 +15508,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7076851" y="3206003"/>
-          <a:ext cx="415405" cy="4529"/>
+          <a:off x="6915967" y="3368888"/>
+          <a:ext cx="364978" cy="127"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -15672,14 +15541,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>124051</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>192086</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>44822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>23191</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:colOff>91226</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>11204</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15689,8 +15558,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9312875" y="6600263"/>
-          <a:ext cx="347375" cy="302559"/>
+          <a:off x="9118372" y="7828108"/>
+          <a:ext cx="334568" cy="320167"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -15733,16 +15602,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>162734</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28014</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>9854</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>20936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>124051</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>29741</xdr:rowOff>
+      <xdr:colOff>192086</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15753,9 +15622,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8903322" y="6751543"/>
-          <a:ext cx="409553" cy="1727"/>
+        <a:xfrm>
+          <a:off x="8718425" y="7981115"/>
+          <a:ext cx="399947" cy="7077"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -15787,15 +15656,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>187765</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>162483</xdr:rowOff>
+      <xdr:colOff>213379</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>155406</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>123271</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>164210</xdr:rowOff>
+      <xdr:colOff>109664</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>166886</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15806,9 +15675,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5566589" y="7726454"/>
-          <a:ext cx="607858" cy="1727"/>
+        <a:xfrm>
+          <a:off x="5438522" y="9000049"/>
+          <a:ext cx="549428" cy="11480"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -15840,15 +15709,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>158335</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>7329</xdr:rowOff>
+      <xdr:colOff>203158</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>175417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>67688</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>7330</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>175418</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15860,8 +15729,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5088923" y="8747917"/>
-          <a:ext cx="581706" cy="1"/>
+          <a:off x="4992872" y="10081417"/>
+          <a:ext cx="517673" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -15894,7 +15763,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>67688</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="328423"/>
@@ -15949,7 +15818,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>94487</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -16010,7 +15879,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>94487</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>63357</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16055,7 +15924,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>144058</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>156880</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -16135,13 +16004,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>144058</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>153004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16186,16 +16055,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>196494</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>151279</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30007</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>144199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>153003</xdr:rowOff>
+      <xdr:colOff>24813</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>155682</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -16206,9 +16075,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3334141" y="25532603"/>
-          <a:ext cx="487065" cy="1724"/>
+        <a:xfrm>
+          <a:off x="3295721" y="37645485"/>
+          <a:ext cx="430235" cy="11483"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -16240,15 +16109,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>79460</xdr:colOff>
-      <xdr:row>210</xdr:row>
-      <xdr:rowOff>162486</xdr:rowOff>
+      <xdr:colOff>130687</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>155399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>210</xdr:row>
-      <xdr:rowOff>164204</xdr:rowOff>
+      <xdr:colOff>58431</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>166888</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -16259,9 +16128,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3217107" y="26048074"/>
-          <a:ext cx="413599" cy="1718"/>
+        <a:xfrm>
+          <a:off x="3178687" y="38187363"/>
+          <a:ext cx="363173" cy="11489"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -16293,15 +16162,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>129093</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>106457</xdr:rowOff>
+      <xdr:colOff>199530</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>99372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>134472</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>108177</xdr:rowOff>
+      <xdr:colOff>148079</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>106457</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -16312,9 +16181,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3939093" y="27336751"/>
-          <a:ext cx="453614" cy="1720"/>
+        <a:xfrm>
+          <a:off x="3900673" y="38838908"/>
+          <a:ext cx="383977" cy="7085"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -16347,13 +16216,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>184753</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>108177</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16400,7 +16269,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2409634" cy="328423"/>
@@ -16480,7 +16349,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2127505" cy="328423"/>
@@ -16560,13 +16429,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16613,13 +16482,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16664,16 +16533,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>168458</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>14777</xdr:colOff>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>8824</xdr:rowOff>
+      <xdr:colOff>204108</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>19</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -16685,8 +16554,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3978458" y="28403036"/>
-          <a:ext cx="470278" cy="12700"/>
+          <a:off x="3933634" y="39434426"/>
+          <a:ext cx="407045" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -16718,14 +16587,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>110447</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:colOff>168076</xdr:colOff>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>35295</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:colOff>48902</xdr:colOff>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>164213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16738,8 +16607,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3696329" y="28571124"/>
-          <a:ext cx="373084" cy="1"/>
+          <a:off x="3651505" y="40141998"/>
+          <a:ext cx="316254" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -16772,13 +16641,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>78724</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>59481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>108182</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16823,7 +16692,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -16877,14 +16746,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>132432</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:colOff>118825</xdr:colOff>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>108605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>31572</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:colOff>17965</xdr:colOff>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>74987</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16894,8 +16763,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6183608" y="10193899"/>
-          <a:ext cx="347376" cy="302559"/>
+          <a:off x="5997111" y="12667998"/>
+          <a:ext cx="334568" cy="320168"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -16940,7 +16809,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>203410</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>97399</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -16995,13 +16864,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>78724</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>59480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>203410</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>93522</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17044,16 +16913,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>196926</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>91797</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>4826</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>84718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>132432</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>93523</xdr:rowOff>
+      <xdr:colOff>118825</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>91796</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -17064,9 +16933,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5575750" y="10345179"/>
-          <a:ext cx="607858" cy="1726"/>
+        <a:xfrm>
+          <a:off x="5447683" y="12821004"/>
+          <a:ext cx="549428" cy="7078"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -17098,14 +16967,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>156887</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:colOff>184101</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>46502</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:colOff>73716</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17115,8 +16984,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7552769" y="8594912"/>
-          <a:ext cx="337851" cy="302558"/>
+          <a:off x="7368672" y="9928412"/>
+          <a:ext cx="325044" cy="311363"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -17160,15 +17029,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>177226</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>5603</xdr:rowOff>
+      <xdr:colOff>215646</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>175417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>156887</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>7329</xdr:rowOff>
+      <xdr:colOff>184101</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -17179,9 +17048,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7124873" y="8746191"/>
-          <a:ext cx="427896" cy="1726"/>
+        <a:xfrm>
+          <a:off x="6964789" y="10081417"/>
+          <a:ext cx="403883" cy="2677"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -17214,7 +17083,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>112056</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -17269,7 +17138,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>123280</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -17330,7 +17199,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>119404</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17375,13 +17244,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>78724</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>59480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>108179</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17426,7 +17295,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>109356</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>123262</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -17481,13 +17350,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>110</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>119386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>109356</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>119404</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17533,14 +17402,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>21846</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:colOff>35453</xdr:colOff>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>145105</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:colOff>158712</xdr:colOff>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17550,8 +17419,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5400670" y="14881413"/>
-          <a:ext cx="347376" cy="302558"/>
+          <a:off x="5260596" y="22731934"/>
+          <a:ext cx="340973" cy="320167"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -17595,15 +17464,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>3933</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>72839</xdr:rowOff>
+      <xdr:colOff>35950</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>65747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>21846</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>74552</xdr:rowOff>
+      <xdr:colOff>35453</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>72839</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -17614,9 +17483,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4934521" y="15032692"/>
-          <a:ext cx="466149" cy="1713"/>
+        <a:xfrm>
+          <a:off x="4825664" y="22884926"/>
+          <a:ext cx="434932" cy="7092"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -17648,14 +17517,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:colOff>24813</xdr:colOff>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>134464</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:colOff>148071</xdr:colOff>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17665,8 +17534,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3821206" y="25381323"/>
-          <a:ext cx="347376" cy="302560"/>
+          <a:off x="3725956" y="37501285"/>
+          <a:ext cx="340972" cy="311365"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -17710,14 +17579,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:colOff>58431</xdr:colOff>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>168082</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:colOff>181689</xdr:colOff>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17727,8 +17596,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3630706" y="25896794"/>
-          <a:ext cx="347376" cy="302559"/>
+          <a:off x="3541860" y="38043170"/>
+          <a:ext cx="340972" cy="311364"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -17769,13 +17638,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>67289</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>160335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>168087</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>130595</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17820,7 +17689,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="328423"/>
@@ -17875,7 +17744,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -17930,7 +17799,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>40341</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>163606</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -17985,7 +17854,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>58270</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>13447</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -18040,13 +17909,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>222857</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>126716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>141799</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18091,13 +17960,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>222857</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>126716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>58270</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>9570</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18142,13 +18011,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>222857</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>126717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>40341</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>159729</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18192,8 +18061,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:colOff>204108</xdr:colOff>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -18204,7 +18073,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4448736" y="28238824"/>
+          <a:off x="4340679" y="39270214"/>
           <a:ext cx="889987" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18247,8 +18116,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>35295</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:colOff>48902</xdr:colOff>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -18259,7 +18128,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4069413" y="28406913"/>
+          <a:off x="3967759" y="39977787"/>
           <a:ext cx="889987" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18303,13 +18172,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>22406</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18360,14 +18229,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>134472</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:colOff>148079</xdr:colOff>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>33612</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:colOff>47219</xdr:colOff>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18377,8 +18246,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4392707" y="27185471"/>
-          <a:ext cx="347376" cy="302559"/>
+          <a:off x="4284650" y="38685908"/>
+          <a:ext cx="334569" cy="320169"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -18417,15 +18286,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>184017</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>151280</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>5523</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>155683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:colOff>159283</xdr:colOff>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18438,8 +18307,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5338723" y="27885839"/>
-          <a:ext cx="409894" cy="12932"/>
+          <a:off x="5230666" y="39425897"/>
+          <a:ext cx="371474" cy="8529"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -18471,15 +18340,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>28812</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>162486</xdr:rowOff>
+      <xdr:colOff>68032</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>164213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>164213</xdr:rowOff>
+      <xdr:colOff>24813</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>166889</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -18490,9 +18359,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4959400" y="28569398"/>
-          <a:ext cx="430630" cy="1727"/>
+        <a:xfrm>
+          <a:off x="4857746" y="40141999"/>
+          <a:ext cx="392210" cy="2676"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -18524,14 +18393,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:colOff>159283</xdr:colOff>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>44817</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:colOff>58424</xdr:colOff>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>134472</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18541,8 +18410,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5748617" y="27734559"/>
-          <a:ext cx="347376" cy="302560"/>
+          <a:off x="5602140" y="39270214"/>
+          <a:ext cx="334570" cy="311365"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -18586,14 +18455,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:colOff>24813</xdr:colOff>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>134465</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:colOff>148072</xdr:colOff>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18603,8 +18472,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5390030" y="28418118"/>
-          <a:ext cx="347376" cy="302560"/>
+          <a:off x="5249956" y="39988992"/>
+          <a:ext cx="340973" cy="311365"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -18649,13 +18518,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>13298</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>141800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>7332</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18702,7 +18571,7 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>11208</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -18782,13 +18651,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>51787</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>7332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>9571</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18835,13 +18704,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>33858</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>7332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>159729</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18887,14 +18756,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:colOff>148077</xdr:colOff>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>33610</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:colOff>47217</xdr:colOff>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>156884</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18904,8 +18773,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8650941" y="24899472"/>
-          <a:ext cx="347375" cy="302559"/>
+          <a:off x="8421220" y="35047199"/>
+          <a:ext cx="334568" cy="311364"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -18949,15 +18818,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>108464</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>5605</xdr:rowOff>
+      <xdr:colOff>159691</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>175420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>7332</xdr:rowOff>
+      <xdr:colOff>148077</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>1202</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -18968,9 +18837,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8176699" y="25050752"/>
-          <a:ext cx="474242" cy="1727"/>
+        <a:xfrm>
+          <a:off x="7997405" y="35200206"/>
+          <a:ext cx="423815" cy="2675"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -19003,7 +18872,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="328423"/>
@@ -19058,7 +18927,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -19113,13 +18982,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>156938</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>115527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>119389</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -19164,7 +19033,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -19219,13 +19088,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>156938</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>115527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>153006</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -19270,7 +19139,7 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -19323,9 +19192,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>62431</xdr:colOff>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -19336,7 +19205,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7261412" y="11721353"/>
+          <a:off x="7247002" y="14274694"/>
           <a:ext cx="1031051" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19380,13 +19249,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>109</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>119389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>132089</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -19432,15 +19301,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>110</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>119389</xdr:rowOff>
+      <xdr:colOff>32126</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>110585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>132089</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>62431</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>123285</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -19452,8 +19321,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6947757" y="11885565"/>
-          <a:ext cx="313655" cy="12700"/>
+          <a:off x="6781269" y="14438906"/>
+          <a:ext cx="465733" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -19486,13 +19355,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>112052</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19547,14 +19416,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:colOff>148078</xdr:colOff>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>33611</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:colOff>47218</xdr:colOff>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19564,8 +19433,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5065059" y="16394206"/>
-          <a:ext cx="347376" cy="302559"/>
+          <a:off x="4937792" y="23262611"/>
+          <a:ext cx="334569" cy="320169"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -19609,15 +19478,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>155011</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>72839</xdr:rowOff>
+      <xdr:colOff>174221</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>65761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>74566</xdr:rowOff>
+      <xdr:colOff>148078</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>72839</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -19628,9 +19497,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4637364" y="16545486"/>
-          <a:ext cx="427695" cy="1727"/>
+        <a:xfrm>
+          <a:off x="4528507" y="23415618"/>
+          <a:ext cx="409285" cy="7078"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -19663,7 +19532,7 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>89651</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1281120" cy="328423"/>
@@ -19743,7 +19612,7 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>89651</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1281120" cy="328423"/>
@@ -19823,13 +19692,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>122457</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>3451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>89651</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>164211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -19874,13 +19743,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>122457</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>3451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>89651</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>164211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -19925,7 +19794,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123263</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -19986,7 +19855,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123263</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>164211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -20031,7 +19900,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -20086,13 +19955,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>120021</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>160334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>224116</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -20137,7 +20006,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -20192,13 +20061,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>120021</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>160334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>224116</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -20243,7 +20112,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
@@ -20298,13 +20167,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>120022</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>160333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>164211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -20349,7 +20218,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>33616</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -20404,13 +20273,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>120021</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>160334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>224116</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>29740</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -20453,9 +20322,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>102531</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>143356</xdr:colOff>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>33620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1595309" cy="328423"/>
@@ -20466,7 +20335,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5705472" y="17682885"/>
+          <a:off x="5150785" y="18961156"/>
           <a:ext cx="1595309" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20508,9 +20377,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>128782</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>169606</xdr:colOff>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>27507</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
@@ -20521,7 +20390,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10034782" y="17692052"/>
+          <a:off x="9531320" y="18955043"/>
           <a:ext cx="1172116" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20563,9 +20432,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>113736</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>168169</xdr:colOff>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="328423"/>
@@ -20576,7 +20445,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7768372" y="17698162"/>
+          <a:off x="7135026" y="18961153"/>
           <a:ext cx="1877437" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20618,16 +20487,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>214665</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>20936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>121885</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>24647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>113736</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>24650</xdr:rowOff>
+      <xdr:colOff>168169</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>20939</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20639,8 +20508,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7326249" y="17862374"/>
-          <a:ext cx="442123" cy="3"/>
+          <a:off x="6746094" y="19125365"/>
+          <a:ext cx="388932" cy="3"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -20670,16 +20539,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>190082</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>18537</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>86177</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>14826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>128782</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>24647</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>169606</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>20936</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20691,8 +20560,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9645809" y="17856264"/>
-          <a:ext cx="388973" cy="6110"/>
+          <a:off x="9012463" y="19119255"/>
+          <a:ext cx="518857" cy="6110"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -20723,14 +20592,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>130506</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>24646</xdr:rowOff>
+      <xdr:colOff>160193</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>20935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>39431</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>102521</xdr:colOff>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>27507</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -20743,8 +20612,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="7790129" y="14861341"/>
-          <a:ext cx="349224" cy="5312198"/>
+          <a:off x="7462321" y="16299986"/>
+          <a:ext cx="360358" cy="4949756"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -20774,8 +20643,8 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>123285</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>132069</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -20785,7 +20654,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6174461" y="16282147"/>
+          <a:off x="6001571" y="17467569"/>
           <a:ext cx="748923" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20829,7 +20698,7 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>112079</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="564514"/>
@@ -20921,15 +20790,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>67290</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>137923</xdr:rowOff>
+      <xdr:colOff>80098</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>106705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>49511</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>33616</xdr:rowOff>
+      <xdr:colOff>62320</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>33615</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20941,8 +20810,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5377319" y="16007012"/>
-          <a:ext cx="568046" cy="1775162"/>
+          <a:off x="5196825" y="17251264"/>
+          <a:ext cx="634481" cy="1723936"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -20973,16 +20842,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>196799</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>120280</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1351</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>116569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>112079</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>136706</xdr:rowOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>119388</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20994,8 +20863,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6950890" y="16399371"/>
-          <a:ext cx="590689" cy="16426"/>
+          <a:off x="6750494" y="17628962"/>
+          <a:ext cx="546156" cy="2819"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -21027,13 +20896,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>130506</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>56174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>22728</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>24647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -21077,7 +20946,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>78439</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -21131,15 +21000,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>67289</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>25863</xdr:rowOff>
+      <xdr:colOff>80097</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>8253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>102530</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>29744</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>143356</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>20939</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -21151,8 +21020,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5069587" y="17211212"/>
-          <a:ext cx="340058" cy="931711"/>
+          <a:off x="4718205" y="18692788"/>
+          <a:ext cx="366472" cy="498688"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -21183,13 +21052,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>62676</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>160335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>67290</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>33616</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -21236,7 +21105,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1107</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>52576</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
@@ -21291,13 +21160,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>126618</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>59482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1107</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>48700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -21342,13 +21211,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>56024</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21400,8 +21269,8 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>108860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -21411,7 +21280,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3585882" y="17985441"/>
+          <a:off x="3483429" y="19567074"/>
           <a:ext cx="1031051" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21454,15 +21323,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>139593</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>93097</xdr:rowOff>
+      <xdr:rowOff>75489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>164211</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>96179</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -21474,8 +21343,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-4672231" y="9891539"/>
-          <a:ext cx="15535231" cy="980995"/>
+          <a:off x="-5485859" y="10761998"/>
+          <a:ext cx="17002404" cy="936172"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -21506,13 +21375,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>19982</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>162738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>13606</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>41748</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -21557,7 +21426,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>108858</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="607859" cy="328423"/>
@@ -21618,7 +21487,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -21663,13 +21532,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>63575</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>68038</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>20</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -21716,7 +21585,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>68038</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2056973" cy="328423"/>
@@ -21860,7 +21729,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1736373" cy="328423"/>
@@ -21915,7 +21784,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>59207</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>152334</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1736373" cy="328423"/>
@@ -21970,13 +21839,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>10936</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>29066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>59206</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>139653</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -22021,7 +21890,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>81619</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>99506</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="328423"/>
@@ -22076,13 +21945,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>10937</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>29065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>81619</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>86824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -22127,13 +21996,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>56536</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>126971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>41597</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>113239</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -22178,7 +22047,7 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>41598</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>125920</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1745158" cy="328423"/>
@@ -22247,7 +22116,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="328423"/>
@@ -22302,7 +22171,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>114461</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>116862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="328423"/>
@@ -22357,7 +22226,7 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>102454</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>121664</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1463029" cy="328423"/>
@@ -22426,13 +22295,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>155621</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>56281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>114460</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>104181</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -22477,13 +22346,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>188439</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>91499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>102453</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>108983</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -22528,7 +22397,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>122466</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
@@ -22583,13 +22452,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>155623</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>56280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>122467</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>96176</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -22634,13 +22503,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>144037</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>162735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>68962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -22685,13 +22554,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>89641</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22741,6 +22610,323 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1595309" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="247" name="テキスト ボックス 246"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5225143" y="5660571"/>
+          <a:ext cx="1595309" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>お気に入り登録者一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="248" name="テキスト ボックス 247"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5225143" y="6191250"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>訪問者記録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76815</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>8254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>217713</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="274" name="カギ線コネクタ 273"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="247" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4879411" y="5479051"/>
+          <a:ext cx="332850" cy="358613"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76816</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>8253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>164211</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="284" name="カギ線コネクタ 273"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="248" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4614072" y="5744390"/>
+          <a:ext cx="863529" cy="358613"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>81645</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="311" name="テキスト ボックス 310"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3347359" y="6694715"/>
+          <a:ext cx="1172116" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト訪問記録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>75488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>81646</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>136997</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="312" name="カギ線コネクタ 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="311" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="882286" y="4393853"/>
+          <a:ext cx="4130045" cy="800102"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -23669,7 +23855,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -23743,7 +23929,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -23778,7 +23963,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -23954,19 +24138,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A7:AC11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:29" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="33.75" thickBot="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -23999,8 +24183,8 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" ht="19.5" thickTop="1"/>
+    <row r="10" spans="1:29">
       <c r="P10" s="11" t="s">
         <v>0</v>
       </c>
@@ -24015,7 +24199,7 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29">
       <c r="P11" s="11" t="s">
         <v>1</v>
       </c>
@@ -24045,14 +24229,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:F171"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -24062,7 +24246,7 @@
     <col min="7" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -24078,7 +24262,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -24090,7 +24274,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="9"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -24098,7 +24282,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="9"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -24106,7 +24290,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="9"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -24114,7 +24298,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -24122,7 +24306,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="9"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -24130,7 +24314,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -24138,7 +24322,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -24146,7 +24330,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -24154,7 +24338,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -24162,7 +24346,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -24170,7 +24354,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="9"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -24178,7 +24362,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="9"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -24186,7 +24370,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -24194,7 +24378,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="9"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -24202,7 +24386,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="9"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -24210,7 +24394,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="9"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -24218,7 +24402,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="9"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -24226,7 +24410,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -24234,7 +24418,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -24242,7 +24426,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -24250,7 +24434,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -24258,7 +24442,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -24266,7 +24450,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -24274,7 +24458,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -24282,7 +24466,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -24290,7 +24474,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -24298,7 +24482,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -24306,7 +24490,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -24314,7 +24498,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -24322,7 +24506,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -24330,7 +24514,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -24338,7 +24522,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -24346,7 +24530,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -24354,7 +24538,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -24362,7 +24546,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -24370,7 +24554,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -24378,7 +24562,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -24386,7 +24570,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -24394,7 +24578,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -24402,7 +24586,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -24410,7 +24594,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -24418,7 +24602,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -24426,7 +24610,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -24434,7 +24618,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -24442,7 +24626,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -24450,7 +24634,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -24458,7 +24642,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -24466,7 +24650,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -24474,7 +24658,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -24482,7 +24666,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -24490,7 +24674,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -24498,7 +24682,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -24506,7 +24690,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -24514,7 +24698,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -24522,7 +24706,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -24530,7 +24714,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -24538,7 +24722,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -24546,7 +24730,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -24554,7 +24738,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -24562,7 +24746,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -24570,7 +24754,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -24578,7 +24762,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -24586,7 +24770,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -24594,7 +24778,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -24602,7 +24786,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -24610,7 +24794,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -24618,7 +24802,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -24626,7 +24810,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -24634,7 +24818,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -24642,7 +24826,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -24650,7 +24834,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -24658,7 +24842,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -24666,7 +24850,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -24674,7 +24858,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -24682,7 +24866,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -24690,7 +24874,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -24698,7 +24882,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -24706,7 +24890,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -24714,7 +24898,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -24722,7 +24906,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -24730,7 +24914,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -24738,7 +24922,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -24746,7 +24930,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -24754,7 +24938,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -24762,7 +24946,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -24770,7 +24954,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -24778,7 +24962,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -24786,7 +24970,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -24794,7 +24978,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -24802,7 +24986,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -24810,7 +24994,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -24818,7 +25002,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -24826,7 +25010,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -24834,7 +25018,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -24842,7 +25026,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -24850,7 +25034,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -24858,7 +25042,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -24866,7 +25050,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -24874,7 +25058,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -24882,7 +25066,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -24890,7 +25074,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -24898,7 +25082,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -24906,7 +25090,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -24914,7 +25098,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -24922,7 +25106,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -24930,7 +25114,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -24938,7 +25122,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -24946,7 +25130,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -24954,7 +25138,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -24962,7 +25146,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -24970,7 +25154,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -24978,7 +25162,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -24986,7 +25170,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -24994,7 +25178,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -25002,7 +25186,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -25010,7 +25194,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -25018,7 +25202,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -25026,7 +25210,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -25034,7 +25218,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -25042,7 +25226,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -25050,7 +25234,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -25058,7 +25242,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -25066,7 +25250,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -25074,7 +25258,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -25082,7 +25266,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -25090,7 +25274,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -25098,7 +25282,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -25106,7 +25290,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -25114,7 +25298,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -25122,7 +25306,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -25130,7 +25314,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -25138,7 +25322,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -25146,7 +25330,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -25154,7 +25338,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -25162,7 +25346,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -25170,7 +25354,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -25178,7 +25362,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -25186,7 +25370,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -25194,7 +25378,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -25202,7 +25386,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -25210,7 +25394,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -25218,7 +25402,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -25226,7 +25410,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -25234,7 +25418,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -25242,7 +25426,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -25250,7 +25434,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -25258,7 +25442,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -25266,7 +25450,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -25274,7 +25458,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -25282,7 +25466,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -25290,7 +25474,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -25298,7 +25482,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -25306,7 +25490,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -25314,7 +25498,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -25322,7 +25506,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -25330,7 +25514,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -25338,34 +25522,34 @@
       <c r="E161" s="4"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6">
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6">
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6">
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6">
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6">
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6">
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6">
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6">
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6">
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6">
       <c r="E171" s="2"/>
     </row>
   </sheetData>
@@ -25380,14 +25564,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25397,14 +25581,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AH115" sqref="AH115"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A154" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AQ191" sqref="AQ191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25413,14 +25597,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/layout/画面遷移図.xlsx
+++ b/documents/layout/画面遷移図.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="19200" windowHeight="12045" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="12030" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -76,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,7 +203,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -221,7 +221,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -239,7 +239,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -257,7 +257,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -275,7 +275,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -293,7 +293,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -10403,7 +10403,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>143905</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -10483,8 +10483,8 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>136452</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>39732</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -10494,7 +10494,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5515276" y="13637558"/>
+          <a:off x="5539725" y="30000187"/>
           <a:ext cx="1031051" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12117,7 +12117,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>178769</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12266,7 +12266,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>178769</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240404" cy="328423"/>
@@ -12724,7 +12724,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -12804,7 +12804,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>91626</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>145679</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -12884,13 +12884,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>126619</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>59482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>141800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12934,13 +12934,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>113077</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>141801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>91626</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>141802</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12986,8 +12986,8 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9887</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>156881</xdr:rowOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1281121" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -13066,13 +13066,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>126619</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>59482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9888</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>153004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13166,8 +13166,8 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>140610</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>39733</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1422184" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -13177,7 +13177,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3502375" y="13637559"/>
+          <a:off x="3517655" y="30000188"/>
           <a:ext cx="1422184" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13246,13 +13246,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>196341</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>40948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>52154</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13298,7 +13298,7 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -13378,14 +13378,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>218088</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>18535</xdr:rowOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>35857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>136452</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>18536</xdr:rowOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13397,8 +13397,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4924559" y="13801770"/>
-          <a:ext cx="590717" cy="1"/>
+          <a:off x="4945952" y="30169493"/>
+          <a:ext cx="593773" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -13481,15 +13481,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>206975</xdr:colOff>
+      <xdr:colOff>202899</xdr:colOff>
       <xdr:row>161</xdr:row>
-      <xdr:rowOff>34268</xdr:rowOff>
+      <xdr:rowOff>24081</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>140610</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>18535</xdr:rowOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>30763</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13501,8 +13501,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2478865" y="12778260"/>
-          <a:ext cx="1665149" cy="381871"/>
+          <a:off x="2194641" y="28841385"/>
+          <a:ext cx="2258045" cy="387983"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -13539,7 +13539,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>143905</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>52154</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13689,8 +13689,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>52833</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>18199</xdr:colOff>
       <xdr:row>162</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
@@ -13702,7 +13702,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7000480" y="12337676"/>
+          <a:off x="6772290" y="28122690"/>
           <a:ext cx="1031051" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13745,15 +13745,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>45011</xdr:colOff>
+      <xdr:colOff>7901</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>54554</xdr:rowOff>
+      <xdr:rowOff>58266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>52833</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>18199</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>54555</xdr:rowOff>
+      <xdr:rowOff>58267</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13765,8 +13765,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5923297" y="28888090"/>
-          <a:ext cx="878679" cy="1"/>
+          <a:off x="6086583" y="28286902"/>
+          <a:ext cx="685707" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -14028,7 +14028,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -14083,13 +14083,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>74467</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>63360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>76060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14503,7 +14503,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>138969</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
@@ -14558,13 +14558,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>170420</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>153005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>138969</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14611,7 +14611,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>83053</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -14666,7 +14666,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="328423"/>
@@ -14721,13 +14721,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>89948</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>150605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14780,7 +14780,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>83053</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15214,13 +15214,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15276,7 +15276,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>168080</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704313" cy="328423"/>
@@ -15356,13 +15356,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>164203</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15409,7 +15409,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>184753</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>112053</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2409634" cy="328423"/>
@@ -15924,7 +15924,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>144058</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>156880</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -16004,13 +16004,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>144058</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>153004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16057,13 +16057,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>30007</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>144199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>24813</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>155682</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16110,13 +16110,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>130687</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>155399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>58431</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>166888</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16163,13 +16163,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>199530</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>99372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>148079</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>106457</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16216,13 +16216,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>184753</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>108177</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16269,7 +16269,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2409634" cy="328423"/>
@@ -16349,7 +16349,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2127505" cy="328423"/>
@@ -16429,13 +16429,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16482,13 +16482,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123257</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16535,13 +16535,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>14777</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>204108</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>19</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16588,13 +16588,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>168076</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>48902</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>164213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17518,13 +17518,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>24813</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>148071</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17580,13 +17580,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>58431</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>181689</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17638,13 +17638,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>67289</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>160335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>168087</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>130595</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17689,7 +17689,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="328423"/>
@@ -17744,7 +17744,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1313180" cy="328423"/>
@@ -17799,7 +17799,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>40341</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>163606</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -17854,7 +17854,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>58270</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>13447</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -17909,13 +17909,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>222857</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>126716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>141799</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17960,13 +17960,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>222857</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>126716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>58270</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>9570</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18011,13 +18011,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>222857</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>126717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>40341</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>159729</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18062,7 +18062,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>204108</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -18117,7 +18117,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>48902</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328423"/>
@@ -18172,13 +18172,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>22406</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18230,13 +18230,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>148079</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>47219</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18288,13 +18288,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>5523</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>155683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>159283</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18341,13 +18341,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>68032</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>164213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>24813</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>166889</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18394,13 +18394,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>159283</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>58424</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>134472</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18456,13 +18456,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>24813</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>148072</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18518,13 +18518,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>13298</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>141800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>7332</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18571,7 +18571,7 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>11208</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1845377" cy="328423"/>
@@ -18651,13 +18651,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>51787</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>7332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>9571</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18704,13 +18704,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>33858</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>7332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>159729</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18757,13 +18757,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>148077</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>47217</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>156884</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18819,13 +18819,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>159691</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>175420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>148077</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>1202</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -21105,7 +21105,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1107</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>52576</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
@@ -21160,13 +21160,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>126618</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>59482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1107</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>48700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -21211,13 +21211,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>56024</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21426,7 +21426,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>108858</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="607859" cy="328423"/>
@@ -21487,7 +21487,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -21532,13 +21532,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>63575</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>164212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>68038</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>20</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -21585,7 +21585,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>68038</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2056973" cy="328423"/>
@@ -22826,10 +22826,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>81645</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>116282</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>45770</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -22839,7 +22839,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3347359" y="6694715"/>
+          <a:off x="4619009" y="6626679"/>
           <a:ext cx="1172116" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22881,32 +22881,1337 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>75488</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12527</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>81646</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>136997</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>116281</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>36800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="312" name="カギ線コネクタ 47"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="2"/>
+          <a:stCxn id="32" idx="2"/>
           <a:endCxn id="311" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="882286" y="4393853"/>
-          <a:ext cx="4130045" cy="800102"/>
+          <a:off x="2970428" y="5142310"/>
+          <a:ext cx="2517998" cy="779163"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1736373" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="246" name="テキスト ボックス 245"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5320393" y="26044072"/>
+          <a:ext cx="1736373" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム新規登録申請対応</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>8266</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>28141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>41748</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="282" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="290" idx="3"/>
+          <a:endCxn id="246" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4797980" y="26208284"/>
+          <a:ext cx="522413" cy="13607"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="283" name="テキスト ボックス 282"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5851071" y="23785286"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム修正申請対応</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>11887</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>68962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>81662</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="285" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="297" idx="3"/>
+          <a:endCxn id="283" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5237030" y="23949498"/>
+          <a:ext cx="614041" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>103912</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1736373" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="287" name="テキスト ボックス 286"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4745181" y="29371639"/>
+          <a:ext cx="1736373" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>不正なレビュー申請一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>86594</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1736373" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="288" name="テキスト ボックス 287"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6961909" y="29354321"/>
+          <a:ext cx="1736373" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>不正なレビュー申請対応</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>177736</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>77624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>94942</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="289" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="287" idx="3"/>
+          <a:endCxn id="288" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6481554" y="29518533"/>
+          <a:ext cx="480355" cy="17318"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>166048</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>38090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>94942</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="308" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="287" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4392802" y="29183472"/>
+          <a:ext cx="403216" cy="301542"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>176292</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>94941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>39732</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="310" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="287" idx="1"/>
+          <a:endCxn id="220" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4228747" y="29535850"/>
+          <a:ext cx="516434" cy="464337"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="313" name="テキスト ボックス 312"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4727864" y="30653182"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>いいねログ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="315" name="テキスト ボックス 314"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5178136" y="28748182"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>いいねログ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>166048</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>164213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>56031</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="316" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="0"/>
+          <a:endCxn id="315" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4518615" y="28837419"/>
+          <a:ext cx="584545" cy="734497"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>214579</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>22145</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="317" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="234" idx="0"/>
+          <a:endCxn id="315" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="6248078" y="28732440"/>
+          <a:ext cx="573339" cy="933248"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>176292</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>21792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>164211</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="318" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="220" idx="2"/>
+          <a:endCxn id="313" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4233914" y="31016170"/>
+          <a:ext cx="488783" cy="499117"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190503</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>173180</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1845377" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="320" name="テキスト ボックス 319"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6269185" y="31345907"/>
+          <a:ext cx="1845377" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プロフィール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>他ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>214578</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>164210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190503</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="321" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="320" idx="1"/>
+          <a:endCxn id="313" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5617851" y="31510119"/>
+          <a:ext cx="651334" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="323" name="テキスト ボックス 322"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5801591" y="34636364"/>
+          <a:ext cx="1172116" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト違反報告</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104927</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>136709</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="324" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="193" idx="3"/>
+          <a:endCxn id="323" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057927" y="34080345"/>
+          <a:ext cx="743664" cy="720231"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>165326</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>164211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>147910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="326" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="323" idx="1"/>
+          <a:endCxn id="213" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4668053" y="34800575"/>
+          <a:ext cx="1133538" cy="1715517"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1595309" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="327" name="テキスト ボックス 326"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026227" y="32558181"/>
+          <a:ext cx="1595309" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>登録されているサイト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>122247</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>155239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123563</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="330" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="327" idx="2"/>
+          <a:endCxn id="116" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2608770" y="33101716"/>
+          <a:ext cx="431541" cy="1316"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>207819</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1595309" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="331" name="テキスト ボックス 330"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3359728" y="34653681"/>
+          <a:ext cx="1595309" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>登録されているサイト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104929</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>127737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>153317</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>17316</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="335" name="カギ線コネクタ 334"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="193" idx="2"/>
+          <a:endCxn id="331" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3977015" y="34424924"/>
+          <a:ext cx="409125" cy="48388"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200176</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>172559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104929</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="336" name="カギ線コネクタ 335"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="213" idx="0"/>
+          <a:endCxn id="331" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3918945" y="35090653"/>
+          <a:ext cx="346987" cy="129890"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -23180,10 +24485,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>17319</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -23193,7 +24498,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1306286" y="2653393"/>
+          <a:off x="2043546" y="9836728"/>
           <a:ext cx="748923" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23237,7 +24542,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>122465</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>13606</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="328423"/>
@@ -23290,12 +24595,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="748923" cy="328423"/>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1736373" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="216" name="テキスト ボックス 215"/>
@@ -23303,8 +24608,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1959429" y="3184071"/>
-          <a:ext cx="748923" cy="328423"/>
+          <a:off x="2926773" y="10494818"/>
+          <a:ext cx="1736373" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23336,7 +24641,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>違反報告</a:t>
+            <a:t>不正な遊んだゲーム一覧</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -23345,12 +24650,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="748923" cy="328423"/>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1736373" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="217" name="テキスト ボックス 216"/>
@@ -23358,8 +24663,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1959429" y="3714750"/>
-          <a:ext cx="748923" cy="328423"/>
+          <a:off x="5212773" y="10460182"/>
+          <a:ext cx="1736373" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23391,7 +24696,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>違反報告</a:t>
+            <a:t>不正な遊んだゲーム対応</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -23400,12 +24705,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="748923" cy="328423"/>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="218" name="テキスト ボックス 217"/>
@@ -23413,8 +24718,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1959429" y="4245429"/>
-          <a:ext cx="748923" cy="328423"/>
+          <a:off x="2961409" y="11170227"/>
+          <a:ext cx="1454244" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23446,7 +24751,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>違反報告</a:t>
+            <a:t>不正なレビュー一覧</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -23455,12 +24760,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="748923" cy="328423"/>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="219" name="テキスト ボックス 218"/>
@@ -23468,8 +24773,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1959429" y="4776107"/>
-          <a:ext cx="748923" cy="328423"/>
+          <a:off x="2978727" y="12018818"/>
+          <a:ext cx="1454244" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23501,7 +24806,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>違反報告</a:t>
+            <a:t>違反サイト報告一覧</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -23510,8 +24815,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>13608</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30921</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
@@ -23523,7 +24828,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1319894" y="2694214"/>
+          <a:off x="1832012" y="2638548"/>
           <a:ext cx="748923" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23565,12 +24870,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1031051" cy="328423"/>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>94379</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="221" name="テキスト ボックス 220"/>
@@ -23578,8 +24883,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1741714" y="3184071"/>
-          <a:ext cx="1031051" cy="328423"/>
+          <a:off x="2570879" y="3099955"/>
+          <a:ext cx="1172116" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23611,7 +24916,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>会社マスター</a:t>
+            <a:t>ゲーム会社一覧</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -23620,21 +24925,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>25106</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1877437" cy="328423"/>
+    <xdr:ext cx="1454244" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="222" name="テキスト ボックス 221"/>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1741714" y="3714750"/>
-          <a:ext cx="1877437" cy="328423"/>
+          <a:off x="4302697" y="3117273"/>
+          <a:ext cx="1454244" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23666,7 +24971,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>プラットフォームマスター</a:t>
+            <a:t>ゲーム会社新規登録</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -23675,21 +24980,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1595309" cy="328423"/>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>146334</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="223" name="テキスト ボックス 222"/>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1741714" y="4245429"/>
-          <a:ext cx="1595309" cy="328423"/>
+          <a:off x="3523379" y="3688773"/>
+          <a:ext cx="1172116" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23721,7 +25026,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ゲームソフトマスター</a:t>
+            <a:t>ゲーム会社詳細</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -23730,21 +25035,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1877437" cy="328423"/>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>163652</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="224" name="テキスト ボックス 223"/>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2585357" y="5089071"/>
-          <a:ext cx="1877437" cy="328423"/>
+          <a:off x="5116652" y="3706091"/>
+          <a:ext cx="1172116" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23776,7 +25081,7 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ゲームソフト登録申請一覧</a:t>
+            <a:t>ゲーム会社修正</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -23786,20 +25091,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1877437" cy="328423"/>
+      <xdr:colOff>146333</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1595309" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="225" name="テキスト ボックス 224"/>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2585357" y="6041571"/>
-          <a:ext cx="1877437" cy="328423"/>
+          <a:off x="2622833" y="4329545"/>
+          <a:ext cx="1595309" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23831,13 +25136,3150 @@
               <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ゲームソフト修正申請一覧</a:t>
+            <a:t>プラットフォーム一覧</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>146334</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1877437" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4874198" y="4312227"/>
+          <a:ext cx="1877437" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プラットフォーム新規登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>42425</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>51953</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1595309" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3869743" y="4901044"/>
+          <a:ext cx="1595309" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プラットフォーム詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>25107</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1595309" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5878652" y="4883727"/>
+          <a:ext cx="1595309" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プラットフォーム修正</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7789</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2709425" y="5455227"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲームシリーズ一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>111697</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1736373" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4614424" y="5455227"/>
+          <a:ext cx="1736373" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲームシリーズ新規登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>42425</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3869743" y="6009410"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲームシリーズ詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>129017</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5757426" y="5957455"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲームシリーズ修正</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133222</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>118132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30921</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31851</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="210" idx="2"/>
+          <a:endCxn id="220" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1328826" y="2299574"/>
+          <a:ext cx="433264" cy="573108"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180247</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>94379</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>146894</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="220" idx="2"/>
+          <a:endCxn id="221" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2240079" y="2933366"/>
+          <a:ext cx="297196" cy="364405"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>150338</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>146894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>25106</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="221" idx="3"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752520" y="3264167"/>
+          <a:ext cx="550177" cy="17318"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>14554</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>146335</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>42984</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="221" idx="2"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3132618" y="3462222"/>
+          <a:ext cx="424607" cy="356917"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>202293</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>42985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>163652</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>60303</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4705020" y="3852985"/>
+          <a:ext cx="411632" cy="17318"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180247</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>146333</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="220" idx="2"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1651261" y="3522184"/>
+          <a:ext cx="1526786" cy="416359"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180247</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7789</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>77621</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="220" idx="2"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1131716" y="4041729"/>
+          <a:ext cx="2652468" cy="502951"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>175212</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>146334</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4227667" y="4476439"/>
+          <a:ext cx="646531" cy="17318"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>52967</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>155241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>42424</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42983</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3446233" y="4641747"/>
+          <a:ext cx="407288" cy="439730"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>71304</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>25107</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42983</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5474577" y="5047939"/>
+          <a:ext cx="404075" cy="17317"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>111214</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>77621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>111697</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>90321</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="3"/>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4163669" y="5619439"/>
+          <a:ext cx="450755" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>59502</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>68650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>42425</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>112258</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="2"/>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3458159" y="5762038"/>
+          <a:ext cx="389972" cy="433196"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>145851</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>60303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>129017</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>112258</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5323987" y="6121667"/>
+          <a:ext cx="433439" cy="51955"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>129016</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="テキスト ボックス 96"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2830652" y="6719455"/>
+          <a:ext cx="1313180" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲームソフト一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180246</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>129015</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="220" idx="2"/>
+          <a:endCxn id="97" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="560214" y="4613230"/>
+          <a:ext cx="3916696" cy="624178"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>198289</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1595309" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="テキスト ボックス 101"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4701016" y="6719455"/>
+          <a:ext cx="1595309" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲームソフト新規登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>111698</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="テキスト ボックス 102"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3939016" y="7377545"/>
+          <a:ext cx="1313180" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲームソフト詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>173180</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="テキスト ボックス 104"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5801589" y="7377546"/>
+          <a:ext cx="1313180" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲームソフト編集</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>100902</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>198289</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142276</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="97" idx="3"/>
+          <a:endCxn id="102" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4153357" y="6883667"/>
+          <a:ext cx="547659" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>119723</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>120604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>111699</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>94938</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="97" idx="2"/>
+          <a:endCxn id="103" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3470953" y="7073692"/>
+          <a:ext cx="493879" cy="442249"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>83585</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>94939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>173180</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>94940</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="103" idx="3"/>
+          <a:endCxn id="105" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5261721" y="7541757"/>
+          <a:ext cx="539868" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180970</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1877437" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="テキスト ボックス 117"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4908834" y="8052954"/>
+          <a:ext cx="1877437" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲームパッケージ新規登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>7788</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1595309" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="テキスト ボックス 118"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4960788" y="8676409"/>
+          <a:ext cx="1595309" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲームパッケージ詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>7788</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1595309" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="テキスト ボックス 119"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7212152" y="8659091"/>
+          <a:ext cx="1595309" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲームパッケージ編集</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>102404</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180970</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>77621</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="103" idx="2"/>
+          <a:endCxn id="118" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4501384" y="7809715"/>
+          <a:ext cx="511198" cy="303703"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>102405</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>7789</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>8347</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="103" idx="2"/>
+          <a:endCxn id="119" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4215634" y="8095465"/>
+          <a:ext cx="1134653" cy="355657"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>36667</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>7788</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>8348</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="119" idx="3"/>
+          <a:endCxn id="120" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6565622" y="8823303"/>
+          <a:ext cx="646530" cy="17318"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133222</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>118132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>17319</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>129576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="210" idx="2"/>
+          <a:endCxn id="214" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-2164497" y="5792897"/>
+          <a:ext cx="7631444" cy="784642"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="テキスト ボックス 133"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="11256818"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>不正なレビュー対応</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="テキスト ボックス 134"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="11949545"/>
+          <a:ext cx="1172116" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>違反サイト対応</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1736373" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="テキスト ボックス 135"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2926773" y="12815455"/>
+          <a:ext cx="1736373" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>掲示板不正投稿報告一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1736373" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="テキスト ボックス 136"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5178136" y="12815455"/>
+          <a:ext cx="1736373" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>掲示板不正投稿報告対応</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>166644</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>120605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>94938</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="214" idx="2"/>
+          <a:endCxn id="216" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2425451" y="10157707"/>
+          <a:ext cx="493879" cy="508765"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>166643</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>120606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>34635</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>77621</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="214" idx="2"/>
+          <a:endCxn id="218" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2105064" y="10478094"/>
+          <a:ext cx="1169288" cy="543401"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>166644</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>120605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>60302</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="214" idx="2"/>
+          <a:endCxn id="219" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1689428" y="10893730"/>
+          <a:ext cx="2017879" cy="560719"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>166643</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>120606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="214" idx="2"/>
+          <a:endCxn id="136" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1265132" y="11318026"/>
+          <a:ext cx="2814516" cy="508765"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>160419</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>60303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>94939</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="216" idx="3"/>
+          <a:endCxn id="217" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4663146" y="10624394"/>
+          <a:ext cx="549627" cy="34636"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>138062</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>77621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="218" idx="3"/>
+          <a:endCxn id="134" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4415653" y="11334439"/>
+          <a:ext cx="537347" cy="86591"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>155380</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>60303</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="154" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="219" idx="3"/>
+          <a:endCxn id="135" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4432971" y="12113757"/>
+          <a:ext cx="520029" cy="69273"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>160419</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>3731</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="155" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="136" idx="3"/>
+          <a:endCxn id="137" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4663146" y="12979667"/>
+          <a:ext cx="514990" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>110197</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>120604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>103910</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>112261</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="162" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="97" idx="2"/>
+          <a:endCxn id="164" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2267339" y="8267780"/>
+          <a:ext cx="3108929" cy="669123"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>103910</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>121231</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1736373" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="テキスト ボックス 163"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4156365" y="9992595"/>
+          <a:ext cx="1736373" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム新規登録申請一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="テキスト ボックス 165"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="9351818"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム修正申請一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>92879</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="167" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="103" idx="2"/>
+          <a:endCxn id="166" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3869272" y="8432302"/>
+          <a:ext cx="1810062" cy="357394"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="テキスト ボックス 169"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6979230" y="9351818"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム修正申請対応</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>103426</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>3730</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="166" idx="3"/>
+          <a:endCxn id="170" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6407244" y="9516030"/>
+          <a:ext cx="571986" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>51955</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="テキスト ボックス 174"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6355773" y="10702636"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム修正申請対応</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>224653</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>129575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>51955</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>146894</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="176" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="180" idx="3"/>
+          <a:endCxn id="175" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5627926" y="10866848"/>
+          <a:ext cx="727847" cy="17319"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="テキスト ボックス 179"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4173682" y="10719955"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム修正申請一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>110198</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>120604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>121228</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>146893</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="181" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="97" idx="2"/>
+          <a:endCxn id="180" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1912318" y="8622802"/>
+          <a:ext cx="3836289" cy="686440"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1736373" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="テキスト ボックス 185"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6528955" y="10044545"/>
+          <a:ext cx="1736373" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム新規登録申請対応</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>39193</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>112262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>164212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="187" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="164" idx="3"/>
+          <a:endCxn id="186" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5892738" y="10156807"/>
+          <a:ext cx="636217" cy="51950"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23855,7 +28297,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -23929,6 +28371,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -23963,6 +28406,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -24138,19 +28582,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:AC11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:29" ht="33.75" thickBot="1">
+    <row r="7" spans="1:29" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -24183,8 +28627,8 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="1:29" ht="19.5" thickTop="1"/>
-    <row r="10" spans="1:29">
+    <row r="8" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="P10" s="11" t="s">
         <v>0</v>
       </c>
@@ -24199,7 +28643,7 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="P11" s="11" t="s">
         <v>1</v>
       </c>
@@ -24229,14 +28673,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F171"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -24246,7 +28690,7 @@
     <col min="7" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -24262,7 +28706,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -24274,7 +28718,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -24282,7 +28726,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -24290,7 +28734,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -24298,7 +28742,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -24306,7 +28750,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -24314,7 +28758,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -24322,7 +28766,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -24330,7 +28774,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -24338,7 +28782,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -24346,7 +28790,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -24354,7 +28798,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -24362,7 +28806,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -24370,7 +28814,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -24378,7 +28822,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -24386,7 +28830,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -24394,7 +28838,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -24402,7 +28846,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -24410,7 +28854,7 @@
       <c r="